--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061BC7AC-FA51-44FC-90A3-8F5FDE6D6BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482DFA9-9309-4C54-90CA-374B3DB8C078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -567,14 +567,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -857,15 +856,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="13"/>
-    <col min="4" max="4" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482DFA9-9309-4C54-90CA-374B3DB8C078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E33D7E-1C31-4160-8D34-B5DEC6CF0F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2551,7 +2551,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D35" s="14">
         <v>21.172000000000001</v>

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E33D7E-1C31-4160-8D34-B5DEC6CF0F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFFC0A-5057-45D5-B24E-E3421F835A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,22 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="94">
-  <si>
-    <t>藏瑪然特</t>
-  </si>
-  <si>
-    <t>無極汰那</t>
-  </si>
-  <si>
-    <t>拉帝歐斯</t>
-  </si>
-  <si>
-    <t>多刺菊石獸</t>
-  </si>
-  <si>
-    <t>寶可夢</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>攻/守</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -130,274 +118,6 @@
   </si>
   <si>
     <t>無</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防禦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>冰</t>
-  </si>
-  <si>
-    <t>格鬥</t>
-  </si>
-  <si>
-    <t>岩石</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>超能力</t>
-  </si>
-  <si>
-    <t>飛行</t>
-  </si>
-  <si>
-    <t>屬性1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屬性2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸福蛋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡比獸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水君</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>急凍鳥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉普拉斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉帝亞斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒼響</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨金怪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎帝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋼鎧鴉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>幾何雪花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏飽栗鼠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷公</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道熊師(一)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武道熊師(連)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水箭龜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>閃電鳥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轟擂金剛猩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰鳥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投擲猴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙蛙花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>毛毛角羊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>壺壺</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>噴火龍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龍頭地鼠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰塵山</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>閃焰王牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吼鯨王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐮刀盔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高傲雉雞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>列陣兵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莉姆溫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>狒狒達摩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨鉗蟹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戰弦蠑螈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>千面避役</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿鬼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴大蝶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾魂眼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡地</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋁鋼龍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜冷美后</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙奈朵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>超級巨伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>太陽伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>月亮伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>葉伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙子伊布</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾路雷朵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>烏賊王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>心蝙蝠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>超極巨灰塵山</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛奇亞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,7 +293,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -589,6 +315,941 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="攻守數據"/>
+      <sheetName val="數據"/>
+      <sheetName val="屬性克制表"/>
+      <sheetName val="極巨傷害"/>
+      <sheetName val="能量點"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="Y2" t="str">
+            <v>寶可夢</v>
+          </cell>
+          <cell r="Z2" t="str">
+            <v>屬性一</v>
+          </cell>
+          <cell r="AA2" t="str">
+            <v>屬性二</v>
+          </cell>
+          <cell r="AB2" t="str">
+            <v>基礎防禦</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="Y3" t="str">
+            <v>幸福蛋</v>
+          </cell>
+          <cell r="Z3" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA3" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB3">
+            <v>61.686</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Y4" t="str">
+            <v>藏瑪然特</v>
+          </cell>
+          <cell r="Z4" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA4" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AB4">
+            <v>43.07</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="Y5" t="str">
+            <v>卡比獸</v>
+          </cell>
+          <cell r="Z5" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA5" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB5">
+            <v>33.768000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Y6" t="str">
+            <v>水君</v>
+          </cell>
+          <cell r="Z6" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA6" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB6">
+            <v>34.58</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Y7" t="str">
+            <v>無極汰那</v>
+          </cell>
+          <cell r="Z7" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AA7" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB7">
+            <v>35.802</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Y8" t="str">
+            <v>急凍鳥</v>
+          </cell>
+          <cell r="Z8" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AA8" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB8">
+            <v>30.504000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Y9" t="str">
+            <v>拉普拉斯</v>
+          </cell>
+          <cell r="Z9" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA9" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AB9">
+            <v>33.81</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Y10" t="str">
+            <v>拉帝亞斯</v>
+          </cell>
+          <cell r="Z10" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AA10" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB10">
+            <v>22.308</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Y11" t="str">
+            <v>蒼響</v>
+          </cell>
+          <cell r="Z11" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA11" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AB11">
+            <v>36.848999999999997</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Y12" t="str">
+            <v>拉帝歐斯</v>
+          </cell>
+          <cell r="Z12" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AA12" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB12">
+            <v>27.808</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Y13" t="str">
+            <v>巨金怪</v>
+          </cell>
+          <cell r="Z13" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA13" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB13">
+            <v>30.428999999999998</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Y14" t="str">
+            <v>炎帝</v>
+          </cell>
+          <cell r="Z14" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA14" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB14">
+            <v>23.552</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="Y15" t="str">
+            <v>鋼鎧鴉</v>
+          </cell>
+          <cell r="Z15" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA15" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB15">
+            <v>31.35</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="Y16" t="str">
+            <v>幾何雪花</v>
+          </cell>
+          <cell r="Z16" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AA16" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB16">
+            <v>26.295999999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Y17" t="str">
+            <v>藏飽栗鼠</v>
+          </cell>
+          <cell r="Z17" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA17" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB17">
+            <v>29.295000000000002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Y18" t="str">
+            <v>雷公</v>
+          </cell>
+          <cell r="Z18" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA18" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB18">
+            <v>27.37</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Y19" t="str">
+            <v>武道熊師(連)</v>
+          </cell>
+          <cell r="Z19" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA19" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AB19">
+            <v>28.2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Y20" t="str">
+            <v>武道熊師(一)</v>
+          </cell>
+          <cell r="Z20" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA20" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AB20">
+            <v>28.2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="Y21" t="str">
+            <v>水箭龜</v>
+          </cell>
+          <cell r="Z21" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA21" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB21">
+            <v>27.824999999999999</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Y22" t="str">
+            <v>閃電鳥</v>
+          </cell>
+          <cell r="Z22" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA22" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB22">
+            <v>25.367999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="Y23" t="str">
+            <v>轟擂金剛猩</v>
+          </cell>
+          <cell r="Z23" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA23" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB23">
+            <v>27.027000000000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="Y24" t="str">
+            <v>火焰鳥</v>
+          </cell>
+          <cell r="Z24" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA24" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB24">
+            <v>23.797999999999998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="Y25" t="str">
+            <v>投擲猴</v>
+          </cell>
+          <cell r="Z25" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA25" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB25">
+            <v>24.103999999999999</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="Y26" t="str">
+            <v>妙蛙花</v>
+          </cell>
+          <cell r="Z26" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA26" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB26">
+            <v>23.712</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Y27" t="str">
+            <v>毛毛角羊</v>
+          </cell>
+          <cell r="Z27" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA27" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB27">
+            <v>24.882999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Y28" t="str">
+            <v>多刺菊石獸</v>
+          </cell>
+          <cell r="Z28" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AA28" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AB28">
+            <v>25.456</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="Y29" t="str">
+            <v>壺壺</v>
+          </cell>
+          <cell r="Z29" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AA29" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AB29">
+            <v>33.659999999999997</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="Y30" t="str">
+            <v>怪力</v>
+          </cell>
+          <cell r="Z30" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA30" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB30">
+            <v>25.38</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="Y31" t="str">
+            <v>噴火龍</v>
+          </cell>
+          <cell r="Z31" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA31" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB31">
+            <v>22.62</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Y32" t="str">
+            <v>龍頭地鼠</v>
+          </cell>
+          <cell r="Z32" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AA32" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AB32">
+            <v>23.69</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="Y33" t="str">
+            <v>灰塵山</v>
+          </cell>
+          <cell r="Z33" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AA33" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB33">
+            <v>22.68</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="Y34" t="str">
+            <v>閃焰王牌</v>
+          </cell>
+          <cell r="Z34" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA34" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB34">
+            <v>24.36</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="Y35" t="str">
+            <v>吼鯨王</v>
+          </cell>
+          <cell r="Z35" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA35" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB35">
+            <v>22.88</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="Y36" t="str">
+            <v>鐮刀盔</v>
+          </cell>
+          <cell r="Z36" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA36" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AB36">
+            <v>21.172000000000001</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Y37" t="str">
+            <v>高傲雉雞</v>
+          </cell>
+          <cell r="Z37" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA37" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB37">
+            <v>20.32</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="Y38" t="str">
+            <v>列陣兵</v>
+          </cell>
+          <cell r="Z38" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA38" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB38">
+            <v>19.591000000000001</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="Y39" t="str">
+            <v>布莉姆溫</v>
+          </cell>
+          <cell r="Z39" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AA39" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB39">
+            <v>19.84</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="Y40" t="str">
+            <v>狒狒達摩</v>
+          </cell>
+          <cell r="Z40" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA40" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB40">
+            <v>19.3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="Y41" t="str">
+            <v>巨鉗蟹</v>
+          </cell>
+          <cell r="Z41" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA41" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB41">
+            <v>19.431000000000001</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="Y42" t="str">
+            <v>戰弦蠑螈</v>
+          </cell>
+          <cell r="Z42" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA42" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB42">
+            <v>18.634</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Y43" t="str">
+            <v>千面避役</v>
+          </cell>
+          <cell r="Z43" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA43" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB43">
+            <v>18.081</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="Y44" t="str">
+            <v>耿鬼</v>
+          </cell>
+          <cell r="Z44" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AA44" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB44">
+            <v>18.224</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Y45" t="str">
+            <v>巴大蝶</v>
+          </cell>
+          <cell r="Z45" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AA45" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB45">
+            <v>15.827</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="Y46" t="str">
+            <v>勾魂眼</v>
+          </cell>
+          <cell r="Z46" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AA46" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AB46">
+            <v>13.688000000000001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Y47" t="str">
+            <v>胡地</v>
+          </cell>
+          <cell r="Z47" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA47" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB47">
+            <v>18.288</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Y48" t="str">
+            <v>鋁鋼龍</v>
+          </cell>
+          <cell r="Z48" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA48" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AB48">
+            <v>23.225999999999999</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Y49" t="str">
+            <v>甜冷美后</v>
+          </cell>
+          <cell r="Z49" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA49" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB49">
+            <v>24.9</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="Y50" t="str">
+            <v>沙奈朵</v>
+          </cell>
+          <cell r="Z50" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA50" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AB50">
+            <v>24.07</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Y51" t="str">
+            <v>超級巨伊布</v>
+          </cell>
+          <cell r="Z51" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA51" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB51">
+            <v>12.954000000000001</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="Y52" t="str">
+            <v>水伊布</v>
+          </cell>
+          <cell r="Z52" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA52" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB52">
+            <v>31.97</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="Y53" t="str">
+            <v>雷伊布</v>
+          </cell>
+          <cell r="Z53" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA53" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB53">
+            <v>21.84</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="Y54" t="str">
+            <v>火伊布</v>
+          </cell>
+          <cell r="Z54" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA54" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB54">
+            <v>21.42</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="Y55" t="str">
+            <v>太陽伊布</v>
+          </cell>
+          <cell r="Z55" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA55" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB55">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="Y56" t="str">
+            <v>月亮伊布</v>
+          </cell>
+          <cell r="Z56" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AA56" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB56">
+            <v>36.764000000000003</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="Y57" t="str">
+            <v>葉伊布</v>
+          </cell>
+          <cell r="Z57" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA57" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB57">
+            <v>25.9</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="Y58" t="str">
+            <v>冰伊布</v>
+          </cell>
+          <cell r="Z58" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AA58" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB58">
+            <v>24.36</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="Y59" t="str">
+            <v>仙子伊布</v>
+          </cell>
+          <cell r="Z59" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AA59" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB59">
+            <v>31.486000000000001</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="Y60" t="str">
+            <v>艾路雷朵</v>
+          </cell>
+          <cell r="Z60" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA60" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AB60">
+            <v>24.07</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="Y61" t="str">
+            <v>烏賊王</v>
+          </cell>
+          <cell r="Z61" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AA61" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB61">
+            <v>23.998000000000001</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="Y62" t="str">
+            <v>心蝙蝠</v>
+          </cell>
+          <cell r="Z62" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA62" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB62">
+            <v>15.157999999999999</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="Y63" t="str">
+            <v>超極巨灰塵山</v>
+          </cell>
+          <cell r="Z63" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AA63" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB63">
+            <v>22.4</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="Y64" t="str">
+            <v>洛奇亞</v>
+          </cell>
+          <cell r="Z64" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA64" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB64">
+            <v>50.628999999999998</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="Y65" t="str">
+            <v>飛腿郎</v>
+          </cell>
+          <cell r="Z65" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA65" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB65">
+            <v>18.600000000000001</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="Y66" t="str">
+            <v>快拳郎</v>
+          </cell>
+          <cell r="Z66" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA66" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB66">
+            <v>20.16</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,108 +1515,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="13"/>
-    <col min="4" max="4" width="12.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="13" t="str">
+        <f>[1]攻守數據!Y2</f>
+        <v>寶可夢</v>
+      </c>
+      <c r="B1" s="13" t="str">
+        <f>[1]攻守數據!Z2</f>
+        <v>屬性一</v>
+      </c>
+      <c r="C1" s="13" t="str">
+        <f>[1]攻守數據!AA2</f>
+        <v>屬性二</v>
+      </c>
+      <c r="D1" s="13" t="str">
+        <f>[1]攻守數據!AB2</f>
+        <v>基礎防禦</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>26</v>
+      <c r="A2" s="13" t="str">
+        <f>[1]攻守數據!Y3</f>
+        <v>幸福蛋</v>
+      </c>
+      <c r="B2" s="13" t="str">
+        <f>[1]攻守數據!Z3</f>
+        <v>一般</v>
+      </c>
+      <c r="C2" s="13" t="str">
+        <f>[1]攻守數據!AA3</f>
+        <v>無</v>
       </c>
       <c r="D2" s="14">
+        <f>[1]攻守數據!AB3</f>
         <v>61.686</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1016,20 +1685,24 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
+      <c r="A3" s="13" t="str">
+        <f>[1]攻守數據!Y4</f>
+        <v>藏瑪然特</v>
+      </c>
+      <c r="B3" s="13" t="str">
+        <f>[1]攻守數據!Z4</f>
+        <v>鋼</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>[1]攻守數據!AA4</f>
+        <v>格鬥</v>
       </c>
       <c r="D3" s="14">
+        <f>[1]攻守數據!AB4</f>
         <v>43.07</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1090,20 +1763,24 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>26</v>
+      <c r="A4" s="13" t="str">
+        <f>[1]攻守數據!Y5</f>
+        <v>卡比獸</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f>[1]攻守數據!Z5</f>
+        <v>一般</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f>[1]攻守數據!AA5</f>
+        <v>無</v>
       </c>
       <c r="D4" s="14">
+        <f>[1]攻守數據!AB5</f>
         <v>33.768000000000001</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5">
         <v>1.6</v>
@@ -1164,20 +1841,24 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>26</v>
+      <c r="A5" s="13" t="str">
+        <f>[1]攻守數據!Y6</f>
+        <v>水君</v>
+      </c>
+      <c r="B5" s="13" t="str">
+        <f>[1]攻守數據!Z6</f>
+        <v>水</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f>[1]攻守數據!AA6</f>
+        <v>無</v>
       </c>
       <c r="D5" s="14">
+        <f>[1]攻守數據!AB6</f>
         <v>34.58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1238,20 +1919,24 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
+      <c r="A6" s="13" t="str">
+        <f>[1]攻守數據!Y7</f>
+        <v>無極汰那</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <f>[1]攻守數據!Z7</f>
+        <v>龍</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>[1]攻守數據!AA7</f>
+        <v>毒</v>
       </c>
       <c r="D6" s="14">
+        <f>[1]攻守數據!AB7</f>
         <v>35.802</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1312,20 +1997,24 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>10</v>
+      <c r="A7" s="13" t="str">
+        <f>[1]攻守數據!Y8</f>
+        <v>急凍鳥</v>
+      </c>
+      <c r="B7" s="13" t="str">
+        <f>[1]攻守數據!Z8</f>
+        <v>冰</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>[1]攻守數據!AA8</f>
+        <v>飛行</v>
       </c>
       <c r="D7" s="14">
+        <f>[1]攻守數據!AB8</f>
         <v>30.504000000000001</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1386,20 +2075,24 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
+      <c r="A8" s="13" t="str">
+        <f>[1]攻守數據!Y9</f>
+        <v>拉普拉斯</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f>[1]攻守數據!Z9</f>
+        <v>水</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f>[1]攻守數據!AA9</f>
+        <v>冰</v>
       </c>
       <c r="D8" s="14">
+        <f>[1]攻守數據!AB9</f>
         <v>33.81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1460,20 +2153,24 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
+      <c r="A9" s="13" t="str">
+        <f>[1]攻守數據!Y10</f>
+        <v>拉帝亞斯</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>[1]攻守數據!Z10</f>
+        <v>龍</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>[1]攻守數據!AA10</f>
+        <v>超能力</v>
       </c>
       <c r="D9" s="14">
+        <f>[1]攻守數據!AB10</f>
         <v>22.308</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1534,20 +2231,24 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
+      <c r="A10" s="13" t="str">
+        <f>[1]攻守數據!Y11</f>
+        <v>蒼響</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f>[1]攻守數據!Z11</f>
+        <v>鋼</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f>[1]攻守數據!AA11</f>
+        <v>妖精</v>
       </c>
       <c r="D10" s="14">
+        <f>[1]攻守數據!AB11</f>
         <v>36.848999999999997</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -1608,20 +2309,24 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
+      <c r="A11" s="13" t="str">
+        <f>[1]攻守數據!Y12</f>
+        <v>拉帝歐斯</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f>[1]攻守數據!Z12</f>
+        <v>龍</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <f>[1]攻守數據!AA12</f>
+        <v>超能力</v>
       </c>
       <c r="D11" s="14">
+        <f>[1]攻守數據!AB12</f>
         <v>27.808</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1682,20 +2387,24 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>15</v>
+      <c r="A12" s="13" t="str">
+        <f>[1]攻守數據!Y13</f>
+        <v>巨金怪</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f>[1]攻守數據!Z13</f>
+        <v>鋼</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>[1]攻守數據!AA13</f>
+        <v>超能力</v>
       </c>
       <c r="D12" s="14">
+        <f>[1]攻守數據!AB13</f>
         <v>30.428999999999998</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1756,20 +2465,24 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>26</v>
+      <c r="A13" s="13" t="str">
+        <f>[1]攻守數據!Y14</f>
+        <v>炎帝</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>[1]攻守數據!Z14</f>
+        <v>火</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f>[1]攻守數據!AA14</f>
+        <v>無</v>
       </c>
       <c r="D13" s="14">
+        <f>[1]攻守數據!AB14</f>
         <v>23.552</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1830,20 +2543,24 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>10</v>
+      <c r="A14" s="13" t="str">
+        <f>[1]攻守數據!Y15</f>
+        <v>鋼鎧鴉</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>[1]攻守數據!Z15</f>
+        <v>鋼</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f>[1]攻守數據!AA15</f>
+        <v>飛行</v>
       </c>
       <c r="D14" s="14">
+        <f>[1]攻守數據!AB15</f>
         <v>31.35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1904,20 +2621,24 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>26</v>
+      <c r="A15" s="13" t="str">
+        <f>[1]攻守數據!Y16</f>
+        <v>幾何雪花</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>[1]攻守數據!Z16</f>
+        <v>冰</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f>[1]攻守數據!AA16</f>
+        <v>無</v>
       </c>
       <c r="D15" s="14">
+        <f>[1]攻守數據!AB16</f>
         <v>26.295999999999999</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1978,20 +2699,24 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>26</v>
+      <c r="A16" s="13" t="str">
+        <f>[1]攻守數據!Y17</f>
+        <v>藏飽栗鼠</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>[1]攻守數據!Z17</f>
+        <v>一般</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f>[1]攻守數據!AA17</f>
+        <v>無</v>
       </c>
       <c r="D16" s="14">
+        <f>[1]攻守數據!AB17</f>
         <v>29.295000000000002</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4">
         <v>0.39100000000000001</v>
@@ -2052,20 +2777,24 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>26</v>
+      <c r="A17" s="13" t="str">
+        <f>[1]攻守數據!Y18</f>
+        <v>雷公</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>[1]攻守數據!Z18</f>
+        <v>電</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <f>[1]攻守數據!AA18</f>
+        <v>無</v>
       </c>
       <c r="D17" s="14">
+        <f>[1]攻守數據!AB18</f>
         <v>27.37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2126,20 +2855,24 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
+      <c r="A18" s="13" t="str">
+        <f>[1]攻守數據!Y19</f>
+        <v>武道熊師(連)</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>[1]攻守數據!Z19</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f>[1]攻守數據!AA19</f>
+        <v>水</v>
       </c>
       <c r="D18" s="14">
+        <f>[1]攻守數據!AB19</f>
         <v>28.2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -2200,20 +2933,24 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>9</v>
+      <c r="A19" s="13" t="str">
+        <f>[1]攻守數據!Y20</f>
+        <v>武道熊師(一)</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f>[1]攻守數據!Z20</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f>[1]攻守數據!AA20</f>
+        <v>惡</v>
       </c>
       <c r="D19" s="14">
+        <f>[1]攻守數據!AB20</f>
         <v>28.2</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -2274,20 +3011,24 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>26</v>
+      <c r="A20" s="13" t="str">
+        <f>[1]攻守數據!Y21</f>
+        <v>水箭龜</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>[1]攻守數據!Z21</f>
+        <v>水</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <f>[1]攻守數據!AA21</f>
+        <v>無</v>
       </c>
       <c r="D20" s="14">
+        <f>[1]攻守數據!AB21</f>
         <v>27.824999999999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -2348,605 +3089,2343 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>10</v>
+      <c r="A21" s="13" t="str">
+        <f>[1]攻守數據!Y22</f>
+        <v>閃電鳥</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f>[1]攻守數據!Z22</f>
+        <v>電</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f>[1]攻守數據!AA22</f>
+        <v>飛行</v>
       </c>
       <c r="D21" s="14">
+        <f>[1]攻守數據!AB22</f>
         <v>25.367999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>26</v>
+      <c r="A22" s="13" t="str">
+        <f>[1]攻守數據!Y23</f>
+        <v>轟擂金剛猩</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f>[1]攻守數據!Z23</f>
+        <v>草</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f>[1]攻守數據!AA23</f>
+        <v>無</v>
       </c>
       <c r="D22" s="14">
+        <f>[1]攻守數據!AB23</f>
         <v>27.027000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>10</v>
+      <c r="A23" s="13" t="str">
+        <f>[1]攻守數據!Y24</f>
+        <v>火焰鳥</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f>[1]攻守數據!Z24</f>
+        <v>火</v>
+      </c>
+      <c r="C23" s="13" t="str">
+        <f>[1]攻守數據!AA24</f>
+        <v>飛行</v>
       </c>
       <c r="D23" s="14">
+        <f>[1]攻守數據!AB24</f>
         <v>23.797999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>26</v>
+      <c r="A24" s="13" t="str">
+        <f>[1]攻守數據!Y25</f>
+        <v>投擲猴</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f>[1]攻守數據!Z25</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <f>[1]攻守數據!AA25</f>
+        <v>無</v>
       </c>
       <c r="D24" s="14">
+        <f>[1]攻守數據!AB25</f>
         <v>24.103999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>12</v>
+      <c r="A25" s="13" t="str">
+        <f>[1]攻守數據!Y26</f>
+        <v>妙蛙花</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f>[1]攻守數據!Z26</f>
+        <v>草</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>[1]攻守數據!AA26</f>
+        <v>毒</v>
       </c>
       <c r="D25" s="14">
+        <f>[1]攻守數據!AB26</f>
         <v>23.712</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>26</v>
+      <c r="A26" s="13" t="str">
+        <f>[1]攻守數據!Y27</f>
+        <v>毛毛角羊</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f>[1]攻守數據!Z27</f>
+        <v>一般</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>[1]攻守數據!AA27</f>
+        <v>無</v>
       </c>
       <c r="D26" s="14">
+        <f>[1]攻守數據!AB27</f>
         <v>24.882999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>9</v>
+      <c r="A27" s="13" t="str">
+        <f>[1]攻守數據!Y28</f>
+        <v>多刺菊石獸</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f>[1]攻守數據!Z28</f>
+        <v>岩石</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <f>[1]攻守數據!AA28</f>
+        <v>水</v>
       </c>
       <c r="D27" s="14">
+        <f>[1]攻守數據!AB28</f>
         <v>25.456</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>18</v>
+      <c r="A28" s="13" t="str">
+        <f>[1]攻守數據!Y29</f>
+        <v>壺壺</v>
+      </c>
+      <c r="B28" s="13" t="str">
+        <f>[1]攻守數據!Z29</f>
+        <v>岩石</v>
+      </c>
+      <c r="C28" s="13" t="str">
+        <f>[1]攻守數據!AA29</f>
+        <v>蟲</v>
       </c>
       <c r="D28" s="14">
+        <f>[1]攻守數據!AB29</f>
         <v>33.659999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>26</v>
+      <c r="A29" s="13" t="str">
+        <f>[1]攻守數據!Y30</f>
+        <v>怪力</v>
+      </c>
+      <c r="B29" s="13" t="str">
+        <f>[1]攻守數據!Z30</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C29" s="13" t="str">
+        <f>[1]攻守數據!AA30</f>
+        <v>無</v>
       </c>
       <c r="D29" s="14">
+        <f>[1]攻守數據!AB30</f>
         <v>25.38</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>10</v>
+      <c r="A30" s="13" t="str">
+        <f>[1]攻守數據!Y31</f>
+        <v>噴火龍</v>
+      </c>
+      <c r="B30" s="13" t="str">
+        <f>[1]攻守數據!Z31</f>
+        <v>火</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>[1]攻守數據!AA31</f>
+        <v>飛行</v>
       </c>
       <c r="D30" s="14">
+        <f>[1]攻守數據!AB31</f>
         <v>22.62</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>22</v>
+      <c r="A31" s="13" t="str">
+        <f>[1]攻守數據!Y32</f>
+        <v>龍頭地鼠</v>
+      </c>
+      <c r="B31" s="13" t="str">
+        <f>[1]攻守數據!Z32</f>
+        <v>地面</v>
+      </c>
+      <c r="C31" s="13" t="str">
+        <f>[1]攻守數據!AA32</f>
+        <v>鋼</v>
       </c>
       <c r="D31" s="14">
+        <f>[1]攻守數據!AB32</f>
         <v>23.69</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>26</v>
+      <c r="A32" s="13" t="str">
+        <f>[1]攻守數據!Y33</f>
+        <v>灰塵山</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <f>[1]攻守數據!Z33</f>
+        <v>毒</v>
+      </c>
+      <c r="C32" s="13" t="str">
+        <f>[1]攻守數據!AA33</f>
+        <v>無</v>
       </c>
       <c r="D32" s="14">
+        <f>[1]攻守數據!AB33</f>
         <v>22.68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>26</v>
+      <c r="A33" s="13" t="str">
+        <f>[1]攻守數據!Y34</f>
+        <v>閃焰王牌</v>
+      </c>
+      <c r="B33" s="13" t="str">
+        <f>[1]攻守數據!Z34</f>
+        <v>火</v>
+      </c>
+      <c r="C33" s="13" t="str">
+        <f>[1]攻守數據!AA34</f>
+        <v>無</v>
       </c>
       <c r="D33" s="14">
+        <f>[1]攻守數據!AB34</f>
         <v>24.36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>26</v>
+      <c r="A34" s="13" t="str">
+        <f>[1]攻守數據!Y35</f>
+        <v>吼鯨王</v>
+      </c>
+      <c r="B34" s="13" t="str">
+        <f>[1]攻守數據!Z35</f>
+        <v>水</v>
+      </c>
+      <c r="C34" s="13" t="str">
+        <f>[1]攻守數據!AA35</f>
+        <v>無</v>
       </c>
       <c r="D34" s="14">
+        <f>[1]攻守數據!AB35</f>
         <v>22.88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>29</v>
+      <c r="A35" s="13" t="str">
+        <f>[1]攻守數據!Y36</f>
+        <v>鐮刀盔</v>
+      </c>
+      <c r="B35" s="13" t="str">
+        <f>[1]攻守數據!Z36</f>
+        <v>水</v>
+      </c>
+      <c r="C35" s="13" t="str">
+        <f>[1]攻守數據!AA36</f>
+        <v>岩石</v>
       </c>
       <c r="D35" s="14">
+        <f>[1]攻守數據!AB36</f>
         <v>21.172000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>10</v>
+      <c r="A36" s="13" t="str">
+        <f>[1]攻守數據!Y37</f>
+        <v>高傲雉雞</v>
+      </c>
+      <c r="B36" s="13" t="str">
+        <f>[1]攻守數據!Z37</f>
+        <v>一般</v>
+      </c>
+      <c r="C36" s="13" t="str">
+        <f>[1]攻守數據!AA37</f>
+        <v>飛行</v>
       </c>
       <c r="D36" s="14">
+        <f>[1]攻守數據!AB37</f>
         <v>20.32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>26</v>
+      <c r="A37" s="13" t="str">
+        <f>[1]攻守數據!Y38</f>
+        <v>列陣兵</v>
+      </c>
+      <c r="B37" s="13" t="str">
+        <f>[1]攻守數據!Z38</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C37" s="13" t="str">
+        <f>[1]攻守數據!AA38</f>
+        <v>無</v>
       </c>
       <c r="D37" s="14">
+        <f>[1]攻守數據!AB38</f>
         <v>19.591000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>32</v>
+      <c r="A38" s="13" t="str">
+        <f>[1]攻守數據!Y39</f>
+        <v>布莉姆溫</v>
+      </c>
+      <c r="B38" s="13" t="str">
+        <f>[1]攻守數據!Z39</f>
+        <v>妖精</v>
+      </c>
+      <c r="C38" s="13" t="str">
+        <f>[1]攻守數據!AA39</f>
+        <v>超能力</v>
       </c>
       <c r="D38" s="14">
+        <f>[1]攻守數據!AB39</f>
         <v>19.84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>26</v>
+      <c r="A39" s="13" t="str">
+        <f>[1]攻守數據!Y40</f>
+        <v>狒狒達摩</v>
+      </c>
+      <c r="B39" s="13" t="str">
+        <f>[1]攻守數據!Z40</f>
+        <v>火</v>
+      </c>
+      <c r="C39" s="13" t="str">
+        <f>[1]攻守數據!AA40</f>
+        <v>無</v>
       </c>
       <c r="D39" s="14">
+        <f>[1]攻守數據!AB40</f>
         <v>19.3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>26</v>
+      <c r="A40" s="13" t="str">
+        <f>[1]攻守數據!Y41</f>
+        <v>巨鉗蟹</v>
+      </c>
+      <c r="B40" s="13" t="str">
+        <f>[1]攻守數據!Z41</f>
+        <v>水</v>
+      </c>
+      <c r="C40" s="13" t="str">
+        <f>[1]攻守數據!AA41</f>
+        <v>無</v>
       </c>
       <c r="D40" s="14">
+        <f>[1]攻守數據!AB41</f>
         <v>19.431000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>12</v>
+      <c r="A41" s="13" t="str">
+        <f>[1]攻守數據!Y42</f>
+        <v>戰弦蠑螈</v>
+      </c>
+      <c r="B41" s="13" t="str">
+        <f>[1]攻守數據!Z42</f>
+        <v>電</v>
+      </c>
+      <c r="C41" s="13" t="str">
+        <f>[1]攻守數據!AA42</f>
+        <v>毒</v>
       </c>
       <c r="D41" s="14">
+        <f>[1]攻守數據!AB42</f>
         <v>18.634</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>26</v>
+      <c r="A42" s="13" t="str">
+        <f>[1]攻守數據!Y43</f>
+        <v>千面避役</v>
+      </c>
+      <c r="B42" s="13" t="str">
+        <f>[1]攻守數據!Z43</f>
+        <v>水</v>
+      </c>
+      <c r="C42" s="13" t="str">
+        <f>[1]攻守數據!AA43</f>
+        <v>無</v>
       </c>
       <c r="D42" s="14">
+        <f>[1]攻守數據!AB43</f>
         <v>18.081</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>12</v>
+      <c r="A43" s="13" t="str">
+        <f>[1]攻守數據!Y44</f>
+        <v>耿鬼</v>
+      </c>
+      <c r="B43" s="13" t="str">
+        <f>[1]攻守數據!Z44</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C43" s="13" t="str">
+        <f>[1]攻守數據!AA44</f>
+        <v>毒</v>
       </c>
       <c r="D43" s="14">
+        <f>[1]攻守數據!AB44</f>
         <v>18.224</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>33</v>
+      <c r="A44" s="13" t="str">
+        <f>[1]攻守數據!Y45</f>
+        <v>巴大蝶</v>
+      </c>
+      <c r="B44" s="13" t="str">
+        <f>[1]攻守數據!Z45</f>
+        <v>蟲</v>
+      </c>
+      <c r="C44" s="13" t="str">
+        <f>[1]攻守數據!AA45</f>
+        <v>飛行</v>
       </c>
       <c r="D44" s="14">
+        <f>[1]攻守數據!AB45</f>
         <v>15.827</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="13" t="s">
+      <c r="A45" s="13" t="str">
+        <f>[1]攻守數據!Y46</f>
+        <v>勾魂眼</v>
+      </c>
+      <c r="B45" s="13" t="str">
+        <f>[1]攻守數據!Z46</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C45" s="13" t="str">
+        <f>[1]攻守數據!AA46</f>
+        <v>惡</v>
+      </c>
+      <c r="D45" s="14">
+        <f>[1]攻守數據!AB46</f>
+        <v>13.688000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="str">
+        <f>[1]攻守數據!Y47</f>
+        <v>胡地</v>
+      </c>
+      <c r="B46" s="13" t="str">
+        <f>[1]攻守數據!Z47</f>
+        <v>超能力</v>
+      </c>
+      <c r="C46" s="13" t="str">
+        <f>[1]攻守數據!AA47</f>
+        <v>無</v>
+      </c>
+      <c r="D46" s="14">
+        <f>[1]攻守數據!AB47</f>
+        <v>18.288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="str">
+        <f>[1]攻守數據!Y48</f>
+        <v>鋁鋼龍</v>
+      </c>
+      <c r="B47" s="13" t="str">
+        <f>[1]攻守數據!Z48</f>
+        <v>鋼</v>
+      </c>
+      <c r="C47" s="13" t="str">
+        <f>[1]攻守數據!AA48</f>
+        <v>龍</v>
+      </c>
+      <c r="D47" s="14">
+        <f>[1]攻守數據!AB48</f>
+        <v>23.225999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="str">
+        <f>[1]攻守數據!Y49</f>
+        <v>甜冷美后</v>
+      </c>
+      <c r="B48" s="13" t="str">
+        <f>[1]攻守數據!Z49</f>
+        <v>草</v>
+      </c>
+      <c r="C48" s="13" t="str">
+        <f>[1]攻守數據!AA49</f>
+        <v>無</v>
+      </c>
+      <c r="D48" s="14">
+        <f>[1]攻守數據!AB49</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="str">
+        <f>[1]攻守數據!Y50</f>
+        <v>沙奈朵</v>
+      </c>
+      <c r="B49" s="13" t="str">
+        <f>[1]攻守數據!Z50</f>
+        <v>超能力</v>
+      </c>
+      <c r="C49" s="13" t="str">
+        <f>[1]攻守數據!AA50</f>
+        <v>妖精</v>
+      </c>
+      <c r="D49" s="14">
+        <f>[1]攻守數據!AB50</f>
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="str">
+        <f>[1]攻守數據!Y51</f>
+        <v>超級巨伊布</v>
+      </c>
+      <c r="B50" s="13" t="str">
+        <f>[1]攻守數據!Z51</f>
+        <v>一般</v>
+      </c>
+      <c r="C50" s="13" t="str">
+        <f>[1]攻守數據!AA51</f>
+        <v>無</v>
+      </c>
+      <c r="D50" s="14">
+        <f>[1]攻守數據!AB51</f>
+        <v>12.954000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="str">
+        <f>[1]攻守數據!Y52</f>
+        <v>水伊布</v>
+      </c>
+      <c r="B51" s="13" t="str">
+        <f>[1]攻守數據!Z52</f>
+        <v>水</v>
+      </c>
+      <c r="C51" s="13" t="str">
+        <f>[1]攻守數據!AA52</f>
+        <v>無</v>
+      </c>
+      <c r="D51" s="14">
+        <f>[1]攻守數據!AB52</f>
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="str">
+        <f>[1]攻守數據!Y53</f>
+        <v>雷伊布</v>
+      </c>
+      <c r="B52" s="13" t="str">
+        <f>[1]攻守數據!Z53</f>
+        <v>電</v>
+      </c>
+      <c r="C52" s="13" t="str">
+        <f>[1]攻守數據!AA53</f>
+        <v>無</v>
+      </c>
+      <c r="D52" s="14">
+        <f>[1]攻守數據!AB53</f>
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="str">
+        <f>[1]攻守數據!Y54</f>
+        <v>火伊布</v>
+      </c>
+      <c r="B53" s="13" t="str">
+        <f>[1]攻守數據!Z54</f>
+        <v>火</v>
+      </c>
+      <c r="C53" s="13" t="str">
+        <f>[1]攻守數據!AA54</f>
+        <v>無</v>
+      </c>
+      <c r="D53" s="14">
+        <f>[1]攻守數據!AB54</f>
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="str">
+        <f>[1]攻守數據!Y55</f>
+        <v>太陽伊布</v>
+      </c>
+      <c r="B54" s="13" t="str">
+        <f>[1]攻守數據!Z55</f>
+        <v>超能力</v>
+      </c>
+      <c r="C54" s="13" t="str">
+        <f>[1]攻守數據!AA55</f>
+        <v>無</v>
+      </c>
+      <c r="D54" s="14">
+        <f>[1]攻守數據!AB55</f>
         <v>21</v>
       </c>
-      <c r="D45" s="14">
-        <v>13.688000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="14">
-        <v>18.288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="14">
-        <v>23.225999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="14">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="14">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="str">
+        <f>[1]攻守數據!Y56</f>
+        <v>月亮伊布</v>
+      </c>
+      <c r="B55" s="13" t="str">
+        <f>[1]攻守數據!Z56</f>
+        <v>惡</v>
+      </c>
+      <c r="C55" s="13" t="str">
+        <f>[1]攻守數據!AA56</f>
+        <v>無</v>
+      </c>
+      <c r="D55" s="14">
+        <f>[1]攻守數據!AB56</f>
+        <v>36.764000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="str">
+        <f>[1]攻守數據!Y57</f>
+        <v>葉伊布</v>
+      </c>
+      <c r="B56" s="13" t="str">
+        <f>[1]攻守數據!Z57</f>
+        <v>草</v>
+      </c>
+      <c r="C56" s="13" t="str">
+        <f>[1]攻守數據!AA57</f>
+        <v>無</v>
+      </c>
+      <c r="D56" s="14">
+        <f>[1]攻守數據!AB57</f>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="str">
+        <f>[1]攻守數據!Y58</f>
+        <v>冰伊布</v>
+      </c>
+      <c r="B57" s="13" t="str">
+        <f>[1]攻守數據!Z58</f>
+        <v>冰</v>
+      </c>
+      <c r="C57" s="13" t="str">
+        <f>[1]攻守數據!AA58</f>
+        <v>無</v>
+      </c>
+      <c r="D57" s="14">
+        <f>[1]攻守數據!AB58</f>
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="str">
+        <f>[1]攻守數據!Y59</f>
+        <v>仙子伊布</v>
+      </c>
+      <c r="B58" s="13" t="str">
+        <f>[1]攻守數據!Z59</f>
+        <v>妖精</v>
+      </c>
+      <c r="C58" s="13" t="str">
+        <f>[1]攻守數據!AA59</f>
+        <v>無</v>
+      </c>
+      <c r="D58" s="14">
+        <f>[1]攻守數據!AB59</f>
+        <v>31.486000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="str">
+        <f>[1]攻守數據!Y60</f>
+        <v>艾路雷朵</v>
+      </c>
+      <c r="B59" s="13" t="str">
+        <f>[1]攻守數據!Z60</f>
+        <v>超能力</v>
+      </c>
+      <c r="C59" s="13" t="str">
+        <f>[1]攻守數據!AA60</f>
+        <v>格鬥</v>
+      </c>
+      <c r="D59" s="14">
+        <f>[1]攻守數據!AB60</f>
         <v>24.07</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="14">
-        <v>12.954000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="14">
-        <v>31.97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="14">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="14">
-        <v>21.42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="14">
-        <v>36.764000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="14">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="14">
-        <v>24.36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="14">
-        <v>31.486000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="14">
-        <v>24.07</v>
-      </c>
-    </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>15</v>
+      <c r="A60" s="13" t="str">
+        <f>[1]攻守數據!Y61</f>
+        <v>烏賊王</v>
+      </c>
+      <c r="B60" s="13" t="str">
+        <f>[1]攻守數據!Z61</f>
+        <v>惡</v>
+      </c>
+      <c r="C60" s="13" t="str">
+        <f>[1]攻守數據!AA61</f>
+        <v>超能力</v>
       </c>
       <c r="D60" s="14">
+        <f>[1]攻守數據!AB61</f>
         <v>23.998000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>10</v>
+      <c r="A61" s="13" t="str">
+        <f>[1]攻守數據!Y62</f>
+        <v>心蝙蝠</v>
+      </c>
+      <c r="B61" s="13" t="str">
+        <f>[1]攻守數據!Z62</f>
+        <v>超能力</v>
+      </c>
+      <c r="C61" s="13" t="str">
+        <f>[1]攻守數據!AA62</f>
+        <v>飛行</v>
       </c>
       <c r="D61" s="14">
+        <f>[1]攻守數據!AB62</f>
         <v>15.157999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>24</v>
+      <c r="A62" s="13" t="str">
+        <f>[1]攻守數據!Y63</f>
+        <v>超極巨灰塵山</v>
+      </c>
+      <c r="B62" s="13" t="str">
+        <f>[1]攻守數據!Z63</f>
+        <v>毒</v>
+      </c>
+      <c r="C62" s="13" t="str">
+        <f>[1]攻守數據!AA63</f>
+        <v>無</v>
       </c>
       <c r="D62" s="14">
+        <f>[1]攻守數據!AB63</f>
         <v>22.4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>10</v>
+      <c r="A63" s="13" t="str">
+        <f>[1]攻守數據!Y64</f>
+        <v>洛奇亞</v>
+      </c>
+      <c r="B63" s="13" t="str">
+        <f>[1]攻守數據!Z64</f>
+        <v>超能力</v>
+      </c>
+      <c r="C63" s="13" t="str">
+        <f>[1]攻守數據!AA64</f>
+        <v>飛行</v>
       </c>
       <c r="D63" s="14">
+        <f>[1]攻守數據!AB64</f>
         <v>50.628999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="str">
+        <f>[1]攻守數據!Y65</f>
+        <v>飛腿郎</v>
+      </c>
+      <c r="B64" s="13" t="str">
+        <f>[1]攻守數據!Z65</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C64" s="13" t="str">
+        <f>[1]攻守數據!AA65</f>
+        <v>無</v>
+      </c>
+      <c r="D64" s="16">
+        <f>[1]攻守數據!AB65</f>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="str">
+        <f>[1]攻守數據!Y66</f>
+        <v>快拳郎</v>
+      </c>
+      <c r="B65" s="13" t="str">
+        <f>[1]攻守數據!Z66</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C65" s="13" t="str">
+        <f>[1]攻守數據!AA66</f>
+        <v>無</v>
+      </c>
+      <c r="D65" s="16">
+        <f>[1]攻守數據!AB66</f>
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="str">
+        <f>IF([1]攻守數據!Y67 = "", "", [1]攻守數據!Y67)</f>
+        <v/>
+      </c>
+      <c r="B66" s="15" t="str">
+        <f>IF([1]攻守數據!Z67 = "", "", [1]攻守數據!Z67)</f>
+        <v/>
+      </c>
+      <c r="C66" s="15" t="str">
+        <f>IF([1]攻守數據!AA67 = "", "", [1]攻守數據!AA67)</f>
+        <v/>
+      </c>
+      <c r="D66" s="15" t="str">
+        <f>IF([1]攻守數據!AB67 = "", "", [1]攻守數據!AB67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="str">
+        <f>IF([1]攻守數據!Y68 = "", "", [1]攻守數據!Y68)</f>
+        <v/>
+      </c>
+      <c r="B67" s="15" t="str">
+        <f>IF([1]攻守數據!Z68 = "", "", [1]攻守數據!Z68)</f>
+        <v/>
+      </c>
+      <c r="C67" s="15" t="str">
+        <f>IF([1]攻守數據!AA68 = "", "", [1]攻守數據!AA68)</f>
+        <v/>
+      </c>
+      <c r="D67" s="15" t="str">
+        <f>IF([1]攻守數據!AB68 = "", "", [1]攻守數據!AB68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="str">
+        <f>IF([1]攻守數據!Y69 = "", "", [1]攻守數據!Y69)</f>
+        <v/>
+      </c>
+      <c r="B68" s="15" t="str">
+        <f>IF([1]攻守數據!Z69 = "", "", [1]攻守數據!Z69)</f>
+        <v/>
+      </c>
+      <c r="C68" s="15" t="str">
+        <f>IF([1]攻守數據!AA69 = "", "", [1]攻守數據!AA69)</f>
+        <v/>
+      </c>
+      <c r="D68" s="15" t="str">
+        <f>IF([1]攻守數據!AB69 = "", "", [1]攻守數據!AB69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="str">
+        <f>IF([1]攻守數據!Y70 = "", "", [1]攻守數據!Y70)</f>
+        <v/>
+      </c>
+      <c r="B69" s="15" t="str">
+        <f>IF([1]攻守數據!Z70 = "", "", [1]攻守數據!Z70)</f>
+        <v/>
+      </c>
+      <c r="C69" s="15" t="str">
+        <f>IF([1]攻守數據!AA70 = "", "", [1]攻守數據!AA70)</f>
+        <v/>
+      </c>
+      <c r="D69" s="15" t="str">
+        <f>IF([1]攻守數據!AB70 = "", "", [1]攻守數據!AB70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="str">
+        <f>IF([1]攻守數據!Y71 = "", "", [1]攻守數據!Y71)</f>
+        <v/>
+      </c>
+      <c r="B70" s="15" t="str">
+        <f>IF([1]攻守數據!Z71 = "", "", [1]攻守數據!Z71)</f>
+        <v/>
+      </c>
+      <c r="C70" s="15" t="str">
+        <f>IF([1]攻守數據!AA71 = "", "", [1]攻守數據!AA71)</f>
+        <v/>
+      </c>
+      <c r="D70" s="15" t="str">
+        <f>IF([1]攻守數據!AB71 = "", "", [1]攻守數據!AB71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="str">
+        <f>IF([1]攻守數據!Y72 = "", "", [1]攻守數據!Y72)</f>
+        <v/>
+      </c>
+      <c r="B71" s="15" t="str">
+        <f>IF([1]攻守數據!Z72 = "", "", [1]攻守數據!Z72)</f>
+        <v/>
+      </c>
+      <c r="C71" s="15" t="str">
+        <f>IF([1]攻守數據!AA72 = "", "", [1]攻守數據!AA72)</f>
+        <v/>
+      </c>
+      <c r="D71" s="15" t="str">
+        <f>IF([1]攻守數據!AB72 = "", "", [1]攻守數據!AB72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="str">
+        <f>IF([1]攻守數據!Y73 = "", "", [1]攻守數據!Y73)</f>
+        <v/>
+      </c>
+      <c r="B72" s="15" t="str">
+        <f>IF([1]攻守數據!Z73 = "", "", [1]攻守數據!Z73)</f>
+        <v/>
+      </c>
+      <c r="C72" s="15" t="str">
+        <f>IF([1]攻守數據!AA73 = "", "", [1]攻守數據!AA73)</f>
+        <v/>
+      </c>
+      <c r="D72" s="15" t="str">
+        <f>IF([1]攻守數據!AB73 = "", "", [1]攻守數據!AB73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="str">
+        <f>IF([1]攻守數據!Y74 = "", "", [1]攻守數據!Y74)</f>
+        <v/>
+      </c>
+      <c r="B73" s="15" t="str">
+        <f>IF([1]攻守數據!Z74 = "", "", [1]攻守數據!Z74)</f>
+        <v/>
+      </c>
+      <c r="C73" s="15" t="str">
+        <f>IF([1]攻守數據!AA74 = "", "", [1]攻守數據!AA74)</f>
+        <v/>
+      </c>
+      <c r="D73" s="15" t="str">
+        <f>IF([1]攻守數據!AB74 = "", "", [1]攻守數據!AB74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="str">
+        <f>IF([1]攻守數據!Y75 = "", "", [1]攻守數據!Y75)</f>
+        <v/>
+      </c>
+      <c r="B74" s="15" t="str">
+        <f>IF([1]攻守數據!Z75 = "", "", [1]攻守數據!Z75)</f>
+        <v/>
+      </c>
+      <c r="C74" s="15" t="str">
+        <f>IF([1]攻守數據!AA75 = "", "", [1]攻守數據!AA75)</f>
+        <v/>
+      </c>
+      <c r="D74" s="15" t="str">
+        <f>IF([1]攻守數據!AB75 = "", "", [1]攻守數據!AB75)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="str">
+        <f>IF([1]攻守數據!Y76 = "", "", [1]攻守數據!Y76)</f>
+        <v/>
+      </c>
+      <c r="B75" s="15" t="str">
+        <f>IF([1]攻守數據!Z76 = "", "", [1]攻守數據!Z76)</f>
+        <v/>
+      </c>
+      <c r="C75" s="15" t="str">
+        <f>IF([1]攻守數據!AA76 = "", "", [1]攻守數據!AA76)</f>
+        <v/>
+      </c>
+      <c r="D75" s="15" t="str">
+        <f>IF([1]攻守數據!AB76 = "", "", [1]攻守數據!AB76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="str">
+        <f>IF([1]攻守數據!Y77 = "", "", [1]攻守數據!Y77)</f>
+        <v/>
+      </c>
+      <c r="B76" s="15" t="str">
+        <f>IF([1]攻守數據!Z77 = "", "", [1]攻守數據!Z77)</f>
+        <v/>
+      </c>
+      <c r="C76" s="15" t="str">
+        <f>IF([1]攻守數據!AA77 = "", "", [1]攻守數據!AA77)</f>
+        <v/>
+      </c>
+      <c r="D76" s="15" t="str">
+        <f>IF([1]攻守數據!AB77 = "", "", [1]攻守數據!AB77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="str">
+        <f>IF([1]攻守數據!Y78 = "", "", [1]攻守數據!Y78)</f>
+        <v/>
+      </c>
+      <c r="B77" s="15" t="str">
+        <f>IF([1]攻守數據!Z78 = "", "", [1]攻守數據!Z78)</f>
+        <v/>
+      </c>
+      <c r="C77" s="15" t="str">
+        <f>IF([1]攻守數據!AA78 = "", "", [1]攻守數據!AA78)</f>
+        <v/>
+      </c>
+      <c r="D77" s="15" t="str">
+        <f>IF([1]攻守數據!AB78 = "", "", [1]攻守數據!AB78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="str">
+        <f>IF([1]攻守數據!Y79 = "", "", [1]攻守數據!Y79)</f>
+        <v/>
+      </c>
+      <c r="B78" s="15" t="str">
+        <f>IF([1]攻守數據!Z79 = "", "", [1]攻守數據!Z79)</f>
+        <v/>
+      </c>
+      <c r="C78" s="15" t="str">
+        <f>IF([1]攻守數據!AA79 = "", "", [1]攻守數據!AA79)</f>
+        <v/>
+      </c>
+      <c r="D78" s="15" t="str">
+        <f>IF([1]攻守數據!AB79 = "", "", [1]攻守數據!AB79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="str">
+        <f>IF([1]攻守數據!Y80 = "", "", [1]攻守數據!Y80)</f>
+        <v/>
+      </c>
+      <c r="B79" s="15" t="str">
+        <f>IF([1]攻守數據!Z80 = "", "", [1]攻守數據!Z80)</f>
+        <v/>
+      </c>
+      <c r="C79" s="15" t="str">
+        <f>IF([1]攻守數據!AA80 = "", "", [1]攻守數據!AA80)</f>
+        <v/>
+      </c>
+      <c r="D79" s="15" t="str">
+        <f>IF([1]攻守數據!AB80 = "", "", [1]攻守數據!AB80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="str">
+        <f>IF([1]攻守數據!Y81 = "", "", [1]攻守數據!Y81)</f>
+        <v/>
+      </c>
+      <c r="B80" s="15" t="str">
+        <f>IF([1]攻守數據!Z81 = "", "", [1]攻守數據!Z81)</f>
+        <v/>
+      </c>
+      <c r="C80" s="15" t="str">
+        <f>IF([1]攻守數據!AA81 = "", "", [1]攻守數據!AA81)</f>
+        <v/>
+      </c>
+      <c r="D80" s="15" t="str">
+        <f>IF([1]攻守數據!AB81 = "", "", [1]攻守數據!AB81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="str">
+        <f>IF([1]攻守數據!Y82 = "", "", [1]攻守數據!Y82)</f>
+        <v/>
+      </c>
+      <c r="B81" s="15" t="str">
+        <f>IF([1]攻守數據!Z82 = "", "", [1]攻守數據!Z82)</f>
+        <v/>
+      </c>
+      <c r="C81" s="15" t="str">
+        <f>IF([1]攻守數據!AA82 = "", "", [1]攻守數據!AA82)</f>
+        <v/>
+      </c>
+      <c r="D81" s="15" t="str">
+        <f>IF([1]攻守數據!AB82 = "", "", [1]攻守數據!AB82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="str">
+        <f>IF([1]攻守數據!Y83 = "", "", [1]攻守數據!Y83)</f>
+        <v/>
+      </c>
+      <c r="B82" s="15" t="str">
+        <f>IF([1]攻守數據!Z83 = "", "", [1]攻守數據!Z83)</f>
+        <v/>
+      </c>
+      <c r="C82" s="15" t="str">
+        <f>IF([1]攻守數據!AA83 = "", "", [1]攻守數據!AA83)</f>
+        <v/>
+      </c>
+      <c r="D82" s="15" t="str">
+        <f>IF([1]攻守數據!AB83 = "", "", [1]攻守數據!AB83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="str">
+        <f>IF([1]攻守數據!Y84 = "", "", [1]攻守數據!Y84)</f>
+        <v/>
+      </c>
+      <c r="B83" s="15" t="str">
+        <f>IF([1]攻守數據!Z84 = "", "", [1]攻守數據!Z84)</f>
+        <v/>
+      </c>
+      <c r="C83" s="15" t="str">
+        <f>IF([1]攻守數據!AA84 = "", "", [1]攻守數據!AA84)</f>
+        <v/>
+      </c>
+      <c r="D83" s="15" t="str">
+        <f>IF([1]攻守數據!AB84 = "", "", [1]攻守數據!AB84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="str">
+        <f>IF([1]攻守數據!Y85 = "", "", [1]攻守數據!Y85)</f>
+        <v/>
+      </c>
+      <c r="B84" s="15" t="str">
+        <f>IF([1]攻守數據!Z85 = "", "", [1]攻守數據!Z85)</f>
+        <v/>
+      </c>
+      <c r="C84" s="15" t="str">
+        <f>IF([1]攻守數據!AA85 = "", "", [1]攻守數據!AA85)</f>
+        <v/>
+      </c>
+      <c r="D84" s="15" t="str">
+        <f>IF([1]攻守數據!AB85 = "", "", [1]攻守數據!AB85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="str">
+        <f>IF([1]攻守數據!Y86 = "", "", [1]攻守數據!Y86)</f>
+        <v/>
+      </c>
+      <c r="B85" s="15" t="str">
+        <f>IF([1]攻守數據!Z86 = "", "", [1]攻守數據!Z86)</f>
+        <v/>
+      </c>
+      <c r="C85" s="15" t="str">
+        <f>IF([1]攻守數據!AA86 = "", "", [1]攻守數據!AA86)</f>
+        <v/>
+      </c>
+      <c r="D85" s="15" t="str">
+        <f>IF([1]攻守數據!AB86 = "", "", [1]攻守數據!AB86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="str">
+        <f>IF([1]攻守數據!Y87 = "", "", [1]攻守數據!Y87)</f>
+        <v/>
+      </c>
+      <c r="B86" s="15" t="str">
+        <f>IF([1]攻守數據!Z87 = "", "", [1]攻守數據!Z87)</f>
+        <v/>
+      </c>
+      <c r="C86" s="15" t="str">
+        <f>IF([1]攻守數據!AA87 = "", "", [1]攻守數據!AA87)</f>
+        <v/>
+      </c>
+      <c r="D86" s="15" t="str">
+        <f>IF([1]攻守數據!AB87 = "", "", [1]攻守數據!AB87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="str">
+        <f>IF([1]攻守數據!Y88 = "", "", [1]攻守數據!Y88)</f>
+        <v/>
+      </c>
+      <c r="B87" s="15" t="str">
+        <f>IF([1]攻守數據!Z88 = "", "", [1]攻守數據!Z88)</f>
+        <v/>
+      </c>
+      <c r="C87" s="15" t="str">
+        <f>IF([1]攻守數據!AA88 = "", "", [1]攻守數據!AA88)</f>
+        <v/>
+      </c>
+      <c r="D87" s="15" t="str">
+        <f>IF([1]攻守數據!AB88 = "", "", [1]攻守數據!AB88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="str">
+        <f>IF([1]攻守數據!Y89 = "", "", [1]攻守數據!Y89)</f>
+        <v/>
+      </c>
+      <c r="B88" s="15" t="str">
+        <f>IF([1]攻守數據!Z89 = "", "", [1]攻守數據!Z89)</f>
+        <v/>
+      </c>
+      <c r="C88" s="15" t="str">
+        <f>IF([1]攻守數據!AA89 = "", "", [1]攻守數據!AA89)</f>
+        <v/>
+      </c>
+      <c r="D88" s="15" t="str">
+        <f>IF([1]攻守數據!AB89 = "", "", [1]攻守數據!AB89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="str">
+        <f>IF([1]攻守數據!Y90 = "", "", [1]攻守數據!Y90)</f>
+        <v/>
+      </c>
+      <c r="B89" s="15" t="str">
+        <f>IF([1]攻守數據!Z90 = "", "", [1]攻守數據!Z90)</f>
+        <v/>
+      </c>
+      <c r="C89" s="15" t="str">
+        <f>IF([1]攻守數據!AA90 = "", "", [1]攻守數據!AA90)</f>
+        <v/>
+      </c>
+      <c r="D89" s="15" t="str">
+        <f>IF([1]攻守數據!AB90 = "", "", [1]攻守數據!AB90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="str">
+        <f>IF([1]攻守數據!Y91 = "", "", [1]攻守數據!Y91)</f>
+        <v/>
+      </c>
+      <c r="B90" s="15" t="str">
+        <f>IF([1]攻守數據!Z91 = "", "", [1]攻守數據!Z91)</f>
+        <v/>
+      </c>
+      <c r="C90" s="15" t="str">
+        <f>IF([1]攻守數據!AA91 = "", "", [1]攻守數據!AA91)</f>
+        <v/>
+      </c>
+      <c r="D90" s="15" t="str">
+        <f>IF([1]攻守數據!AB91 = "", "", [1]攻守數據!AB91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="str">
+        <f>IF([1]攻守數據!Y92 = "", "", [1]攻守數據!Y92)</f>
+        <v/>
+      </c>
+      <c r="B91" s="15" t="str">
+        <f>IF([1]攻守數據!Z92 = "", "", [1]攻守數據!Z92)</f>
+        <v/>
+      </c>
+      <c r="C91" s="15" t="str">
+        <f>IF([1]攻守數據!AA92 = "", "", [1]攻守數據!AA92)</f>
+        <v/>
+      </c>
+      <c r="D91" s="15" t="str">
+        <f>IF([1]攻守數據!AB92 = "", "", [1]攻守數據!AB92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="str">
+        <f>IF([1]攻守數據!Y93 = "", "", [1]攻守數據!Y93)</f>
+        <v/>
+      </c>
+      <c r="B92" s="15" t="str">
+        <f>IF([1]攻守數據!Z93 = "", "", [1]攻守數據!Z93)</f>
+        <v/>
+      </c>
+      <c r="C92" s="15" t="str">
+        <f>IF([1]攻守數據!AA93 = "", "", [1]攻守數據!AA93)</f>
+        <v/>
+      </c>
+      <c r="D92" s="15" t="str">
+        <f>IF([1]攻守數據!AB93 = "", "", [1]攻守數據!AB93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="str">
+        <f>IF([1]攻守數據!Y94 = "", "", [1]攻守數據!Y94)</f>
+        <v/>
+      </c>
+      <c r="B93" s="15" t="str">
+        <f>IF([1]攻守數據!Z94 = "", "", [1]攻守數據!Z94)</f>
+        <v/>
+      </c>
+      <c r="C93" s="15" t="str">
+        <f>IF([1]攻守數據!AA94 = "", "", [1]攻守數據!AA94)</f>
+        <v/>
+      </c>
+      <c r="D93" s="15" t="str">
+        <f>IF([1]攻守數據!AB94 = "", "", [1]攻守數據!AB94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="str">
+        <f>IF([1]攻守數據!Y95 = "", "", [1]攻守數據!Y95)</f>
+        <v/>
+      </c>
+      <c r="B94" s="15" t="str">
+        <f>IF([1]攻守數據!Z95 = "", "", [1]攻守數據!Z95)</f>
+        <v/>
+      </c>
+      <c r="C94" s="15" t="str">
+        <f>IF([1]攻守數據!AA95 = "", "", [1]攻守數據!AA95)</f>
+        <v/>
+      </c>
+      <c r="D94" s="15" t="str">
+        <f>IF([1]攻守數據!AB95 = "", "", [1]攻守數據!AB95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="str">
+        <f>IF([1]攻守數據!Y96 = "", "", [1]攻守數據!Y96)</f>
+        <v/>
+      </c>
+      <c r="B95" s="15" t="str">
+        <f>IF([1]攻守數據!Z96 = "", "", [1]攻守數據!Z96)</f>
+        <v/>
+      </c>
+      <c r="C95" s="15" t="str">
+        <f>IF([1]攻守數據!AA96 = "", "", [1]攻守數據!AA96)</f>
+        <v/>
+      </c>
+      <c r="D95" s="15" t="str">
+        <f>IF([1]攻守數據!AB96 = "", "", [1]攻守數據!AB96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="str">
+        <f>IF([1]攻守數據!Y97 = "", "", [1]攻守數據!Y97)</f>
+        <v/>
+      </c>
+      <c r="B96" s="15" t="str">
+        <f>IF([1]攻守數據!Z97 = "", "", [1]攻守數據!Z97)</f>
+        <v/>
+      </c>
+      <c r="C96" s="15" t="str">
+        <f>IF([1]攻守數據!AA97 = "", "", [1]攻守數據!AA97)</f>
+        <v/>
+      </c>
+      <c r="D96" s="15" t="str">
+        <f>IF([1]攻守數據!AB97 = "", "", [1]攻守數據!AB97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="str">
+        <f>IF([1]攻守數據!Y98 = "", "", [1]攻守數據!Y98)</f>
+        <v/>
+      </c>
+      <c r="B97" s="15" t="str">
+        <f>IF([1]攻守數據!Z98 = "", "", [1]攻守數據!Z98)</f>
+        <v/>
+      </c>
+      <c r="C97" s="15" t="str">
+        <f>IF([1]攻守數據!AA98 = "", "", [1]攻守數據!AA98)</f>
+        <v/>
+      </c>
+      <c r="D97" s="15" t="str">
+        <f>IF([1]攻守數據!AB98 = "", "", [1]攻守數據!AB98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="str">
+        <f>IF([1]攻守數據!Y99 = "", "", [1]攻守數據!Y99)</f>
+        <v/>
+      </c>
+      <c r="B98" s="15" t="str">
+        <f>IF([1]攻守數據!Z99 = "", "", [1]攻守數據!Z99)</f>
+        <v/>
+      </c>
+      <c r="C98" s="15" t="str">
+        <f>IF([1]攻守數據!AA99 = "", "", [1]攻守數據!AA99)</f>
+        <v/>
+      </c>
+      <c r="D98" s="15" t="str">
+        <f>IF([1]攻守數據!AB99 = "", "", [1]攻守數據!AB99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="str">
+        <f>IF([1]攻守數據!Y100 = "", "", [1]攻守數據!Y100)</f>
+        <v/>
+      </c>
+      <c r="B99" s="15" t="str">
+        <f>IF([1]攻守數據!Z100 = "", "", [1]攻守數據!Z100)</f>
+        <v/>
+      </c>
+      <c r="C99" s="15" t="str">
+        <f>IF([1]攻守數據!AA100 = "", "", [1]攻守數據!AA100)</f>
+        <v/>
+      </c>
+      <c r="D99" s="15" t="str">
+        <f>IF([1]攻守數據!AB100 = "", "", [1]攻守數據!AB100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="str">
+        <f>IF([1]攻守數據!Y101 = "", "", [1]攻守數據!Y101)</f>
+        <v/>
+      </c>
+      <c r="B100" s="15" t="str">
+        <f>IF([1]攻守數據!Z101 = "", "", [1]攻守數據!Z101)</f>
+        <v/>
+      </c>
+      <c r="C100" s="15" t="str">
+        <f>IF([1]攻守數據!AA101 = "", "", [1]攻守數據!AA101)</f>
+        <v/>
+      </c>
+      <c r="D100" s="15" t="str">
+        <f>IF([1]攻守數據!AB101 = "", "", [1]攻守數據!AB101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="str">
+        <f>IF([1]攻守數據!Y102 = "", "", [1]攻守數據!Y102)</f>
+        <v/>
+      </c>
+      <c r="B101" s="15" t="str">
+        <f>IF([1]攻守數據!Z102 = "", "", [1]攻守數據!Z102)</f>
+        <v/>
+      </c>
+      <c r="C101" s="15" t="str">
+        <f>IF([1]攻守數據!AA102 = "", "", [1]攻守數據!AA102)</f>
+        <v/>
+      </c>
+      <c r="D101" s="15" t="str">
+        <f>IF([1]攻守數據!AB102 = "", "", [1]攻守數據!AB102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="str">
+        <f>IF([1]攻守數據!Y103 = "", "", [1]攻守數據!Y103)</f>
+        <v/>
+      </c>
+      <c r="B102" s="15" t="str">
+        <f>IF([1]攻守數據!Z103 = "", "", [1]攻守數據!Z103)</f>
+        <v/>
+      </c>
+      <c r="C102" s="15" t="str">
+        <f>IF([1]攻守數據!AA103 = "", "", [1]攻守數據!AA103)</f>
+        <v/>
+      </c>
+      <c r="D102" s="15" t="str">
+        <f>IF([1]攻守數據!AB103 = "", "", [1]攻守數據!AB103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="str">
+        <f>IF([1]攻守數據!Y104 = "", "", [1]攻守數據!Y104)</f>
+        <v/>
+      </c>
+      <c r="B103" s="15" t="str">
+        <f>IF([1]攻守數據!Z104 = "", "", [1]攻守數據!Z104)</f>
+        <v/>
+      </c>
+      <c r="C103" s="15" t="str">
+        <f>IF([1]攻守數據!AA104 = "", "", [1]攻守數據!AA104)</f>
+        <v/>
+      </c>
+      <c r="D103" s="15" t="str">
+        <f>IF([1]攻守數據!AB104 = "", "", [1]攻守數據!AB104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="str">
+        <f>IF([1]攻守數據!Y105 = "", "", [1]攻守數據!Y105)</f>
+        <v/>
+      </c>
+      <c r="B104" s="15" t="str">
+        <f>IF([1]攻守數據!Z105 = "", "", [1]攻守數據!Z105)</f>
+        <v/>
+      </c>
+      <c r="C104" s="15" t="str">
+        <f>IF([1]攻守數據!AA105 = "", "", [1]攻守數據!AA105)</f>
+        <v/>
+      </c>
+      <c r="D104" s="15" t="str">
+        <f>IF([1]攻守數據!AB105 = "", "", [1]攻守數據!AB105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="str">
+        <f>IF([1]攻守數據!Y106 = "", "", [1]攻守數據!Y106)</f>
+        <v/>
+      </c>
+      <c r="B105" s="15" t="str">
+        <f>IF([1]攻守數據!Z106 = "", "", [1]攻守數據!Z106)</f>
+        <v/>
+      </c>
+      <c r="C105" s="15" t="str">
+        <f>IF([1]攻守數據!AA106 = "", "", [1]攻守數據!AA106)</f>
+        <v/>
+      </c>
+      <c r="D105" s="15" t="str">
+        <f>IF([1]攻守數據!AB106 = "", "", [1]攻守數據!AB106)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="str">
+        <f>IF([1]攻守數據!Y107 = "", "", [1]攻守數據!Y107)</f>
+        <v/>
+      </c>
+      <c r="B106" s="15" t="str">
+        <f>IF([1]攻守數據!Z107 = "", "", [1]攻守數據!Z107)</f>
+        <v/>
+      </c>
+      <c r="C106" s="15" t="str">
+        <f>IF([1]攻守數據!AA107 = "", "", [1]攻守數據!AA107)</f>
+        <v/>
+      </c>
+      <c r="D106" s="15" t="str">
+        <f>IF([1]攻守數據!AB107 = "", "", [1]攻守數據!AB107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="str">
+        <f>IF([1]攻守數據!Y108 = "", "", [1]攻守數據!Y108)</f>
+        <v/>
+      </c>
+      <c r="B107" s="15" t="str">
+        <f>IF([1]攻守數據!Z108 = "", "", [1]攻守數據!Z108)</f>
+        <v/>
+      </c>
+      <c r="C107" s="15" t="str">
+        <f>IF([1]攻守數據!AA108 = "", "", [1]攻守數據!AA108)</f>
+        <v/>
+      </c>
+      <c r="D107" s="15" t="str">
+        <f>IF([1]攻守數據!AB108 = "", "", [1]攻守數據!AB108)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="str">
+        <f>IF([1]攻守數據!Y109 = "", "", [1]攻守數據!Y109)</f>
+        <v/>
+      </c>
+      <c r="B108" s="15" t="str">
+        <f>IF([1]攻守數據!Z109 = "", "", [1]攻守數據!Z109)</f>
+        <v/>
+      </c>
+      <c r="C108" s="15" t="str">
+        <f>IF([1]攻守數據!AA109 = "", "", [1]攻守數據!AA109)</f>
+        <v/>
+      </c>
+      <c r="D108" s="15" t="str">
+        <f>IF([1]攻守數據!AB109 = "", "", [1]攻守數據!AB109)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="str">
+        <f>IF([1]攻守數據!Y110 = "", "", [1]攻守數據!Y110)</f>
+        <v/>
+      </c>
+      <c r="B109" s="15" t="str">
+        <f>IF([1]攻守數據!Z110 = "", "", [1]攻守數據!Z110)</f>
+        <v/>
+      </c>
+      <c r="C109" s="15" t="str">
+        <f>IF([1]攻守數據!AA110 = "", "", [1]攻守數據!AA110)</f>
+        <v/>
+      </c>
+      <c r="D109" s="15" t="str">
+        <f>IF([1]攻守數據!AB110 = "", "", [1]攻守數據!AB110)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="str">
+        <f>IF([1]攻守數據!Y111 = "", "", [1]攻守數據!Y111)</f>
+        <v/>
+      </c>
+      <c r="B110" s="15" t="str">
+        <f>IF([1]攻守數據!Z111 = "", "", [1]攻守數據!Z111)</f>
+        <v/>
+      </c>
+      <c r="C110" s="15" t="str">
+        <f>IF([1]攻守數據!AA111 = "", "", [1]攻守數據!AA111)</f>
+        <v/>
+      </c>
+      <c r="D110" s="15" t="str">
+        <f>IF([1]攻守數據!AB111 = "", "", [1]攻守數據!AB111)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="str">
+        <f>IF([1]攻守數據!Y112 = "", "", [1]攻守數據!Y112)</f>
+        <v/>
+      </c>
+      <c r="B111" s="15" t="str">
+        <f>IF([1]攻守數據!Z112 = "", "", [1]攻守數據!Z112)</f>
+        <v/>
+      </c>
+      <c r="C111" s="15" t="str">
+        <f>IF([1]攻守數據!AA112 = "", "", [1]攻守數據!AA112)</f>
+        <v/>
+      </c>
+      <c r="D111" s="15" t="str">
+        <f>IF([1]攻守數據!AB112 = "", "", [1]攻守數據!AB112)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="str">
+        <f>IF([1]攻守數據!Y113 = "", "", [1]攻守數據!Y113)</f>
+        <v/>
+      </c>
+      <c r="B112" s="15" t="str">
+        <f>IF([1]攻守數據!Z113 = "", "", [1]攻守數據!Z113)</f>
+        <v/>
+      </c>
+      <c r="C112" s="15" t="str">
+        <f>IF([1]攻守數據!AA113 = "", "", [1]攻守數據!AA113)</f>
+        <v/>
+      </c>
+      <c r="D112" s="15" t="str">
+        <f>IF([1]攻守數據!AB113 = "", "", [1]攻守數據!AB113)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="str">
+        <f>IF([1]攻守數據!Y114 = "", "", [1]攻守數據!Y114)</f>
+        <v/>
+      </c>
+      <c r="B113" s="15" t="str">
+        <f>IF([1]攻守數據!Z114 = "", "", [1]攻守數據!Z114)</f>
+        <v/>
+      </c>
+      <c r="C113" s="15" t="str">
+        <f>IF([1]攻守數據!AA114 = "", "", [1]攻守數據!AA114)</f>
+        <v/>
+      </c>
+      <c r="D113" s="15" t="str">
+        <f>IF([1]攻守數據!AB114 = "", "", [1]攻守數據!AB114)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="str">
+        <f>IF([1]攻守數據!Y115 = "", "", [1]攻守數據!Y115)</f>
+        <v/>
+      </c>
+      <c r="B114" s="15" t="str">
+        <f>IF([1]攻守數據!Z115 = "", "", [1]攻守數據!Z115)</f>
+        <v/>
+      </c>
+      <c r="C114" s="15" t="str">
+        <f>IF([1]攻守數據!AA115 = "", "", [1]攻守數據!AA115)</f>
+        <v/>
+      </c>
+      <c r="D114" s="15" t="str">
+        <f>IF([1]攻守數據!AB115 = "", "", [1]攻守數據!AB115)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="15" t="str">
+        <f>IF([1]攻守數據!Y116 = "", "", [1]攻守數據!Y116)</f>
+        <v/>
+      </c>
+      <c r="B115" s="15" t="str">
+        <f>IF([1]攻守數據!Z116 = "", "", [1]攻守數據!Z116)</f>
+        <v/>
+      </c>
+      <c r="C115" s="15" t="str">
+        <f>IF([1]攻守數據!AA116 = "", "", [1]攻守數據!AA116)</f>
+        <v/>
+      </c>
+      <c r="D115" s="15" t="str">
+        <f>IF([1]攻守數據!AB116 = "", "", [1]攻守數據!AB116)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="15" t="str">
+        <f>IF([1]攻守數據!Y117 = "", "", [1]攻守數據!Y117)</f>
+        <v/>
+      </c>
+      <c r="B116" s="15" t="str">
+        <f>IF([1]攻守數據!Z117 = "", "", [1]攻守數據!Z117)</f>
+        <v/>
+      </c>
+      <c r="C116" s="15" t="str">
+        <f>IF([1]攻守數據!AA117 = "", "", [1]攻守數據!AA117)</f>
+        <v/>
+      </c>
+      <c r="D116" s="15" t="str">
+        <f>IF([1]攻守數據!AB117 = "", "", [1]攻守數據!AB117)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="str">
+        <f>IF([1]攻守數據!Y118 = "", "", [1]攻守數據!Y118)</f>
+        <v/>
+      </c>
+      <c r="B117" s="15" t="str">
+        <f>IF([1]攻守數據!Z118 = "", "", [1]攻守數據!Z118)</f>
+        <v/>
+      </c>
+      <c r="C117" s="15" t="str">
+        <f>IF([1]攻守數據!AA118 = "", "", [1]攻守數據!AA118)</f>
+        <v/>
+      </c>
+      <c r="D117" s="15" t="str">
+        <f>IF([1]攻守數據!AB118 = "", "", [1]攻守數據!AB118)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="str">
+        <f>IF([1]攻守數據!Y119 = "", "", [1]攻守數據!Y119)</f>
+        <v/>
+      </c>
+      <c r="B118" s="15" t="str">
+        <f>IF([1]攻守數據!Z119 = "", "", [1]攻守數據!Z119)</f>
+        <v/>
+      </c>
+      <c r="C118" s="15" t="str">
+        <f>IF([1]攻守數據!AA119 = "", "", [1]攻守數據!AA119)</f>
+        <v/>
+      </c>
+      <c r="D118" s="15" t="str">
+        <f>IF([1]攻守數據!AB119 = "", "", [1]攻守數據!AB119)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="15" t="str">
+        <f>IF([1]攻守數據!Y120 = "", "", [1]攻守數據!Y120)</f>
+        <v/>
+      </c>
+      <c r="B119" s="15" t="str">
+        <f>IF([1]攻守數據!Z120 = "", "", [1]攻守數據!Z120)</f>
+        <v/>
+      </c>
+      <c r="C119" s="15" t="str">
+        <f>IF([1]攻守數據!AA120 = "", "", [1]攻守數據!AA120)</f>
+        <v/>
+      </c>
+      <c r="D119" s="15" t="str">
+        <f>IF([1]攻守數據!AB120 = "", "", [1]攻守數據!AB120)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="str">
+        <f>IF([1]攻守數據!Y121 = "", "", [1]攻守數據!Y121)</f>
+        <v/>
+      </c>
+      <c r="B120" s="15" t="str">
+        <f>IF([1]攻守數據!Z121 = "", "", [1]攻守數據!Z121)</f>
+        <v/>
+      </c>
+      <c r="C120" s="15" t="str">
+        <f>IF([1]攻守數據!AA121 = "", "", [1]攻守數據!AA121)</f>
+        <v/>
+      </c>
+      <c r="D120" s="15" t="str">
+        <f>IF([1]攻守數據!AB121 = "", "", [1]攻守數據!AB121)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="15" t="str">
+        <f>IF([1]攻守數據!Y122 = "", "", [1]攻守數據!Y122)</f>
+        <v/>
+      </c>
+      <c r="B121" s="15" t="str">
+        <f>IF([1]攻守數據!Z122 = "", "", [1]攻守數據!Z122)</f>
+        <v/>
+      </c>
+      <c r="C121" s="15" t="str">
+        <f>IF([1]攻守數據!AA122 = "", "", [1]攻守數據!AA122)</f>
+        <v/>
+      </c>
+      <c r="D121" s="15" t="str">
+        <f>IF([1]攻守數據!AB122 = "", "", [1]攻守數據!AB122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="str">
+        <f>IF([1]攻守數據!Y123 = "", "", [1]攻守數據!Y123)</f>
+        <v/>
+      </c>
+      <c r="B122" s="15" t="str">
+        <f>IF([1]攻守數據!Z123 = "", "", [1]攻守數據!Z123)</f>
+        <v/>
+      </c>
+      <c r="C122" s="15" t="str">
+        <f>IF([1]攻守數據!AA123 = "", "", [1]攻守數據!AA123)</f>
+        <v/>
+      </c>
+      <c r="D122" s="15" t="str">
+        <f>IF([1]攻守數據!AB123 = "", "", [1]攻守數據!AB123)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="str">
+        <f>IF([1]攻守數據!Y124 = "", "", [1]攻守數據!Y124)</f>
+        <v/>
+      </c>
+      <c r="B123" s="15" t="str">
+        <f>IF([1]攻守數據!Z124 = "", "", [1]攻守數據!Z124)</f>
+        <v/>
+      </c>
+      <c r="C123" s="15" t="str">
+        <f>IF([1]攻守數據!AA124 = "", "", [1]攻守數據!AA124)</f>
+        <v/>
+      </c>
+      <c r="D123" s="15" t="str">
+        <f>IF([1]攻守數據!AB124 = "", "", [1]攻守數據!AB124)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="str">
+        <f>IF([1]攻守數據!Y125 = "", "", [1]攻守數據!Y125)</f>
+        <v/>
+      </c>
+      <c r="B124" s="15" t="str">
+        <f>IF([1]攻守數據!Z125 = "", "", [1]攻守數據!Z125)</f>
+        <v/>
+      </c>
+      <c r="C124" s="15" t="str">
+        <f>IF([1]攻守數據!AA125 = "", "", [1]攻守數據!AA125)</f>
+        <v/>
+      </c>
+      <c r="D124" s="15" t="str">
+        <f>IF([1]攻守數據!AB125 = "", "", [1]攻守數據!AB125)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="str">
+        <f>IF([1]攻守數據!Y126 = "", "", [1]攻守數據!Y126)</f>
+        <v/>
+      </c>
+      <c r="B125" s="15" t="str">
+        <f>IF([1]攻守數據!Z126 = "", "", [1]攻守數據!Z126)</f>
+        <v/>
+      </c>
+      <c r="C125" s="15" t="str">
+        <f>IF([1]攻守數據!AA126 = "", "", [1]攻守數據!AA126)</f>
+        <v/>
+      </c>
+      <c r="D125" s="15" t="str">
+        <f>IF([1]攻守數據!AB126 = "", "", [1]攻守數據!AB126)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="str">
+        <f>IF([1]攻守數據!Y127 = "", "", [1]攻守數據!Y127)</f>
+        <v/>
+      </c>
+      <c r="B126" s="15" t="str">
+        <f>IF([1]攻守數據!Z127 = "", "", [1]攻守數據!Z127)</f>
+        <v/>
+      </c>
+      <c r="C126" s="15" t="str">
+        <f>IF([1]攻守數據!AA127 = "", "", [1]攻守數據!AA127)</f>
+        <v/>
+      </c>
+      <c r="D126" s="15" t="str">
+        <f>IF([1]攻守數據!AB127 = "", "", [1]攻守數據!AB127)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="15" t="str">
+        <f>IF([1]攻守數據!Y128 = "", "", [1]攻守數據!Y128)</f>
+        <v/>
+      </c>
+      <c r="B127" s="15" t="str">
+        <f>IF([1]攻守數據!Z128 = "", "", [1]攻守數據!Z128)</f>
+        <v/>
+      </c>
+      <c r="C127" s="15" t="str">
+        <f>IF([1]攻守數據!AA128 = "", "", [1]攻守數據!AA128)</f>
+        <v/>
+      </c>
+      <c r="D127" s="15" t="str">
+        <f>IF([1]攻守數據!AB128 = "", "", [1]攻守數據!AB128)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="15" t="str">
+        <f>IF([1]攻守數據!Y129 = "", "", [1]攻守數據!Y129)</f>
+        <v/>
+      </c>
+      <c r="B128" s="15" t="str">
+        <f>IF([1]攻守數據!Z129 = "", "", [1]攻守數據!Z129)</f>
+        <v/>
+      </c>
+      <c r="C128" s="15" t="str">
+        <f>IF([1]攻守數據!AA129 = "", "", [1]攻守數據!AA129)</f>
+        <v/>
+      </c>
+      <c r="D128" s="15" t="str">
+        <f>IF([1]攻守數據!AB129 = "", "", [1]攻守數據!AB129)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="str">
+        <f>IF([1]攻守數據!Y130 = "", "", [1]攻守數據!Y130)</f>
+        <v/>
+      </c>
+      <c r="B129" s="15" t="str">
+        <f>IF([1]攻守數據!Z130 = "", "", [1]攻守數據!Z130)</f>
+        <v/>
+      </c>
+      <c r="C129" s="15" t="str">
+        <f>IF([1]攻守數據!AA130 = "", "", [1]攻守數據!AA130)</f>
+        <v/>
+      </c>
+      <c r="D129" s="15" t="str">
+        <f>IF([1]攻守數據!AB130 = "", "", [1]攻守數據!AB130)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="str">
+        <f>IF([1]攻守數據!Y131 = "", "", [1]攻守數據!Y131)</f>
+        <v/>
+      </c>
+      <c r="B130" s="15" t="str">
+        <f>IF([1]攻守數據!Z131 = "", "", [1]攻守數據!Z131)</f>
+        <v/>
+      </c>
+      <c r="C130" s="15" t="str">
+        <f>IF([1]攻守數據!AA131 = "", "", [1]攻守數據!AA131)</f>
+        <v/>
+      </c>
+      <c r="D130" s="15" t="str">
+        <f>IF([1]攻守數據!AB131 = "", "", [1]攻守數據!AB131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="15" t="str">
+        <f>IF([1]攻守數據!Y132 = "", "", [1]攻守數據!Y132)</f>
+        <v/>
+      </c>
+      <c r="B131" s="15" t="str">
+        <f>IF([1]攻守數據!Z132 = "", "", [1]攻守數據!Z132)</f>
+        <v/>
+      </c>
+      <c r="C131" s="15" t="str">
+        <f>IF([1]攻守數據!AA132 = "", "", [1]攻守數據!AA132)</f>
+        <v/>
+      </c>
+      <c r="D131" s="15" t="str">
+        <f>IF([1]攻守數據!AB132 = "", "", [1]攻守數據!AB132)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="15" t="str">
+        <f>IF([1]攻守數據!Y133 = "", "", [1]攻守數據!Y133)</f>
+        <v/>
+      </c>
+      <c r="B132" s="15" t="str">
+        <f>IF([1]攻守數據!Z133 = "", "", [1]攻守數據!Z133)</f>
+        <v/>
+      </c>
+      <c r="C132" s="15" t="str">
+        <f>IF([1]攻守數據!AA133 = "", "", [1]攻守數據!AA133)</f>
+        <v/>
+      </c>
+      <c r="D132" s="15" t="str">
+        <f>IF([1]攻守數據!AB133 = "", "", [1]攻守數據!AB133)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="15" t="str">
+        <f>IF([1]攻守數據!Y134 = "", "", [1]攻守數據!Y134)</f>
+        <v/>
+      </c>
+      <c r="B133" s="15" t="str">
+        <f>IF([1]攻守數據!Z134 = "", "", [1]攻守數據!Z134)</f>
+        <v/>
+      </c>
+      <c r="C133" s="15" t="str">
+        <f>IF([1]攻守數據!AA134 = "", "", [1]攻守數據!AA134)</f>
+        <v/>
+      </c>
+      <c r="D133" s="15" t="str">
+        <f>IF([1]攻守數據!AB134 = "", "", [1]攻守數據!AB134)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="15" t="str">
+        <f>IF([1]攻守數據!Y135 = "", "", [1]攻守數據!Y135)</f>
+        <v/>
+      </c>
+      <c r="B134" s="15" t="str">
+        <f>IF([1]攻守數據!Z135 = "", "", [1]攻守數據!Z135)</f>
+        <v/>
+      </c>
+      <c r="C134" s="15" t="str">
+        <f>IF([1]攻守數據!AA135 = "", "", [1]攻守數據!AA135)</f>
+        <v/>
+      </c>
+      <c r="D134" s="15" t="str">
+        <f>IF([1]攻守數據!AB135 = "", "", [1]攻守數據!AB135)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="15" t="str">
+        <f>IF([1]攻守數據!Y136 = "", "", [1]攻守數據!Y136)</f>
+        <v/>
+      </c>
+      <c r="B135" s="15" t="str">
+        <f>IF([1]攻守數據!Z136 = "", "", [1]攻守數據!Z136)</f>
+        <v/>
+      </c>
+      <c r="C135" s="15" t="str">
+        <f>IF([1]攻守數據!AA136 = "", "", [1]攻守數據!AA136)</f>
+        <v/>
+      </c>
+      <c r="D135" s="15" t="str">
+        <f>IF([1]攻守數據!AB136 = "", "", [1]攻守數據!AB136)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="15" t="str">
+        <f>IF([1]攻守數據!Y137 = "", "", [1]攻守數據!Y137)</f>
+        <v/>
+      </c>
+      <c r="B136" s="15" t="str">
+        <f>IF([1]攻守數據!Z137 = "", "", [1]攻守數據!Z137)</f>
+        <v/>
+      </c>
+      <c r="C136" s="15" t="str">
+        <f>IF([1]攻守數據!AA137 = "", "", [1]攻守數據!AA137)</f>
+        <v/>
+      </c>
+      <c r="D136" s="15" t="str">
+        <f>IF([1]攻守數據!AB137 = "", "", [1]攻守數據!AB137)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="15" t="str">
+        <f>IF([1]攻守數據!Y138 = "", "", [1]攻守數據!Y138)</f>
+        <v/>
+      </c>
+      <c r="B137" s="15" t="str">
+        <f>IF([1]攻守數據!Z138 = "", "", [1]攻守數據!Z138)</f>
+        <v/>
+      </c>
+      <c r="C137" s="15" t="str">
+        <f>IF([1]攻守數據!AA138 = "", "", [1]攻守數據!AA138)</f>
+        <v/>
+      </c>
+      <c r="D137" s="15" t="str">
+        <f>IF([1]攻守數據!AB138 = "", "", [1]攻守數據!AB138)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="15" t="str">
+        <f>IF([1]攻守數據!Y139 = "", "", [1]攻守數據!Y139)</f>
+        <v/>
+      </c>
+      <c r="B138" s="15" t="str">
+        <f>IF([1]攻守數據!Z139 = "", "", [1]攻守數據!Z139)</f>
+        <v/>
+      </c>
+      <c r="C138" s="15" t="str">
+        <f>IF([1]攻守數據!AA139 = "", "", [1]攻守數據!AA139)</f>
+        <v/>
+      </c>
+      <c r="D138" s="15" t="str">
+        <f>IF([1]攻守數據!AB139 = "", "", [1]攻守數據!AB139)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="15" t="str">
+        <f>IF([1]攻守數據!Y140 = "", "", [1]攻守數據!Y140)</f>
+        <v/>
+      </c>
+      <c r="B139" s="15" t="str">
+        <f>IF([1]攻守數據!Z140 = "", "", [1]攻守數據!Z140)</f>
+        <v/>
+      </c>
+      <c r="C139" s="15" t="str">
+        <f>IF([1]攻守數據!AA140 = "", "", [1]攻守數據!AA140)</f>
+        <v/>
+      </c>
+      <c r="D139" s="15" t="str">
+        <f>IF([1]攻守數據!AB140 = "", "", [1]攻守數據!AB140)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="15" t="str">
+        <f>IF([1]攻守數據!Y141 = "", "", [1]攻守數據!Y141)</f>
+        <v/>
+      </c>
+      <c r="B140" s="15" t="str">
+        <f>IF([1]攻守數據!Z141 = "", "", [1]攻守數據!Z141)</f>
+        <v/>
+      </c>
+      <c r="C140" s="15" t="str">
+        <f>IF([1]攻守數據!AA141 = "", "", [1]攻守數據!AA141)</f>
+        <v/>
+      </c>
+      <c r="D140" s="15" t="str">
+        <f>IF([1]攻守數據!AB141 = "", "", [1]攻守數據!AB141)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="15" t="str">
+        <f>IF([1]攻守數據!Y142 = "", "", [1]攻守數據!Y142)</f>
+        <v/>
+      </c>
+      <c r="B141" s="15" t="str">
+        <f>IF([1]攻守數據!Z142 = "", "", [1]攻守數據!Z142)</f>
+        <v/>
+      </c>
+      <c r="C141" s="15" t="str">
+        <f>IF([1]攻守數據!AA142 = "", "", [1]攻守數據!AA142)</f>
+        <v/>
+      </c>
+      <c r="D141" s="15" t="str">
+        <f>IF([1]攻守數據!AB142 = "", "", [1]攻守數據!AB142)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="15" t="str">
+        <f>IF([1]攻守數據!Y143 = "", "", [1]攻守數據!Y143)</f>
+        <v/>
+      </c>
+      <c r="B142" s="15" t="str">
+        <f>IF([1]攻守數據!Z143 = "", "", [1]攻守數據!Z143)</f>
+        <v/>
+      </c>
+      <c r="C142" s="15" t="str">
+        <f>IF([1]攻守數據!AA143 = "", "", [1]攻守數據!AA143)</f>
+        <v/>
+      </c>
+      <c r="D142" s="15" t="str">
+        <f>IF([1]攻守數據!AB143 = "", "", [1]攻守數據!AB143)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="15" t="str">
+        <f>IF([1]攻守數據!Y144 = "", "", [1]攻守數據!Y144)</f>
+        <v/>
+      </c>
+      <c r="B143" s="15" t="str">
+        <f>IF([1]攻守數據!Z144 = "", "", [1]攻守數據!Z144)</f>
+        <v/>
+      </c>
+      <c r="C143" s="15" t="str">
+        <f>IF([1]攻守數據!AA144 = "", "", [1]攻守數據!AA144)</f>
+        <v/>
+      </c>
+      <c r="D143" s="15" t="str">
+        <f>IF([1]攻守數據!AB144 = "", "", [1]攻守數據!AB144)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="15" t="str">
+        <f>IF([1]攻守數據!Y145 = "", "", [1]攻守數據!Y145)</f>
+        <v/>
+      </c>
+      <c r="B144" s="15" t="str">
+        <f>IF([1]攻守數據!Z145 = "", "", [1]攻守數據!Z145)</f>
+        <v/>
+      </c>
+      <c r="C144" s="15" t="str">
+        <f>IF([1]攻守數據!AA145 = "", "", [1]攻守數據!AA145)</f>
+        <v/>
+      </c>
+      <c r="D144" s="15" t="str">
+        <f>IF([1]攻守數據!AB145 = "", "", [1]攻守數據!AB145)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="15" t="str">
+        <f>IF([1]攻守數據!Y146 = "", "", [1]攻守數據!Y146)</f>
+        <v/>
+      </c>
+      <c r="B145" s="15" t="str">
+        <f>IF([1]攻守數據!Z146 = "", "", [1]攻守數據!Z146)</f>
+        <v/>
+      </c>
+      <c r="C145" s="15" t="str">
+        <f>IF([1]攻守數據!AA146 = "", "", [1]攻守數據!AA146)</f>
+        <v/>
+      </c>
+      <c r="D145" s="15" t="str">
+        <f>IF([1]攻守數據!AB146 = "", "", [1]攻守數據!AB146)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="15" t="str">
+        <f>IF([1]攻守數據!Y147 = "", "", [1]攻守數據!Y147)</f>
+        <v/>
+      </c>
+      <c r="B146" s="15" t="str">
+        <f>IF([1]攻守數據!Z147 = "", "", [1]攻守數據!Z147)</f>
+        <v/>
+      </c>
+      <c r="C146" s="15" t="str">
+        <f>IF([1]攻守數據!AA147 = "", "", [1]攻守數據!AA147)</f>
+        <v/>
+      </c>
+      <c r="D146" s="15" t="str">
+        <f>IF([1]攻守數據!AB147 = "", "", [1]攻守數據!AB147)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="15" t="str">
+        <f>IF([1]攻守數據!Y148 = "", "", [1]攻守數據!Y148)</f>
+        <v/>
+      </c>
+      <c r="B147" s="15" t="str">
+        <f>IF([1]攻守數據!Z148 = "", "", [1]攻守數據!Z148)</f>
+        <v/>
+      </c>
+      <c r="C147" s="15" t="str">
+        <f>IF([1]攻守數據!AA148 = "", "", [1]攻守數據!AA148)</f>
+        <v/>
+      </c>
+      <c r="D147" s="15" t="str">
+        <f>IF([1]攻守數據!AB148 = "", "", [1]攻守數據!AB148)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="15" t="str">
+        <f>IF([1]攻守數據!Y149 = "", "", [1]攻守數據!Y149)</f>
+        <v/>
+      </c>
+      <c r="B148" s="15" t="str">
+        <f>IF([1]攻守數據!Z149 = "", "", [1]攻守數據!Z149)</f>
+        <v/>
+      </c>
+      <c r="C148" s="15" t="str">
+        <f>IF([1]攻守數據!AA149 = "", "", [1]攻守數據!AA149)</f>
+        <v/>
+      </c>
+      <c r="D148" s="15" t="str">
+        <f>IF([1]攻守數據!AB149 = "", "", [1]攻守數據!AB149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="str">
+        <f>IF([1]攻守數據!Y150 = "", "", [1]攻守數據!Y150)</f>
+        <v/>
+      </c>
+      <c r="B149" s="15" t="str">
+        <f>IF([1]攻守數據!Z150 = "", "", [1]攻守數據!Z150)</f>
+        <v/>
+      </c>
+      <c r="C149" s="15" t="str">
+        <f>IF([1]攻守數據!AA150 = "", "", [1]攻守數據!AA150)</f>
+        <v/>
+      </c>
+      <c r="D149" s="15" t="str">
+        <f>IF([1]攻守數據!AB150 = "", "", [1]攻守數據!AB150)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="15" t="str">
+        <f>IF([1]攻守數據!Y151 = "", "", [1]攻守數據!Y151)</f>
+        <v/>
+      </c>
+      <c r="B150" s="15" t="str">
+        <f>IF([1]攻守數據!Z151 = "", "", [1]攻守數據!Z151)</f>
+        <v/>
+      </c>
+      <c r="C150" s="15" t="str">
+        <f>IF([1]攻守數據!AA151 = "", "", [1]攻守數據!AA151)</f>
+        <v/>
+      </c>
+      <c r="D150" s="15" t="str">
+        <f>IF([1]攻守數據!AB151 = "", "", [1]攻守數據!AB151)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFFC0A-5057-45D5-B24E-E3421F835A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C58B8D-AF8E-4DBB-85A6-A693A7216064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:Y150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C58B8D-AF8E-4DBB-85A6-A693A7216064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37571626-D344-4B1F-A56F-96BB6E1BF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3882,19 +3882,19 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="str">
-        <f>[1]攻守數據!Y66</f>
+        <f>IF([1]攻守數據!Y66 = "", "", [1]攻守數據!Y66)</f>
         <v>快拳郎</v>
       </c>
-      <c r="B65" s="13" t="str">
-        <f>[1]攻守數據!Z66</f>
+      <c r="B65" s="15" t="str">
+        <f>IF([1]攻守數據!Z66 = "", "", [1]攻守數據!Z66)</f>
         <v>格鬥</v>
       </c>
-      <c r="C65" s="13" t="str">
-        <f>[1]攻守數據!AA66</f>
+      <c r="C65" s="15" t="str">
+        <f>IF([1]攻守數據!AA66 = "", "", [1]攻守數據!AA66)</f>
         <v>無</v>
       </c>
       <c r="D65" s="16">
-        <f>[1]攻守數據!AB66</f>
+        <f>IF([1]攻守數據!AB66 = "", "", [1]攻守數據!AB66)</f>
         <v>20.16</v>
       </c>
     </row>

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37571626-D344-4B1F-A56F-96BB6E1BF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC77AF0-E26E-463D-8BDC-17F839E17639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
   <si>
     <t>攻/守</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -119,6 +119,255 @@
   <si>
     <t>無</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏瑪然特</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>無極汰那</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>拉帝歐斯</t>
+  </si>
+  <si>
+    <t>格鬥</t>
+  </si>
+  <si>
+    <t>多刺菊石獸</t>
+  </si>
+  <si>
+    <t>岩石</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>超能力</t>
+  </si>
+  <si>
+    <t>飛行</t>
+  </si>
+  <si>
+    <t>幸福蛋</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>鋼</t>
+  </si>
+  <si>
+    <t>卡比獸</t>
+  </si>
+  <si>
+    <t>水君</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>龍</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>急凍鳥</t>
+  </si>
+  <si>
+    <t>拉普拉斯</t>
+  </si>
+  <si>
+    <t>拉帝亞斯</t>
+  </si>
+  <si>
+    <t>蒼響</t>
+  </si>
+  <si>
+    <t>妖精</t>
+  </si>
+  <si>
+    <t>巨金怪</t>
+  </si>
+  <si>
+    <t>炎帝</t>
+  </si>
+  <si>
+    <t>鋼鎧鴉</t>
+  </si>
+  <si>
+    <t>幾何雪花</t>
+  </si>
+  <si>
+    <t>藏飽栗鼠</t>
+  </si>
+  <si>
+    <t>雷公</t>
+  </si>
+  <si>
+    <t>電</t>
+  </si>
+  <si>
+    <t>武道熊師(連)</t>
+  </si>
+  <si>
+    <t>武道熊師(一)</t>
+  </si>
+  <si>
+    <t>惡</t>
+  </si>
+  <si>
+    <t>水箭龜</t>
+  </si>
+  <si>
+    <t>閃電鳥</t>
+  </si>
+  <si>
+    <t>轟擂金剛猩</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>火焰鳥</t>
+  </si>
+  <si>
+    <t>投擲猴</t>
+  </si>
+  <si>
+    <t>妙蛙花</t>
+  </si>
+  <si>
+    <t>毛毛角羊</t>
+  </si>
+  <si>
+    <t>壺壺</t>
+  </si>
+  <si>
+    <t>蟲</t>
+  </si>
+  <si>
+    <t>怪力</t>
+  </si>
+  <si>
+    <t>噴火龍</t>
+  </si>
+  <si>
+    <t>龍頭地鼠</t>
+  </si>
+  <si>
+    <t>灰塵山</t>
+  </si>
+  <si>
+    <t>閃焰王牌</t>
+  </si>
+  <si>
+    <t>吼鯨王</t>
+  </si>
+  <si>
+    <t>鐮刀盔</t>
+  </si>
+  <si>
+    <t>高傲雉雞</t>
+  </si>
+  <si>
+    <t>列陣兵</t>
+  </si>
+  <si>
+    <t>布莉姆溫</t>
+  </si>
+  <si>
+    <t>狒狒達摩</t>
+  </si>
+  <si>
+    <t>巨鉗蟹</t>
+  </si>
+  <si>
+    <t>戰弦蠑螈</t>
+  </si>
+  <si>
+    <t>千面避役</t>
+  </si>
+  <si>
+    <t>耿鬼</t>
+  </si>
+  <si>
+    <t>幽靈</t>
+  </si>
+  <si>
+    <t>巴大蝶</t>
+  </si>
+  <si>
+    <t>勾魂眼</t>
+  </si>
+  <si>
+    <t>胡地</t>
+  </si>
+  <si>
+    <t>鋁鋼龍</t>
+  </si>
+  <si>
+    <t>甜冷美后</t>
+  </si>
+  <si>
+    <t>沙奈朵</t>
+  </si>
+  <si>
+    <t>超級巨伊布</t>
+  </si>
+  <si>
+    <t>水伊布</t>
+  </si>
+  <si>
+    <t>雷伊布</t>
+  </si>
+  <si>
+    <t>火伊布</t>
+  </si>
+  <si>
+    <t>太陽伊布</t>
+  </si>
+  <si>
+    <t>月亮伊布</t>
+  </si>
+  <si>
+    <t>葉伊布</t>
+  </si>
+  <si>
+    <t>冰伊布</t>
+  </si>
+  <si>
+    <t>仙子伊布</t>
+  </si>
+  <si>
+    <t>艾路雷朵</t>
+  </si>
+  <si>
+    <t>烏賊王</t>
+  </si>
+  <si>
+    <t>心蝙蝠</t>
+  </si>
+  <si>
+    <t>超極巨灰塵山</t>
+  </si>
+  <si>
+    <t>洛奇亞</t>
+  </si>
+  <si>
+    <t>飛腿郎</t>
+  </si>
+  <si>
+    <t>快拳郎</t>
   </si>
 </sst>
 </file>
@@ -344,902 +593,6 @@
           </cell>
           <cell r="AB2" t="str">
             <v>基礎防禦</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="Y3" t="str">
-            <v>幸福蛋</v>
-          </cell>
-          <cell r="Z3" t="str">
-            <v>一般</v>
-          </cell>
-          <cell r="AA3" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB3">
-            <v>61.686</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="Y4" t="str">
-            <v>藏瑪然特</v>
-          </cell>
-          <cell r="Z4" t="str">
-            <v>鋼</v>
-          </cell>
-          <cell r="AA4" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AB4">
-            <v>43.07</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="Y5" t="str">
-            <v>卡比獸</v>
-          </cell>
-          <cell r="Z5" t="str">
-            <v>一般</v>
-          </cell>
-          <cell r="AA5" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB5">
-            <v>33.768000000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="Y6" t="str">
-            <v>水君</v>
-          </cell>
-          <cell r="Z6" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA6" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB6">
-            <v>34.58</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="Y7" t="str">
-            <v>無極汰那</v>
-          </cell>
-          <cell r="Z7" t="str">
-            <v>龍</v>
-          </cell>
-          <cell r="AA7" t="str">
-            <v>毒</v>
-          </cell>
-          <cell r="AB7">
-            <v>35.802</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="Y8" t="str">
-            <v>急凍鳥</v>
-          </cell>
-          <cell r="Z8" t="str">
-            <v>冰</v>
-          </cell>
-          <cell r="AA8" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB8">
-            <v>30.504000000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="Y9" t="str">
-            <v>拉普拉斯</v>
-          </cell>
-          <cell r="Z9" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA9" t="str">
-            <v>冰</v>
-          </cell>
-          <cell r="AB9">
-            <v>33.81</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="Y10" t="str">
-            <v>拉帝亞斯</v>
-          </cell>
-          <cell r="Z10" t="str">
-            <v>龍</v>
-          </cell>
-          <cell r="AA10" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AB10">
-            <v>22.308</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="Y11" t="str">
-            <v>蒼響</v>
-          </cell>
-          <cell r="Z11" t="str">
-            <v>鋼</v>
-          </cell>
-          <cell r="AA11" t="str">
-            <v>妖精</v>
-          </cell>
-          <cell r="AB11">
-            <v>36.848999999999997</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="Y12" t="str">
-            <v>拉帝歐斯</v>
-          </cell>
-          <cell r="Z12" t="str">
-            <v>龍</v>
-          </cell>
-          <cell r="AA12" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AB12">
-            <v>27.808</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="Y13" t="str">
-            <v>巨金怪</v>
-          </cell>
-          <cell r="Z13" t="str">
-            <v>鋼</v>
-          </cell>
-          <cell r="AA13" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AB13">
-            <v>30.428999999999998</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="Y14" t="str">
-            <v>炎帝</v>
-          </cell>
-          <cell r="Z14" t="str">
-            <v>火</v>
-          </cell>
-          <cell r="AA14" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB14">
-            <v>23.552</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="Y15" t="str">
-            <v>鋼鎧鴉</v>
-          </cell>
-          <cell r="Z15" t="str">
-            <v>鋼</v>
-          </cell>
-          <cell r="AA15" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB15">
-            <v>31.35</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="Y16" t="str">
-            <v>幾何雪花</v>
-          </cell>
-          <cell r="Z16" t="str">
-            <v>冰</v>
-          </cell>
-          <cell r="AA16" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB16">
-            <v>26.295999999999999</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="Y17" t="str">
-            <v>藏飽栗鼠</v>
-          </cell>
-          <cell r="Z17" t="str">
-            <v>一般</v>
-          </cell>
-          <cell r="AA17" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB17">
-            <v>29.295000000000002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="Y18" t="str">
-            <v>雷公</v>
-          </cell>
-          <cell r="Z18" t="str">
-            <v>電</v>
-          </cell>
-          <cell r="AA18" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB18">
-            <v>27.37</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="Y19" t="str">
-            <v>武道熊師(連)</v>
-          </cell>
-          <cell r="Z19" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AA19" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AB19">
-            <v>28.2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="Y20" t="str">
-            <v>武道熊師(一)</v>
-          </cell>
-          <cell r="Z20" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AA20" t="str">
-            <v>惡</v>
-          </cell>
-          <cell r="AB20">
-            <v>28.2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="Y21" t="str">
-            <v>水箭龜</v>
-          </cell>
-          <cell r="Z21" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA21" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB21">
-            <v>27.824999999999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="Y22" t="str">
-            <v>閃電鳥</v>
-          </cell>
-          <cell r="Z22" t="str">
-            <v>電</v>
-          </cell>
-          <cell r="AA22" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB22">
-            <v>25.367999999999999</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="Y23" t="str">
-            <v>轟擂金剛猩</v>
-          </cell>
-          <cell r="Z23" t="str">
-            <v>草</v>
-          </cell>
-          <cell r="AA23" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB23">
-            <v>27.027000000000001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="Y24" t="str">
-            <v>火焰鳥</v>
-          </cell>
-          <cell r="Z24" t="str">
-            <v>火</v>
-          </cell>
-          <cell r="AA24" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB24">
-            <v>23.797999999999998</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="Y25" t="str">
-            <v>投擲猴</v>
-          </cell>
-          <cell r="Z25" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AA25" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB25">
-            <v>24.103999999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="Y26" t="str">
-            <v>妙蛙花</v>
-          </cell>
-          <cell r="Z26" t="str">
-            <v>草</v>
-          </cell>
-          <cell r="AA26" t="str">
-            <v>毒</v>
-          </cell>
-          <cell r="AB26">
-            <v>23.712</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="Y27" t="str">
-            <v>毛毛角羊</v>
-          </cell>
-          <cell r="Z27" t="str">
-            <v>一般</v>
-          </cell>
-          <cell r="AA27" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB27">
-            <v>24.882999999999999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="Y28" t="str">
-            <v>多刺菊石獸</v>
-          </cell>
-          <cell r="Z28" t="str">
-            <v>岩石</v>
-          </cell>
-          <cell r="AA28" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AB28">
-            <v>25.456</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="Y29" t="str">
-            <v>壺壺</v>
-          </cell>
-          <cell r="Z29" t="str">
-            <v>岩石</v>
-          </cell>
-          <cell r="AA29" t="str">
-            <v>蟲</v>
-          </cell>
-          <cell r="AB29">
-            <v>33.659999999999997</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="Y30" t="str">
-            <v>怪力</v>
-          </cell>
-          <cell r="Z30" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AA30" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB30">
-            <v>25.38</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="Y31" t="str">
-            <v>噴火龍</v>
-          </cell>
-          <cell r="Z31" t="str">
-            <v>火</v>
-          </cell>
-          <cell r="AA31" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB31">
-            <v>22.62</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="Y32" t="str">
-            <v>龍頭地鼠</v>
-          </cell>
-          <cell r="Z32" t="str">
-            <v>地面</v>
-          </cell>
-          <cell r="AA32" t="str">
-            <v>鋼</v>
-          </cell>
-          <cell r="AB32">
-            <v>23.69</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="Y33" t="str">
-            <v>灰塵山</v>
-          </cell>
-          <cell r="Z33" t="str">
-            <v>毒</v>
-          </cell>
-          <cell r="AA33" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB33">
-            <v>22.68</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="Y34" t="str">
-            <v>閃焰王牌</v>
-          </cell>
-          <cell r="Z34" t="str">
-            <v>火</v>
-          </cell>
-          <cell r="AA34" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB34">
-            <v>24.36</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="Y35" t="str">
-            <v>吼鯨王</v>
-          </cell>
-          <cell r="Z35" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA35" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB35">
-            <v>22.88</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="Y36" t="str">
-            <v>鐮刀盔</v>
-          </cell>
-          <cell r="Z36" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA36" t="str">
-            <v>岩石</v>
-          </cell>
-          <cell r="AB36">
-            <v>21.172000000000001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="Y37" t="str">
-            <v>高傲雉雞</v>
-          </cell>
-          <cell r="Z37" t="str">
-            <v>一般</v>
-          </cell>
-          <cell r="AA37" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB37">
-            <v>20.32</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="Y38" t="str">
-            <v>列陣兵</v>
-          </cell>
-          <cell r="Z38" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AA38" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB38">
-            <v>19.591000000000001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="Y39" t="str">
-            <v>布莉姆溫</v>
-          </cell>
-          <cell r="Z39" t="str">
-            <v>妖精</v>
-          </cell>
-          <cell r="AA39" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AB39">
-            <v>19.84</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="Y40" t="str">
-            <v>狒狒達摩</v>
-          </cell>
-          <cell r="Z40" t="str">
-            <v>火</v>
-          </cell>
-          <cell r="AA40" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB40">
-            <v>19.3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="Y41" t="str">
-            <v>巨鉗蟹</v>
-          </cell>
-          <cell r="Z41" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA41" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB41">
-            <v>19.431000000000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="Y42" t="str">
-            <v>戰弦蠑螈</v>
-          </cell>
-          <cell r="Z42" t="str">
-            <v>電</v>
-          </cell>
-          <cell r="AA42" t="str">
-            <v>毒</v>
-          </cell>
-          <cell r="AB42">
-            <v>18.634</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="Y43" t="str">
-            <v>千面避役</v>
-          </cell>
-          <cell r="Z43" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA43" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB43">
-            <v>18.081</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="Y44" t="str">
-            <v>耿鬼</v>
-          </cell>
-          <cell r="Z44" t="str">
-            <v>幽靈</v>
-          </cell>
-          <cell r="AA44" t="str">
-            <v>毒</v>
-          </cell>
-          <cell r="AB44">
-            <v>18.224</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="Y45" t="str">
-            <v>巴大蝶</v>
-          </cell>
-          <cell r="Z45" t="str">
-            <v>蟲</v>
-          </cell>
-          <cell r="AA45" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB45">
-            <v>15.827</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="Y46" t="str">
-            <v>勾魂眼</v>
-          </cell>
-          <cell r="Z46" t="str">
-            <v>幽靈</v>
-          </cell>
-          <cell r="AA46" t="str">
-            <v>惡</v>
-          </cell>
-          <cell r="AB46">
-            <v>13.688000000000001</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="Y47" t="str">
-            <v>胡地</v>
-          </cell>
-          <cell r="Z47" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AA47" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB47">
-            <v>18.288</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="Y48" t="str">
-            <v>鋁鋼龍</v>
-          </cell>
-          <cell r="Z48" t="str">
-            <v>鋼</v>
-          </cell>
-          <cell r="AA48" t="str">
-            <v>龍</v>
-          </cell>
-          <cell r="AB48">
-            <v>23.225999999999999</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="Y49" t="str">
-            <v>甜冷美后</v>
-          </cell>
-          <cell r="Z49" t="str">
-            <v>草</v>
-          </cell>
-          <cell r="AA49" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB49">
-            <v>24.9</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="Y50" t="str">
-            <v>沙奈朵</v>
-          </cell>
-          <cell r="Z50" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AA50" t="str">
-            <v>妖精</v>
-          </cell>
-          <cell r="AB50">
-            <v>24.07</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="Y51" t="str">
-            <v>超級巨伊布</v>
-          </cell>
-          <cell r="Z51" t="str">
-            <v>一般</v>
-          </cell>
-          <cell r="AA51" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB51">
-            <v>12.954000000000001</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="Y52" t="str">
-            <v>水伊布</v>
-          </cell>
-          <cell r="Z52" t="str">
-            <v>水</v>
-          </cell>
-          <cell r="AA52" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB52">
-            <v>31.97</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="Y53" t="str">
-            <v>雷伊布</v>
-          </cell>
-          <cell r="Z53" t="str">
-            <v>電</v>
-          </cell>
-          <cell r="AA53" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB53">
-            <v>21.84</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="Y54" t="str">
-            <v>火伊布</v>
-          </cell>
-          <cell r="Z54" t="str">
-            <v>火</v>
-          </cell>
-          <cell r="AA54" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB54">
-            <v>21.42</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="Y55" t="str">
-            <v>太陽伊布</v>
-          </cell>
-          <cell r="Z55" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AA55" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB55">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="Y56" t="str">
-            <v>月亮伊布</v>
-          </cell>
-          <cell r="Z56" t="str">
-            <v>惡</v>
-          </cell>
-          <cell r="AA56" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB56">
-            <v>36.764000000000003</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="Y57" t="str">
-            <v>葉伊布</v>
-          </cell>
-          <cell r="Z57" t="str">
-            <v>草</v>
-          </cell>
-          <cell r="AA57" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB57">
-            <v>25.9</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="Y58" t="str">
-            <v>冰伊布</v>
-          </cell>
-          <cell r="Z58" t="str">
-            <v>冰</v>
-          </cell>
-          <cell r="AA58" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB58">
-            <v>24.36</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="Y59" t="str">
-            <v>仙子伊布</v>
-          </cell>
-          <cell r="Z59" t="str">
-            <v>妖精</v>
-          </cell>
-          <cell r="AA59" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB59">
-            <v>31.486000000000001</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="Y60" t="str">
-            <v>艾路雷朵</v>
-          </cell>
-          <cell r="Z60" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AA60" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AB60">
-            <v>24.07</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="Y61" t="str">
-            <v>烏賊王</v>
-          </cell>
-          <cell r="Z61" t="str">
-            <v>惡</v>
-          </cell>
-          <cell r="AA61" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AB61">
-            <v>23.998000000000001</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="Y62" t="str">
-            <v>心蝙蝠</v>
-          </cell>
-          <cell r="Z62" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AA62" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB62">
-            <v>15.157999999999999</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="Y63" t="str">
-            <v>超極巨灰塵山</v>
-          </cell>
-          <cell r="Z63" t="str">
-            <v>毒</v>
-          </cell>
-          <cell r="AA63" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB63">
-            <v>22.4</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="Y64" t="str">
-            <v>洛奇亞</v>
-          </cell>
-          <cell r="Z64" t="str">
-            <v>超能力</v>
-          </cell>
-          <cell r="AA64" t="str">
-            <v>飛行</v>
-          </cell>
-          <cell r="AB64">
-            <v>50.628999999999998</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="Y65" t="str">
-            <v>飛腿郎</v>
-          </cell>
-          <cell r="Z65" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AA65" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB65">
-            <v>18.600000000000001</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="Y66" t="str">
-            <v>快拳郎</v>
-          </cell>
-          <cell r="Z66" t="str">
-            <v>格鬥</v>
-          </cell>
-          <cell r="AA66" t="str">
-            <v>無</v>
-          </cell>
-          <cell r="AB66">
-            <v>20.16</v>
           </cell>
         </row>
       </sheetData>
@@ -1517,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1607,20 +960,16 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="str">
-        <f>[1]攻守數據!Y3</f>
-        <v>幸福蛋</v>
-      </c>
-      <c r="B2" s="13" t="str">
-        <f>[1]攻守數據!Z3</f>
-        <v>一般</v>
-      </c>
-      <c r="C2" s="13" t="str">
-        <f>[1]攻守數據!AA3</f>
-        <v>無</v>
+      <c r="A2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D2" s="14">
-        <f>[1]攻守數據!AB3</f>
         <v>61.686</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1685,20 +1034,16 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="str">
-        <f>[1]攻守數據!Y4</f>
-        <v>藏瑪然特</v>
-      </c>
-      <c r="B3" s="13" t="str">
-        <f>[1]攻守數據!Z4</f>
-        <v>鋼</v>
-      </c>
-      <c r="C3" s="13" t="str">
-        <f>[1]攻守數據!AA4</f>
-        <v>格鬥</v>
+      <c r="A3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="14">
-        <f>[1]攻守數據!AB4</f>
         <v>43.07</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1763,20 +1108,16 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="str">
-        <f>[1]攻守數據!Y5</f>
-        <v>卡比獸</v>
-      </c>
-      <c r="B4" s="13" t="str">
-        <f>[1]攻守數據!Z5</f>
-        <v>一般</v>
-      </c>
-      <c r="C4" s="13" t="str">
-        <f>[1]攻守數據!AA5</f>
-        <v>無</v>
+      <c r="A4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="14">
-        <f>[1]攻守數據!AB5</f>
         <v>33.768000000000001</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1841,20 +1182,16 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="str">
-        <f>[1]攻守數據!Y6</f>
-        <v>水君</v>
-      </c>
-      <c r="B5" s="13" t="str">
-        <f>[1]攻守數據!Z6</f>
-        <v>水</v>
-      </c>
-      <c r="C5" s="13" t="str">
-        <f>[1]攻守數據!AA6</f>
-        <v>無</v>
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="14">
-        <f>[1]攻守數據!AB6</f>
         <v>34.58</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1919,20 +1256,16 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="str">
-        <f>[1]攻守數據!Y7</f>
-        <v>無極汰那</v>
-      </c>
-      <c r="B6" s="13" t="str">
-        <f>[1]攻守數據!Z7</f>
-        <v>龍</v>
-      </c>
-      <c r="C6" s="13" t="str">
-        <f>[1]攻守數據!AA7</f>
-        <v>毒</v>
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="14">
-        <f>[1]攻守數據!AB7</f>
         <v>35.802</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1997,20 +1330,16 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="str">
-        <f>[1]攻守數據!Y8</f>
-        <v>急凍鳥</v>
-      </c>
-      <c r="B7" s="13" t="str">
-        <f>[1]攻守數據!Z8</f>
-        <v>冰</v>
-      </c>
-      <c r="C7" s="13" t="str">
-        <f>[1]攻守數據!AA8</f>
-        <v>飛行</v>
+      <c r="A7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="14">
-        <f>[1]攻守數據!AB8</f>
         <v>30.504000000000001</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2075,20 +1404,16 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="str">
-        <f>[1]攻守數據!Y9</f>
-        <v>拉普拉斯</v>
-      </c>
-      <c r="B8" s="13" t="str">
-        <f>[1]攻守數據!Z9</f>
-        <v>水</v>
-      </c>
-      <c r="C8" s="13" t="str">
-        <f>[1]攻守數據!AA9</f>
-        <v>冰</v>
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="14">
-        <f>[1]攻守數據!AB9</f>
         <v>33.81</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2153,20 +1478,16 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="str">
-        <f>[1]攻守數據!Y10</f>
-        <v>拉帝亞斯</v>
-      </c>
-      <c r="B9" s="13" t="str">
-        <f>[1]攻守數據!Z10</f>
-        <v>龍</v>
-      </c>
-      <c r="C9" s="13" t="str">
-        <f>[1]攻守數據!AA10</f>
-        <v>超能力</v>
+      <c r="A9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="14">
-        <f>[1]攻守數據!AB10</f>
         <v>22.308</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2231,20 +1552,16 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="str">
-        <f>[1]攻守數據!Y11</f>
-        <v>蒼響</v>
-      </c>
-      <c r="B10" s="13" t="str">
-        <f>[1]攻守數據!Z11</f>
-        <v>鋼</v>
-      </c>
-      <c r="C10" s="13" t="str">
-        <f>[1]攻守數據!AA11</f>
-        <v>妖精</v>
+      <c r="A10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="14">
-        <f>[1]攻守數據!AB11</f>
         <v>36.848999999999997</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -2309,20 +1626,16 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="str">
-        <f>[1]攻守數據!Y12</f>
-        <v>拉帝歐斯</v>
-      </c>
-      <c r="B11" s="13" t="str">
-        <f>[1]攻守數據!Z12</f>
-        <v>龍</v>
-      </c>
-      <c r="C11" s="13" t="str">
-        <f>[1]攻守數據!AA12</f>
-        <v>超能力</v>
+      <c r="A11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="14">
-        <f>[1]攻守數據!AB12</f>
         <v>27.808</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -2387,20 +1700,16 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="str">
-        <f>[1]攻守數據!Y13</f>
-        <v>巨金怪</v>
-      </c>
-      <c r="B12" s="13" t="str">
-        <f>[1]攻守數據!Z13</f>
-        <v>鋼</v>
-      </c>
-      <c r="C12" s="13" t="str">
-        <f>[1]攻守數據!AA13</f>
-        <v>超能力</v>
+      <c r="A12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="14">
-        <f>[1]攻守數據!AB13</f>
         <v>30.428999999999998</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2465,20 +1774,16 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="str">
-        <f>[1]攻守數據!Y14</f>
-        <v>炎帝</v>
-      </c>
-      <c r="B13" s="13" t="str">
-        <f>[1]攻守數據!Z14</f>
-        <v>火</v>
-      </c>
-      <c r="C13" s="13" t="str">
-        <f>[1]攻守數據!AA14</f>
-        <v>無</v>
+      <c r="A13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="14">
-        <f>[1]攻守數據!AB14</f>
         <v>23.552</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2543,20 +1848,16 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="str">
-        <f>[1]攻守數據!Y15</f>
-        <v>鋼鎧鴉</v>
-      </c>
-      <c r="B14" s="13" t="str">
-        <f>[1]攻守數據!Z15</f>
-        <v>鋼</v>
-      </c>
-      <c r="C14" s="13" t="str">
-        <f>[1]攻守數據!AA15</f>
-        <v>飛行</v>
+      <c r="A14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="14">
-        <f>[1]攻守數據!AB15</f>
         <v>31.35</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2621,20 +1922,16 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="str">
-        <f>[1]攻守數據!Y16</f>
-        <v>幾何雪花</v>
-      </c>
-      <c r="B15" s="13" t="str">
-        <f>[1]攻守數據!Z16</f>
-        <v>冰</v>
-      </c>
-      <c r="C15" s="13" t="str">
-        <f>[1]攻守數據!AA16</f>
-        <v>無</v>
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="14">
-        <f>[1]攻守數據!AB16</f>
         <v>26.295999999999999</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -2699,20 +1996,16 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f>[1]攻守數據!Y17</f>
-        <v>藏飽栗鼠</v>
-      </c>
-      <c r="B16" s="13" t="str">
-        <f>[1]攻守數據!Z17</f>
-        <v>一般</v>
-      </c>
-      <c r="C16" s="13" t="str">
-        <f>[1]攻守數據!AA17</f>
-        <v>無</v>
+      <c r="A16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="14">
-        <f>[1]攻守數據!AB17</f>
         <v>29.295000000000002</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2777,20 +2070,16 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="str">
-        <f>[1]攻守數據!Y18</f>
-        <v>雷公</v>
-      </c>
-      <c r="B17" s="13" t="str">
-        <f>[1]攻守數據!Z18</f>
-        <v>電</v>
-      </c>
-      <c r="C17" s="13" t="str">
-        <f>[1]攻守數據!AA18</f>
-        <v>無</v>
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D17" s="14">
-        <f>[1]攻守數據!AB18</f>
         <v>27.37</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2855,20 +2144,16 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="str">
-        <f>[1]攻守數據!Y19</f>
-        <v>武道熊師(連)</v>
-      </c>
-      <c r="B18" s="13" t="str">
-        <f>[1]攻守數據!Z19</f>
-        <v>格鬥</v>
-      </c>
-      <c r="C18" s="13" t="str">
-        <f>[1]攻守數據!AA19</f>
-        <v>水</v>
+      <c r="A18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="14">
-        <f>[1]攻守數據!AB19</f>
         <v>28.2</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2933,20 +2218,16 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
-        <f>[1]攻守數據!Y20</f>
-        <v>武道熊師(一)</v>
-      </c>
-      <c r="B19" s="13" t="str">
-        <f>[1]攻守數據!Z20</f>
-        <v>格鬥</v>
-      </c>
-      <c r="C19" s="13" t="str">
-        <f>[1]攻守數據!AA20</f>
-        <v>惡</v>
+      <c r="A19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D19" s="14">
-        <f>[1]攻守數據!AB20</f>
         <v>28.2</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -3011,20 +2292,16 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="str">
-        <f>[1]攻守數據!Y21</f>
-        <v>水箭龜</v>
-      </c>
-      <c r="B20" s="13" t="str">
-        <f>[1]攻守數據!Z21</f>
-        <v>水</v>
-      </c>
-      <c r="C20" s="13" t="str">
-        <f>[1]攻守數據!AA21</f>
-        <v>無</v>
+      <c r="A20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="14">
-        <f>[1]攻守數據!AB21</f>
         <v>27.824999999999999</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -3089,812 +2366,632 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="str">
-        <f>[1]攻守數據!Y22</f>
-        <v>閃電鳥</v>
-      </c>
-      <c r="B21" s="13" t="str">
-        <f>[1]攻守數據!Z22</f>
-        <v>電</v>
-      </c>
-      <c r="C21" s="13" t="str">
-        <f>[1]攻守數據!AA22</f>
-        <v>飛行</v>
+      <c r="A21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="14">
-        <f>[1]攻守數據!AB22</f>
         <v>25.367999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="str">
-        <f>[1]攻守數據!Y23</f>
-        <v>轟擂金剛猩</v>
-      </c>
-      <c r="B22" s="13" t="str">
-        <f>[1]攻守數據!Z23</f>
-        <v>草</v>
-      </c>
-      <c r="C22" s="13" t="str">
-        <f>[1]攻守數據!AA23</f>
-        <v>無</v>
+      <c r="A22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D22" s="14">
-        <f>[1]攻守數據!AB23</f>
         <v>27.027000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="str">
-        <f>[1]攻守數據!Y24</f>
-        <v>火焰鳥</v>
-      </c>
-      <c r="B23" s="13" t="str">
-        <f>[1]攻守數據!Z24</f>
-        <v>火</v>
-      </c>
-      <c r="C23" s="13" t="str">
-        <f>[1]攻守數據!AA24</f>
-        <v>飛行</v>
+      <c r="A23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="14">
-        <f>[1]攻守數據!AB24</f>
         <v>23.797999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="str">
-        <f>[1]攻守數據!Y25</f>
-        <v>投擲猴</v>
-      </c>
-      <c r="B24" s="13" t="str">
-        <f>[1]攻守數據!Z25</f>
-        <v>格鬥</v>
-      </c>
-      <c r="C24" s="13" t="str">
-        <f>[1]攻守數據!AA25</f>
-        <v>無</v>
+      <c r="A24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D24" s="14">
-        <f>[1]攻守數據!AB25</f>
         <v>24.103999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="str">
-        <f>[1]攻守數據!Y26</f>
-        <v>妙蛙花</v>
-      </c>
-      <c r="B25" s="13" t="str">
-        <f>[1]攻守數據!Z26</f>
-        <v>草</v>
-      </c>
-      <c r="C25" s="13" t="str">
-        <f>[1]攻守數據!AA26</f>
-        <v>毒</v>
+      <c r="A25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D25" s="14">
-        <f>[1]攻守數據!AB26</f>
         <v>23.712</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="str">
-        <f>[1]攻守數據!Y27</f>
-        <v>毛毛角羊</v>
-      </c>
-      <c r="B26" s="13" t="str">
-        <f>[1]攻守數據!Z27</f>
-        <v>一般</v>
-      </c>
-      <c r="C26" s="13" t="str">
-        <f>[1]攻守數據!AA27</f>
-        <v>無</v>
+      <c r="A26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D26" s="14">
-        <f>[1]攻守數據!AB27</f>
         <v>24.882999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="str">
-        <f>[1]攻守數據!Y28</f>
-        <v>多刺菊石獸</v>
-      </c>
-      <c r="B27" s="13" t="str">
-        <f>[1]攻守數據!Z28</f>
-        <v>岩石</v>
-      </c>
-      <c r="C27" s="13" t="str">
-        <f>[1]攻守數據!AA28</f>
-        <v>水</v>
+      <c r="A27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="14">
-        <f>[1]攻守數據!AB28</f>
         <v>25.456</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="str">
-        <f>[1]攻守數據!Y29</f>
-        <v>壺壺</v>
-      </c>
-      <c r="B28" s="13" t="str">
-        <f>[1]攻守數據!Z29</f>
-        <v>岩石</v>
-      </c>
-      <c r="C28" s="13" t="str">
-        <f>[1]攻守數據!AA29</f>
-        <v>蟲</v>
+      <c r="A28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D28" s="14">
-        <f>[1]攻守數據!AB29</f>
         <v>33.659999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="str">
-        <f>[1]攻守數據!Y30</f>
-        <v>怪力</v>
-      </c>
-      <c r="B29" s="13" t="str">
-        <f>[1]攻守數據!Z30</f>
-        <v>格鬥</v>
-      </c>
-      <c r="C29" s="13" t="str">
-        <f>[1]攻守數據!AA30</f>
-        <v>無</v>
+      <c r="A29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D29" s="14">
-        <f>[1]攻守數據!AB30</f>
         <v>25.38</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="str">
-        <f>[1]攻守數據!Y31</f>
-        <v>噴火龍</v>
-      </c>
-      <c r="B30" s="13" t="str">
-        <f>[1]攻守數據!Z31</f>
-        <v>火</v>
-      </c>
-      <c r="C30" s="13" t="str">
-        <f>[1]攻守數據!AA31</f>
-        <v>飛行</v>
+      <c r="A30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D30" s="14">
-        <f>[1]攻守數據!AB31</f>
         <v>22.62</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="str">
-        <f>[1]攻守數據!Y32</f>
-        <v>龍頭地鼠</v>
-      </c>
-      <c r="B31" s="13" t="str">
-        <f>[1]攻守數據!Z32</f>
-        <v>地面</v>
-      </c>
-      <c r="C31" s="13" t="str">
-        <f>[1]攻守數據!AA32</f>
-        <v>鋼</v>
+      <c r="A31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D31" s="14">
-        <f>[1]攻守數據!AB32</f>
         <v>23.69</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="str">
-        <f>[1]攻守數據!Y33</f>
-        <v>灰塵山</v>
-      </c>
-      <c r="B32" s="13" t="str">
-        <f>[1]攻守數據!Z33</f>
-        <v>毒</v>
-      </c>
-      <c r="C32" s="13" t="str">
-        <f>[1]攻守數據!AA33</f>
-        <v>無</v>
+      <c r="A32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D32" s="14">
-        <f>[1]攻守數據!AB33</f>
         <v>22.68</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="str">
-        <f>[1]攻守數據!Y34</f>
-        <v>閃焰王牌</v>
-      </c>
-      <c r="B33" s="13" t="str">
-        <f>[1]攻守數據!Z34</f>
-        <v>火</v>
-      </c>
-      <c r="C33" s="13" t="str">
-        <f>[1]攻守數據!AA34</f>
-        <v>無</v>
+      <c r="A33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D33" s="14">
-        <f>[1]攻守數據!AB34</f>
         <v>24.36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="str">
-        <f>[1]攻守數據!Y35</f>
-        <v>吼鯨王</v>
-      </c>
-      <c r="B34" s="13" t="str">
-        <f>[1]攻守數據!Z35</f>
-        <v>水</v>
-      </c>
-      <c r="C34" s="13" t="str">
-        <f>[1]攻守數據!AA35</f>
-        <v>無</v>
+      <c r="A34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D34" s="14">
-        <f>[1]攻守數據!AB35</f>
         <v>22.88</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="str">
-        <f>[1]攻守數據!Y36</f>
-        <v>鐮刀盔</v>
-      </c>
-      <c r="B35" s="13" t="str">
-        <f>[1]攻守數據!Z36</f>
-        <v>水</v>
-      </c>
-      <c r="C35" s="13" t="str">
-        <f>[1]攻守數據!AA36</f>
-        <v>岩石</v>
+      <c r="A35" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D35" s="14">
-        <f>[1]攻守數據!AB36</f>
         <v>21.172000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="str">
-        <f>[1]攻守數據!Y37</f>
-        <v>高傲雉雞</v>
-      </c>
-      <c r="B36" s="13" t="str">
-        <f>[1]攻守數據!Z37</f>
-        <v>一般</v>
-      </c>
-      <c r="C36" s="13" t="str">
-        <f>[1]攻守數據!AA37</f>
-        <v>飛行</v>
+      <c r="A36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D36" s="14">
-        <f>[1]攻守數據!AB37</f>
         <v>20.32</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="str">
-        <f>[1]攻守數據!Y38</f>
-        <v>列陣兵</v>
-      </c>
-      <c r="B37" s="13" t="str">
-        <f>[1]攻守數據!Z38</f>
-        <v>格鬥</v>
-      </c>
-      <c r="C37" s="13" t="str">
-        <f>[1]攻守數據!AA38</f>
-        <v>無</v>
+      <c r="A37" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="14">
-        <f>[1]攻守數據!AB38</f>
         <v>19.591000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="str">
-        <f>[1]攻守數據!Y39</f>
-        <v>布莉姆溫</v>
-      </c>
-      <c r="B38" s="13" t="str">
-        <f>[1]攻守數據!Z39</f>
-        <v>妖精</v>
-      </c>
-      <c r="C38" s="13" t="str">
-        <f>[1]攻守數據!AA39</f>
-        <v>超能力</v>
+      <c r="A38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D38" s="14">
-        <f>[1]攻守數據!AB39</f>
         <v>19.84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="str">
-        <f>[1]攻守數據!Y40</f>
-        <v>狒狒達摩</v>
-      </c>
-      <c r="B39" s="13" t="str">
-        <f>[1]攻守數據!Z40</f>
-        <v>火</v>
-      </c>
-      <c r="C39" s="13" t="str">
-        <f>[1]攻守數據!AA40</f>
-        <v>無</v>
+      <c r="A39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D39" s="14">
-        <f>[1]攻守數據!AB40</f>
         <v>19.3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="str">
-        <f>[1]攻守數據!Y41</f>
-        <v>巨鉗蟹</v>
-      </c>
-      <c r="B40" s="13" t="str">
-        <f>[1]攻守數據!Z41</f>
-        <v>水</v>
-      </c>
-      <c r="C40" s="13" t="str">
-        <f>[1]攻守數據!AA41</f>
-        <v>無</v>
+      <c r="A40" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="14">
-        <f>[1]攻守數據!AB41</f>
         <v>19.431000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="str">
-        <f>[1]攻守數據!Y42</f>
-        <v>戰弦蠑螈</v>
-      </c>
-      <c r="B41" s="13" t="str">
-        <f>[1]攻守數據!Z42</f>
-        <v>電</v>
-      </c>
-      <c r="C41" s="13" t="str">
-        <f>[1]攻守數據!AA42</f>
-        <v>毒</v>
+      <c r="A41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D41" s="14">
-        <f>[1]攻守數據!AB42</f>
         <v>18.634</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="str">
-        <f>[1]攻守數據!Y43</f>
-        <v>千面避役</v>
-      </c>
-      <c r="B42" s="13" t="str">
-        <f>[1]攻守數據!Z43</f>
-        <v>水</v>
-      </c>
-      <c r="C42" s="13" t="str">
-        <f>[1]攻守數據!AA43</f>
-        <v>無</v>
+      <c r="A42" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D42" s="14">
-        <f>[1]攻守數據!AB43</f>
         <v>18.081</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="str">
-        <f>[1]攻守數據!Y44</f>
-        <v>耿鬼</v>
-      </c>
-      <c r="B43" s="13" t="str">
-        <f>[1]攻守數據!Z44</f>
-        <v>幽靈</v>
-      </c>
-      <c r="C43" s="13" t="str">
-        <f>[1]攻守數據!AA44</f>
-        <v>毒</v>
+      <c r="A43" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D43" s="14">
-        <f>[1]攻守數據!AB44</f>
         <v>18.224</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="str">
-        <f>[1]攻守數據!Y45</f>
-        <v>巴大蝶</v>
-      </c>
-      <c r="B44" s="13" t="str">
-        <f>[1]攻守數據!Z45</f>
-        <v>蟲</v>
-      </c>
-      <c r="C44" s="13" t="str">
-        <f>[1]攻守數據!AA45</f>
-        <v>飛行</v>
+      <c r="A44" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D44" s="14">
-        <f>[1]攻守數據!AB45</f>
         <v>15.827</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="str">
-        <f>[1]攻守數據!Y46</f>
-        <v>勾魂眼</v>
-      </c>
-      <c r="B45" s="13" t="str">
-        <f>[1]攻守數據!Z46</f>
-        <v>幽靈</v>
-      </c>
-      <c r="C45" s="13" t="str">
-        <f>[1]攻守數據!AA46</f>
-        <v>惡</v>
+      <c r="A45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D45" s="14">
-        <f>[1]攻守數據!AB46</f>
         <v>13.688000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="str">
-        <f>[1]攻守數據!Y47</f>
-        <v>胡地</v>
-      </c>
-      <c r="B46" s="13" t="str">
-        <f>[1]攻守數據!Z47</f>
-        <v>超能力</v>
-      </c>
-      <c r="C46" s="13" t="str">
-        <f>[1]攻守數據!AA47</f>
-        <v>無</v>
+      <c r="A46" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D46" s="14">
-        <f>[1]攻守數據!AB47</f>
         <v>18.288</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="str">
-        <f>[1]攻守數據!Y48</f>
-        <v>鋁鋼龍</v>
-      </c>
-      <c r="B47" s="13" t="str">
-        <f>[1]攻守數據!Z48</f>
-        <v>鋼</v>
-      </c>
-      <c r="C47" s="13" t="str">
-        <f>[1]攻守數據!AA48</f>
-        <v>龍</v>
+      <c r="A47" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D47" s="14">
-        <f>[1]攻守數據!AB48</f>
         <v>23.225999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="str">
-        <f>[1]攻守數據!Y49</f>
-        <v>甜冷美后</v>
-      </c>
-      <c r="B48" s="13" t="str">
-        <f>[1]攻守數據!Z49</f>
-        <v>草</v>
-      </c>
-      <c r="C48" s="13" t="str">
-        <f>[1]攻守數據!AA49</f>
-        <v>無</v>
+      <c r="A48" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D48" s="14">
-        <f>[1]攻守數據!AB49</f>
         <v>24.9</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="str">
-        <f>[1]攻守數據!Y50</f>
-        <v>沙奈朵</v>
-      </c>
-      <c r="B49" s="13" t="str">
-        <f>[1]攻守數據!Z50</f>
-        <v>超能力</v>
-      </c>
-      <c r="C49" s="13" t="str">
-        <f>[1]攻守數據!AA50</f>
-        <v>妖精</v>
+      <c r="A49" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="D49" s="14">
-        <f>[1]攻守數據!AB50</f>
         <v>24.07</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="str">
-        <f>[1]攻守數據!Y51</f>
-        <v>超級巨伊布</v>
-      </c>
-      <c r="B50" s="13" t="str">
-        <f>[1]攻守數據!Z51</f>
-        <v>一般</v>
-      </c>
-      <c r="C50" s="13" t="str">
-        <f>[1]攻守數據!AA51</f>
-        <v>無</v>
+      <c r="A50" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D50" s="14">
-        <f>[1]攻守數據!AB51</f>
         <v>12.954000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="str">
-        <f>[1]攻守數據!Y52</f>
-        <v>水伊布</v>
-      </c>
-      <c r="B51" s="13" t="str">
-        <f>[1]攻守數據!Z52</f>
-        <v>水</v>
-      </c>
-      <c r="C51" s="13" t="str">
-        <f>[1]攻守數據!AA52</f>
-        <v>無</v>
+      <c r="A51" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D51" s="14">
-        <f>[1]攻守數據!AB52</f>
         <v>31.97</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="str">
-        <f>[1]攻守數據!Y53</f>
-        <v>雷伊布</v>
-      </c>
-      <c r="B52" s="13" t="str">
-        <f>[1]攻守數據!Z53</f>
-        <v>電</v>
-      </c>
-      <c r="C52" s="13" t="str">
-        <f>[1]攻守數據!AA53</f>
-        <v>無</v>
+      <c r="A52" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D52" s="14">
-        <f>[1]攻守數據!AB53</f>
         <v>21.84</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="str">
-        <f>[1]攻守數據!Y54</f>
-        <v>火伊布</v>
-      </c>
-      <c r="B53" s="13" t="str">
-        <f>[1]攻守數據!Z54</f>
-        <v>火</v>
-      </c>
-      <c r="C53" s="13" t="str">
-        <f>[1]攻守數據!AA54</f>
-        <v>無</v>
+      <c r="A53" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D53" s="14">
-        <f>[1]攻守數據!AB54</f>
         <v>21.42</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="str">
-        <f>[1]攻守數據!Y55</f>
-        <v>太陽伊布</v>
-      </c>
-      <c r="B54" s="13" t="str">
-        <f>[1]攻守數據!Z55</f>
-        <v>超能力</v>
-      </c>
-      <c r="C54" s="13" t="str">
-        <f>[1]攻守數據!AA55</f>
-        <v>無</v>
+      <c r="A54" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D54" s="14">
-        <f>[1]攻守數據!AB55</f>
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="str">
-        <f>[1]攻守數據!Y56</f>
-        <v>月亮伊布</v>
-      </c>
-      <c r="B55" s="13" t="str">
-        <f>[1]攻守數據!Z56</f>
-        <v>惡</v>
-      </c>
-      <c r="C55" s="13" t="str">
-        <f>[1]攻守數據!AA56</f>
-        <v>無</v>
+      <c r="A55" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D55" s="14">
-        <f>[1]攻守數據!AB56</f>
         <v>36.764000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="str">
-        <f>[1]攻守數據!Y57</f>
-        <v>葉伊布</v>
-      </c>
-      <c r="B56" s="13" t="str">
-        <f>[1]攻守數據!Z57</f>
-        <v>草</v>
-      </c>
-      <c r="C56" s="13" t="str">
-        <f>[1]攻守數據!AA57</f>
-        <v>無</v>
+      <c r="A56" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D56" s="14">
-        <f>[1]攻守數據!AB57</f>
         <v>25.9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="str">
-        <f>[1]攻守數據!Y58</f>
-        <v>冰伊布</v>
-      </c>
-      <c r="B57" s="13" t="str">
-        <f>[1]攻守數據!Z58</f>
-        <v>冰</v>
-      </c>
-      <c r="C57" s="13" t="str">
-        <f>[1]攻守數據!AA58</f>
-        <v>無</v>
+      <c r="A57" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D57" s="14">
-        <f>[1]攻守數據!AB58</f>
         <v>24.36</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="str">
-        <f>[1]攻守數據!Y59</f>
-        <v>仙子伊布</v>
-      </c>
-      <c r="B58" s="13" t="str">
-        <f>[1]攻守數據!Z59</f>
-        <v>妖精</v>
-      </c>
-      <c r="C58" s="13" t="str">
-        <f>[1]攻守數據!AA59</f>
-        <v>無</v>
+      <c r="A58" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D58" s="14">
-        <f>[1]攻守數據!AB59</f>
         <v>31.486000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="str">
-        <f>[1]攻守數據!Y60</f>
-        <v>艾路雷朵</v>
-      </c>
-      <c r="B59" s="13" t="str">
-        <f>[1]攻守數據!Z60</f>
-        <v>超能力</v>
-      </c>
-      <c r="C59" s="13" t="str">
-        <f>[1]攻守數據!AA60</f>
-        <v>格鬥</v>
+      <c r="A59" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="D59" s="14">
-        <f>[1]攻守數據!AB60</f>
         <v>24.07</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="str">
-        <f>[1]攻守數據!Y61</f>
-        <v>烏賊王</v>
-      </c>
-      <c r="B60" s="13" t="str">
-        <f>[1]攻守數據!Z61</f>
-        <v>惡</v>
-      </c>
-      <c r="C60" s="13" t="str">
-        <f>[1]攻守數據!AA61</f>
-        <v>超能力</v>
+      <c r="A60" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D60" s="14">
-        <f>[1]攻守數據!AB61</f>
         <v>23.998000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="str">
-        <f>[1]攻守數據!Y62</f>
-        <v>心蝙蝠</v>
-      </c>
-      <c r="B61" s="13" t="str">
-        <f>[1]攻守數據!Z62</f>
-        <v>超能力</v>
-      </c>
-      <c r="C61" s="13" t="str">
-        <f>[1]攻守數據!AA62</f>
-        <v>飛行</v>
+      <c r="A61" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D61" s="14">
-        <f>[1]攻守數據!AB62</f>
         <v>15.157999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="str">
-        <f>[1]攻守數據!Y63</f>
-        <v>超極巨灰塵山</v>
-      </c>
-      <c r="B62" s="13" t="str">
-        <f>[1]攻守數據!Z63</f>
-        <v>毒</v>
-      </c>
-      <c r="C62" s="13" t="str">
-        <f>[1]攻守數據!AA63</f>
-        <v>無</v>
+      <c r="A62" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D62" s="14">
-        <f>[1]攻守數據!AB63</f>
         <v>22.4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="str">
-        <f>[1]攻守數據!Y64</f>
-        <v>洛奇亞</v>
-      </c>
-      <c r="B63" s="13" t="str">
-        <f>[1]攻守數據!Z64</f>
-        <v>超能力</v>
-      </c>
-      <c r="C63" s="13" t="str">
-        <f>[1]攻守數據!AA64</f>
-        <v>飛行</v>
+      <c r="A63" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="D63" s="14">
-        <f>[1]攻守數據!AB64</f>
         <v>50.628999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="str">
-        <f>[1]攻守數據!Y65</f>
-        <v>飛腿郎</v>
-      </c>
-      <c r="B64" s="13" t="str">
-        <f>[1]攻守數據!Z65</f>
-        <v>格鬥</v>
-      </c>
-      <c r="C64" s="13" t="str">
-        <f>[1]攻守數據!AA65</f>
-        <v>無</v>
+      <c r="A64" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="D64" s="16">
-        <f>[1]攻守數據!AB65</f>
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="str">
-        <f>IF([1]攻守數據!Y66 = "", "", [1]攻守數據!Y66)</f>
-        <v>快拳郎</v>
-      </c>
-      <c r="B65" s="15" t="str">
-        <f>IF([1]攻守數據!Z66 = "", "", [1]攻守數據!Z66)</f>
-        <v>格鬥</v>
-      </c>
-      <c r="C65" s="15" t="str">
-        <f>IF([1]攻守數據!AA66 = "", "", [1]攻守數據!AA66)</f>
-        <v>無</v>
+      <c r="A65" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D65" s="16">
-        <f>IF([1]攻守數據!AB66 = "", "", [1]攻守數據!AB66)</f>
         <v>20.16</v>
       </c>
     </row>

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC77AF0-E26E-463D-8BDC-17F839E17639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1096F08C-8D1E-4488-A722-541FE4C3B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>攻/守</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -119,255 +119,6 @@
   <si>
     <t>無</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏瑪然特</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>無極汰那</t>
-  </si>
-  <si>
-    <t>冰</t>
-  </si>
-  <si>
-    <t>拉帝歐斯</t>
-  </si>
-  <si>
-    <t>格鬥</t>
-  </si>
-  <si>
-    <t>多刺菊石獸</t>
-  </si>
-  <si>
-    <t>岩石</t>
-  </si>
-  <si>
-    <t>火</t>
-  </si>
-  <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>超能力</t>
-  </si>
-  <si>
-    <t>飛行</t>
-  </si>
-  <si>
-    <t>幸福蛋</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>鋼</t>
-  </si>
-  <si>
-    <t>卡比獸</t>
-  </si>
-  <si>
-    <t>水君</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>龍</t>
-  </si>
-  <si>
-    <t>毒</t>
-  </si>
-  <si>
-    <t>急凍鳥</t>
-  </si>
-  <si>
-    <t>拉普拉斯</t>
-  </si>
-  <si>
-    <t>拉帝亞斯</t>
-  </si>
-  <si>
-    <t>蒼響</t>
-  </si>
-  <si>
-    <t>妖精</t>
-  </si>
-  <si>
-    <t>巨金怪</t>
-  </si>
-  <si>
-    <t>炎帝</t>
-  </si>
-  <si>
-    <t>鋼鎧鴉</t>
-  </si>
-  <si>
-    <t>幾何雪花</t>
-  </si>
-  <si>
-    <t>藏飽栗鼠</t>
-  </si>
-  <si>
-    <t>雷公</t>
-  </si>
-  <si>
-    <t>電</t>
-  </si>
-  <si>
-    <t>武道熊師(連)</t>
-  </si>
-  <si>
-    <t>武道熊師(一)</t>
-  </si>
-  <si>
-    <t>惡</t>
-  </si>
-  <si>
-    <t>水箭龜</t>
-  </si>
-  <si>
-    <t>閃電鳥</t>
-  </si>
-  <si>
-    <t>轟擂金剛猩</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>火焰鳥</t>
-  </si>
-  <si>
-    <t>投擲猴</t>
-  </si>
-  <si>
-    <t>妙蛙花</t>
-  </si>
-  <si>
-    <t>毛毛角羊</t>
-  </si>
-  <si>
-    <t>壺壺</t>
-  </si>
-  <si>
-    <t>蟲</t>
-  </si>
-  <si>
-    <t>怪力</t>
-  </si>
-  <si>
-    <t>噴火龍</t>
-  </si>
-  <si>
-    <t>龍頭地鼠</t>
-  </si>
-  <si>
-    <t>灰塵山</t>
-  </si>
-  <si>
-    <t>閃焰王牌</t>
-  </si>
-  <si>
-    <t>吼鯨王</t>
-  </si>
-  <si>
-    <t>鐮刀盔</t>
-  </si>
-  <si>
-    <t>高傲雉雞</t>
-  </si>
-  <si>
-    <t>列陣兵</t>
-  </si>
-  <si>
-    <t>布莉姆溫</t>
-  </si>
-  <si>
-    <t>狒狒達摩</t>
-  </si>
-  <si>
-    <t>巨鉗蟹</t>
-  </si>
-  <si>
-    <t>戰弦蠑螈</t>
-  </si>
-  <si>
-    <t>千面避役</t>
-  </si>
-  <si>
-    <t>耿鬼</t>
-  </si>
-  <si>
-    <t>幽靈</t>
-  </si>
-  <si>
-    <t>巴大蝶</t>
-  </si>
-  <si>
-    <t>勾魂眼</t>
-  </si>
-  <si>
-    <t>胡地</t>
-  </si>
-  <si>
-    <t>鋁鋼龍</t>
-  </si>
-  <si>
-    <t>甜冷美后</t>
-  </si>
-  <si>
-    <t>沙奈朵</t>
-  </si>
-  <si>
-    <t>超級巨伊布</t>
-  </si>
-  <si>
-    <t>水伊布</t>
-  </si>
-  <si>
-    <t>雷伊布</t>
-  </si>
-  <si>
-    <t>火伊布</t>
-  </si>
-  <si>
-    <t>太陽伊布</t>
-  </si>
-  <si>
-    <t>月亮伊布</t>
-  </si>
-  <si>
-    <t>葉伊布</t>
-  </si>
-  <si>
-    <t>冰伊布</t>
-  </si>
-  <si>
-    <t>仙子伊布</t>
-  </si>
-  <si>
-    <t>艾路雷朵</t>
-  </si>
-  <si>
-    <t>烏賊王</t>
-  </si>
-  <si>
-    <t>心蝙蝠</t>
-  </si>
-  <si>
-    <t>超極巨灰塵山</t>
-  </si>
-  <si>
-    <t>洛奇亞</t>
-  </si>
-  <si>
-    <t>飛腿郎</t>
-  </si>
-  <si>
-    <t>快拳郎</t>
   </si>
 </sst>
 </file>
@@ -593,6 +344,902 @@
           </cell>
           <cell r="AB2" t="str">
             <v>基礎防禦</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="Y3" t="str">
+            <v>幸福蛋</v>
+          </cell>
+          <cell r="Z3" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA3" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB3">
+            <v>61.686</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="Y4" t="str">
+            <v>藏瑪然特</v>
+          </cell>
+          <cell r="Z4" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA4" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AB4">
+            <v>43.07</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="Y5" t="str">
+            <v>卡比獸</v>
+          </cell>
+          <cell r="Z5" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA5" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB5">
+            <v>33.768000000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="Y6" t="str">
+            <v>水君</v>
+          </cell>
+          <cell r="Z6" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA6" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB6">
+            <v>34.58</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Y7" t="str">
+            <v>無極汰那</v>
+          </cell>
+          <cell r="Z7" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AA7" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB7">
+            <v>35.802</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="Y8" t="str">
+            <v>急凍鳥</v>
+          </cell>
+          <cell r="Z8" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AA8" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB8">
+            <v>30.504000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="Y9" t="str">
+            <v>拉普拉斯</v>
+          </cell>
+          <cell r="Z9" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA9" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AB9">
+            <v>33.81</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="Y10" t="str">
+            <v>拉帝亞斯</v>
+          </cell>
+          <cell r="Z10" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AA10" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB10">
+            <v>22.308</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="Y11" t="str">
+            <v>蒼響</v>
+          </cell>
+          <cell r="Z11" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA11" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AB11">
+            <v>36.848999999999997</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="Y12" t="str">
+            <v>拉帝歐斯</v>
+          </cell>
+          <cell r="Z12" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AA12" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB12">
+            <v>27.808</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="Y13" t="str">
+            <v>巨金怪</v>
+          </cell>
+          <cell r="Z13" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA13" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB13">
+            <v>30.428999999999998</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="Y14" t="str">
+            <v>炎帝</v>
+          </cell>
+          <cell r="Z14" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA14" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB14">
+            <v>23.552</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="Y15" t="str">
+            <v>鋼鎧鴉</v>
+          </cell>
+          <cell r="Z15" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA15" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB15">
+            <v>31.35</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="Y16" t="str">
+            <v>幾何雪花</v>
+          </cell>
+          <cell r="Z16" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AA16" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB16">
+            <v>26.295999999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="Y17" t="str">
+            <v>藏飽栗鼠</v>
+          </cell>
+          <cell r="Z17" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA17" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB17">
+            <v>29.295000000000002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="Y18" t="str">
+            <v>雷公</v>
+          </cell>
+          <cell r="Z18" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA18" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB18">
+            <v>27.37</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="Y19" t="str">
+            <v>武道熊師(連)</v>
+          </cell>
+          <cell r="Z19" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA19" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AB19">
+            <v>28.2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="Y20" t="str">
+            <v>武道熊師(一)</v>
+          </cell>
+          <cell r="Z20" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA20" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AB20">
+            <v>28.2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="Y21" t="str">
+            <v>水箭龜</v>
+          </cell>
+          <cell r="Z21" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA21" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB21">
+            <v>27.824999999999999</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="Y22" t="str">
+            <v>閃電鳥</v>
+          </cell>
+          <cell r="Z22" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA22" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB22">
+            <v>25.367999999999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="Y23" t="str">
+            <v>轟擂金剛猩</v>
+          </cell>
+          <cell r="Z23" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA23" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB23">
+            <v>27.027000000000001</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="Y24" t="str">
+            <v>火焰鳥</v>
+          </cell>
+          <cell r="Z24" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA24" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB24">
+            <v>23.797999999999998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="Y25" t="str">
+            <v>投擲猴</v>
+          </cell>
+          <cell r="Z25" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA25" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB25">
+            <v>24.103999999999999</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="Y26" t="str">
+            <v>妙蛙花</v>
+          </cell>
+          <cell r="Z26" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA26" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB26">
+            <v>23.712</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="Y27" t="str">
+            <v>毛毛角羊</v>
+          </cell>
+          <cell r="Z27" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA27" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB27">
+            <v>24.882999999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="Y28" t="str">
+            <v>多刺菊石獸</v>
+          </cell>
+          <cell r="Z28" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AA28" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AB28">
+            <v>25.456</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="Y29" t="str">
+            <v>壺壺</v>
+          </cell>
+          <cell r="Z29" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AA29" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AB29">
+            <v>33.659999999999997</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="Y30" t="str">
+            <v>怪力</v>
+          </cell>
+          <cell r="Z30" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA30" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB30">
+            <v>25.38</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="Y31" t="str">
+            <v>噴火龍</v>
+          </cell>
+          <cell r="Z31" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA31" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB31">
+            <v>22.62</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="Y32" t="str">
+            <v>龍頭地鼠</v>
+          </cell>
+          <cell r="Z32" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AA32" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AB32">
+            <v>23.69</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="Y33" t="str">
+            <v>灰塵山</v>
+          </cell>
+          <cell r="Z33" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AA33" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB33">
+            <v>22.68</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="Y34" t="str">
+            <v>閃焰王牌</v>
+          </cell>
+          <cell r="Z34" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA34" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB34">
+            <v>24.36</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="Y35" t="str">
+            <v>吼鯨王</v>
+          </cell>
+          <cell r="Z35" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA35" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB35">
+            <v>22.88</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="Y36" t="str">
+            <v>鐮刀盔</v>
+          </cell>
+          <cell r="Z36" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA36" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AB36">
+            <v>21.172000000000001</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Y37" t="str">
+            <v>高傲雉雞</v>
+          </cell>
+          <cell r="Z37" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA37" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB37">
+            <v>20.32</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="Y38" t="str">
+            <v>列陣兵</v>
+          </cell>
+          <cell r="Z38" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA38" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB38">
+            <v>19.591000000000001</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="Y39" t="str">
+            <v>布莉姆溫</v>
+          </cell>
+          <cell r="Z39" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AA39" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB39">
+            <v>19.84</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="Y40" t="str">
+            <v>狒狒達摩</v>
+          </cell>
+          <cell r="Z40" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA40" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB40">
+            <v>19.3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="Y41" t="str">
+            <v>巨鉗蟹</v>
+          </cell>
+          <cell r="Z41" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA41" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB41">
+            <v>19.431000000000001</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="Y42" t="str">
+            <v>戰弦蠑螈</v>
+          </cell>
+          <cell r="Z42" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA42" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB42">
+            <v>18.634</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="Y43" t="str">
+            <v>千面避役</v>
+          </cell>
+          <cell r="Z43" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA43" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB43">
+            <v>18.081</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="Y44" t="str">
+            <v>耿鬼</v>
+          </cell>
+          <cell r="Z44" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AA44" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AB44">
+            <v>18.224</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Y45" t="str">
+            <v>巴大蝶</v>
+          </cell>
+          <cell r="Z45" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AA45" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB45">
+            <v>15.827</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="Y46" t="str">
+            <v>勾魂眼</v>
+          </cell>
+          <cell r="Z46" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AA46" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AB46">
+            <v>13.688000000000001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="Y47" t="str">
+            <v>胡地</v>
+          </cell>
+          <cell r="Z47" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA47" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB47">
+            <v>18.288</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="Y48" t="str">
+            <v>鋁鋼龍</v>
+          </cell>
+          <cell r="Z48" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AA48" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AB48">
+            <v>23.225999999999999</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="Y49" t="str">
+            <v>甜冷美后</v>
+          </cell>
+          <cell r="Z49" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA49" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB49">
+            <v>24.9</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="Y50" t="str">
+            <v>沙奈朵</v>
+          </cell>
+          <cell r="Z50" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA50" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AB50">
+            <v>24.07</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="Y51" t="str">
+            <v>超級巨伊布</v>
+          </cell>
+          <cell r="Z51" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AA51" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB51">
+            <v>12.954000000000001</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="Y52" t="str">
+            <v>水伊布</v>
+          </cell>
+          <cell r="Z52" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA52" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB52">
+            <v>31.97</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="Y53" t="str">
+            <v>雷伊布</v>
+          </cell>
+          <cell r="Z53" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AA53" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB53">
+            <v>21.84</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="Y54" t="str">
+            <v>火伊布</v>
+          </cell>
+          <cell r="Z54" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AA54" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB54">
+            <v>21.42</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="Y55" t="str">
+            <v>太陽伊布</v>
+          </cell>
+          <cell r="Z55" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA55" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB55">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="Y56" t="str">
+            <v>月亮伊布</v>
+          </cell>
+          <cell r="Z56" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AA56" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB56">
+            <v>36.764000000000003</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="Y57" t="str">
+            <v>葉伊布</v>
+          </cell>
+          <cell r="Z57" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AA57" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB57">
+            <v>25.9</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="Y58" t="str">
+            <v>冰伊布</v>
+          </cell>
+          <cell r="Z58" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AA58" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB58">
+            <v>24.36</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="Y59" t="str">
+            <v>仙子伊布</v>
+          </cell>
+          <cell r="Z59" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AA59" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB59">
+            <v>31.486000000000001</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="Y60" t="str">
+            <v>艾路雷朵</v>
+          </cell>
+          <cell r="Z60" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA60" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AB60">
+            <v>24.07</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="Y61" t="str">
+            <v>烏賊王</v>
+          </cell>
+          <cell r="Z61" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AA61" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AB61">
+            <v>23.998000000000001</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="Y62" t="str">
+            <v>心蝙蝠</v>
+          </cell>
+          <cell r="Z62" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA62" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB62">
+            <v>15.157999999999999</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="Y63" t="str">
+            <v>超極巨灰塵山</v>
+          </cell>
+          <cell r="Z63" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AA63" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB63">
+            <v>22.4</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="Y64" t="str">
+            <v>洛奇亞</v>
+          </cell>
+          <cell r="Z64" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AA64" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AB64">
+            <v>50.628999999999998</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="Y65" t="str">
+            <v>飛腿郎</v>
+          </cell>
+          <cell r="Z65" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA65" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB65">
+            <v>18.600000000000001</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="Y66" t="str">
+            <v>快拳郎</v>
+          </cell>
+          <cell r="Z66" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AA66" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB66">
+            <v>20.16</v>
           </cell>
         </row>
       </sheetData>
@@ -870,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -960,16 +1607,20 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>21</v>
+      <c r="A2" s="13" t="str">
+        <f>[1]攻守數據!Y3</f>
+        <v>幸福蛋</v>
+      </c>
+      <c r="B2" s="13" t="str">
+        <f>[1]攻守數據!Z3</f>
+        <v>一般</v>
+      </c>
+      <c r="C2" s="13" t="str">
+        <f>[1]攻守數據!AA3</f>
+        <v>無</v>
       </c>
       <c r="D2" s="14">
+        <f>[1]攻守數據!AB3</f>
         <v>61.686</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1034,16 +1685,20 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>25</v>
+      <c r="A3" s="13" t="str">
+        <f>[1]攻守數據!Y4</f>
+        <v>藏瑪然特</v>
+      </c>
+      <c r="B3" s="13" t="str">
+        <f>[1]攻守數據!Z4</f>
+        <v>鋼</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <f>[1]攻守數據!AA4</f>
+        <v>格鬥</v>
       </c>
       <c r="D3" s="14">
+        <f>[1]攻守數據!AB4</f>
         <v>43.07</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1108,16 +1763,20 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
+      <c r="A4" s="13" t="str">
+        <f>[1]攻守數據!Y5</f>
+        <v>卡比獸</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <f>[1]攻守數據!Z5</f>
+        <v>一般</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <f>[1]攻守數據!AA5</f>
+        <v>無</v>
       </c>
       <c r="D4" s="14">
+        <f>[1]攻守數據!AB5</f>
         <v>33.768000000000001</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1182,16 +1841,20 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>21</v>
+      <c r="A5" s="13" t="str">
+        <f>[1]攻守數據!Y6</f>
+        <v>水君</v>
+      </c>
+      <c r="B5" s="13" t="str">
+        <f>[1]攻守數據!Z6</f>
+        <v>水</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <f>[1]攻守數據!AA6</f>
+        <v>無</v>
       </c>
       <c r="D5" s="14">
+        <f>[1]攻守數據!AB6</f>
         <v>34.58</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1256,16 +1919,20 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>39</v>
+      <c r="A6" s="13" t="str">
+        <f>[1]攻守數據!Y7</f>
+        <v>無極汰那</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <f>[1]攻守數據!Z7</f>
+        <v>龍</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <f>[1]攻守數據!AA7</f>
+        <v>毒</v>
       </c>
       <c r="D6" s="14">
+        <f>[1]攻守數據!AB7</f>
         <v>35.802</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1330,16 +1997,20 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
+      <c r="A7" s="13" t="str">
+        <f>[1]攻守數據!Y8</f>
+        <v>急凍鳥</v>
+      </c>
+      <c r="B7" s="13" t="str">
+        <f>[1]攻守數據!Z8</f>
+        <v>冰</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <f>[1]攻守數據!AA8</f>
+        <v>飛行</v>
       </c>
       <c r="D7" s="14">
+        <f>[1]攻守數據!AB8</f>
         <v>30.504000000000001</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1404,16 +2075,20 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>23</v>
+      <c r="A8" s="13" t="str">
+        <f>[1]攻守數據!Y9</f>
+        <v>拉普拉斯</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <f>[1]攻守數據!Z9</f>
+        <v>水</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <f>[1]攻守數據!AA9</f>
+        <v>冰</v>
       </c>
       <c r="D8" s="14">
+        <f>[1]攻守數據!AB9</f>
         <v>33.81</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1478,16 +2153,20 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
+      <c r="A9" s="13" t="str">
+        <f>[1]攻守數據!Y10</f>
+        <v>拉帝亞斯</v>
+      </c>
+      <c r="B9" s="13" t="str">
+        <f>[1]攻守數據!Z10</f>
+        <v>龍</v>
+      </c>
+      <c r="C9" s="13" t="str">
+        <f>[1]攻守數據!AA10</f>
+        <v>超能力</v>
       </c>
       <c r="D9" s="14">
+        <f>[1]攻守數據!AB10</f>
         <v>22.308</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1552,16 +2231,20 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>44</v>
+      <c r="A10" s="13" t="str">
+        <f>[1]攻守數據!Y11</f>
+        <v>蒼響</v>
+      </c>
+      <c r="B10" s="13" t="str">
+        <f>[1]攻守數據!Z11</f>
+        <v>鋼</v>
+      </c>
+      <c r="C10" s="13" t="str">
+        <f>[1]攻守數據!AA11</f>
+        <v>妖精</v>
       </c>
       <c r="D10" s="14">
+        <f>[1]攻守數據!AB11</f>
         <v>36.848999999999997</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1626,16 +2309,20 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
+      <c r="A11" s="13" t="str">
+        <f>[1]攻守數據!Y12</f>
+        <v>拉帝歐斯</v>
+      </c>
+      <c r="B11" s="13" t="str">
+        <f>[1]攻守數據!Z12</f>
+        <v>龍</v>
+      </c>
+      <c r="C11" s="13" t="str">
+        <f>[1]攻守數據!AA12</f>
+        <v>超能力</v>
       </c>
       <c r="D11" s="14">
+        <f>[1]攻守數據!AB12</f>
         <v>27.808</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1700,16 +2387,20 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>30</v>
+      <c r="A12" s="13" t="str">
+        <f>[1]攻守數據!Y13</f>
+        <v>巨金怪</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f>[1]攻守數據!Z13</f>
+        <v>鋼</v>
+      </c>
+      <c r="C12" s="13" t="str">
+        <f>[1]攻守數據!AA13</f>
+        <v>超能力</v>
       </c>
       <c r="D12" s="14">
+        <f>[1]攻守數據!AB13</f>
         <v>30.428999999999998</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1774,16 +2465,20 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>21</v>
+      <c r="A13" s="13" t="str">
+        <f>[1]攻守數據!Y14</f>
+        <v>炎帝</v>
+      </c>
+      <c r="B13" s="13" t="str">
+        <f>[1]攻守數據!Z14</f>
+        <v>火</v>
+      </c>
+      <c r="C13" s="13" t="str">
+        <f>[1]攻守數據!AA14</f>
+        <v>無</v>
       </c>
       <c r="D13" s="14">
+        <f>[1]攻守數據!AB14</f>
         <v>23.552</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1848,16 +2543,20 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
+      <c r="A14" s="13" t="str">
+        <f>[1]攻守數據!Y15</f>
+        <v>鋼鎧鴉</v>
+      </c>
+      <c r="B14" s="13" t="str">
+        <f>[1]攻守數據!Z15</f>
+        <v>鋼</v>
+      </c>
+      <c r="C14" s="13" t="str">
+        <f>[1]攻守數據!AA15</f>
+        <v>飛行</v>
       </c>
       <c r="D14" s="14">
+        <f>[1]攻守數據!AB15</f>
         <v>31.35</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1922,16 +2621,20 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>21</v>
+      <c r="A15" s="13" t="str">
+        <f>[1]攻守數據!Y16</f>
+        <v>幾何雪花</v>
+      </c>
+      <c r="B15" s="13" t="str">
+        <f>[1]攻守數據!Z16</f>
+        <v>冰</v>
+      </c>
+      <c r="C15" s="13" t="str">
+        <f>[1]攻守數據!AA16</f>
+        <v>無</v>
       </c>
       <c r="D15" s="14">
+        <f>[1]攻守數據!AB16</f>
         <v>26.295999999999999</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1996,16 +2699,20 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>21</v>
+      <c r="A16" s="13" t="str">
+        <f>[1]攻守數據!Y17</f>
+        <v>藏飽栗鼠</v>
+      </c>
+      <c r="B16" s="13" t="str">
+        <f>[1]攻守數據!Z17</f>
+        <v>一般</v>
+      </c>
+      <c r="C16" s="13" t="str">
+        <f>[1]攻守數據!AA17</f>
+        <v>無</v>
       </c>
       <c r="D16" s="14">
+        <f>[1]攻守數據!AB17</f>
         <v>29.295000000000002</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -2070,16 +2777,20 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
+      <c r="A17" s="13" t="str">
+        <f>[1]攻守數據!Y18</f>
+        <v>雷公</v>
+      </c>
+      <c r="B17" s="13" t="str">
+        <f>[1]攻守數據!Z18</f>
+        <v>電</v>
+      </c>
+      <c r="C17" s="13" t="str">
+        <f>[1]攻守數據!AA18</f>
+        <v>無</v>
       </c>
       <c r="D17" s="14">
+        <f>[1]攻守數據!AB18</f>
         <v>27.37</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -2144,16 +2855,20 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>37</v>
+      <c r="A18" s="13" t="str">
+        <f>[1]攻守數據!Y19</f>
+        <v>武道熊師(連)</v>
+      </c>
+      <c r="B18" s="13" t="str">
+        <f>[1]攻守數據!Z19</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C18" s="13" t="str">
+        <f>[1]攻守數據!AA19</f>
+        <v>水</v>
       </c>
       <c r="D18" s="14">
+        <f>[1]攻守數據!AB19</f>
         <v>28.2</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -2218,16 +2933,20 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>54</v>
+      <c r="A19" s="13" t="str">
+        <f>[1]攻守數據!Y20</f>
+        <v>武道熊師(一)</v>
+      </c>
+      <c r="B19" s="13" t="str">
+        <f>[1]攻守數據!Z20</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C19" s="13" t="str">
+        <f>[1]攻守數據!AA20</f>
+        <v>惡</v>
       </c>
       <c r="D19" s="14">
+        <f>[1]攻守數據!AB20</f>
         <v>28.2</v>
       </c>
       <c r="F19" s="9" t="s">
@@ -2292,16 +3011,20 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>21</v>
+      <c r="A20" s="13" t="str">
+        <f>[1]攻守數據!Y21</f>
+        <v>水箭龜</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f>[1]攻守數據!Z21</f>
+        <v>水</v>
+      </c>
+      <c r="C20" s="13" t="str">
+        <f>[1]攻守數據!AA21</f>
+        <v>無</v>
       </c>
       <c r="D20" s="14">
+        <f>[1]攻守數據!AB21</f>
         <v>27.824999999999999</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2366,632 +3089,812 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
+      <c r="A21" s="13" t="str">
+        <f>[1]攻守數據!Y22</f>
+        <v>閃電鳥</v>
+      </c>
+      <c r="B21" s="13" t="str">
+        <f>[1]攻守數據!Z22</f>
+        <v>電</v>
+      </c>
+      <c r="C21" s="13" t="str">
+        <f>[1]攻守數據!AA22</f>
+        <v>飛行</v>
       </c>
       <c r="D21" s="14">
+        <f>[1]攻守數據!AB22</f>
         <v>25.367999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="13" t="str">
+        <f>[1]攻守數據!Y23</f>
+        <v>轟擂金剛猩</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f>[1]攻守數據!Z23</f>
+        <v>草</v>
+      </c>
+      <c r="C22" s="13" t="str">
+        <f>[1]攻守數據!AA23</f>
+        <v>無</v>
+      </c>
+      <c r="D22" s="14">
+        <f>[1]攻守數據!AB23</f>
+        <v>27.027000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="str">
+        <f>[1]攻守數據!Y24</f>
+        <v>火焰鳥</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f>[1]攻守數據!Z24</f>
+        <v>火</v>
+      </c>
+      <c r="C23" s="13" t="str">
+        <f>[1]攻守數據!AA24</f>
+        <v>飛行</v>
+      </c>
+      <c r="D23" s="14">
+        <f>[1]攻守數據!AB24</f>
+        <v>23.797999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="str">
+        <f>[1]攻守數據!Y25</f>
+        <v>投擲猴</v>
+      </c>
+      <c r="B24" s="13" t="str">
+        <f>[1]攻守數據!Z25</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C24" s="13" t="str">
+        <f>[1]攻守數據!AA25</f>
+        <v>無</v>
+      </c>
+      <c r="D24" s="14">
+        <f>[1]攻守數據!AB25</f>
+        <v>24.103999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="str">
+        <f>[1]攻守數據!Y26</f>
+        <v>妙蛙花</v>
+      </c>
+      <c r="B25" s="13" t="str">
+        <f>[1]攻守數據!Z26</f>
+        <v>草</v>
+      </c>
+      <c r="C25" s="13" t="str">
+        <f>[1]攻守數據!AA26</f>
+        <v>毒</v>
+      </c>
+      <c r="D25" s="14">
+        <f>[1]攻守數據!AB26</f>
+        <v>23.712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="str">
+        <f>[1]攻守數據!Y27</f>
+        <v>毛毛角羊</v>
+      </c>
+      <c r="B26" s="13" t="str">
+        <f>[1]攻守數據!Z27</f>
+        <v>一般</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>[1]攻守數據!AA27</f>
+        <v>無</v>
+      </c>
+      <c r="D26" s="14">
+        <f>[1]攻守數據!AB27</f>
+        <v>24.882999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="str">
+        <f>[1]攻守數據!Y28</f>
+        <v>多刺菊石獸</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f>[1]攻守數據!Z28</f>
+        <v>岩石</v>
+      </c>
+      <c r="C27" s="13" t="str">
+        <f>[1]攻守數據!AA28</f>
+        <v>水</v>
+      </c>
+      <c r="D27" s="14">
+        <f>[1]攻守數據!AB28</f>
+        <v>25.456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="str">
+        <f>[1]攻守數據!Y29</f>
+        <v>壺壺</v>
+      </c>
+      <c r="B28" s="13" t="str">
+        <f>[1]攻守數據!Z29</f>
+        <v>岩石</v>
+      </c>
+      <c r="C28" s="13" t="str">
+        <f>[1]攻守數據!AA29</f>
+        <v>蟲</v>
+      </c>
+      <c r="D28" s="14">
+        <f>[1]攻守數據!AB29</f>
+        <v>33.659999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="str">
+        <f>[1]攻守數據!Y30</f>
+        <v>怪力</v>
+      </c>
+      <c r="B29" s="13" t="str">
+        <f>[1]攻守數據!Z30</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C29" s="13" t="str">
+        <f>[1]攻守數據!AA30</f>
+        <v>無</v>
+      </c>
+      <c r="D29" s="14">
+        <f>[1]攻守數據!AB30</f>
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="str">
+        <f>[1]攻守數據!Y31</f>
+        <v>噴火龍</v>
+      </c>
+      <c r="B30" s="13" t="str">
+        <f>[1]攻守數據!Z31</f>
+        <v>火</v>
+      </c>
+      <c r="C30" s="13" t="str">
+        <f>[1]攻守數據!AA31</f>
+        <v>飛行</v>
+      </c>
+      <c r="D30" s="14">
+        <f>[1]攻守數據!AB31</f>
+        <v>22.62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="str">
+        <f>[1]攻守數據!Y32</f>
+        <v>龍頭地鼠</v>
+      </c>
+      <c r="B31" s="13" t="str">
+        <f>[1]攻守數據!Z32</f>
+        <v>地面</v>
+      </c>
+      <c r="C31" s="13" t="str">
+        <f>[1]攻守數據!AA32</f>
+        <v>鋼</v>
+      </c>
+      <c r="D31" s="14">
+        <f>[1]攻守數據!AB32</f>
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="str">
+        <f>[1]攻守數據!Y33</f>
+        <v>灰塵山</v>
+      </c>
+      <c r="B32" s="13" t="str">
+        <f>[1]攻守數據!Z33</f>
+        <v>毒</v>
+      </c>
+      <c r="C32" s="13" t="str">
+        <f>[1]攻守數據!AA33</f>
+        <v>無</v>
+      </c>
+      <c r="D32" s="14">
+        <f>[1]攻守數據!AB33</f>
+        <v>22.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="str">
+        <f>[1]攻守數據!Y34</f>
+        <v>閃焰王牌</v>
+      </c>
+      <c r="B33" s="13" t="str">
+        <f>[1]攻守數據!Z34</f>
+        <v>火</v>
+      </c>
+      <c r="C33" s="13" t="str">
+        <f>[1]攻守數據!AA34</f>
+        <v>無</v>
+      </c>
+      <c r="D33" s="14">
+        <f>[1]攻守數據!AB34</f>
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="str">
+        <f>[1]攻守數據!Y35</f>
+        <v>吼鯨王</v>
+      </c>
+      <c r="B34" s="13" t="str">
+        <f>[1]攻守數據!Z35</f>
+        <v>水</v>
+      </c>
+      <c r="C34" s="13" t="str">
+        <f>[1]攻守數據!AA35</f>
+        <v>無</v>
+      </c>
+      <c r="D34" s="14">
+        <f>[1]攻守數據!AB35</f>
+        <v>22.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="str">
+        <f>[1]攻守數據!Y36</f>
+        <v>鐮刀盔</v>
+      </c>
+      <c r="B35" s="13" t="str">
+        <f>[1]攻守數據!Z36</f>
+        <v>水</v>
+      </c>
+      <c r="C35" s="13" t="str">
+        <f>[1]攻守數據!AA36</f>
+        <v>岩石</v>
+      </c>
+      <c r="D35" s="14">
+        <f>[1]攻守數據!AB36</f>
+        <v>21.172000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="str">
+        <f>[1]攻守數據!Y37</f>
+        <v>高傲雉雞</v>
+      </c>
+      <c r="B36" s="13" t="str">
+        <f>[1]攻守數據!Z37</f>
+        <v>一般</v>
+      </c>
+      <c r="C36" s="13" t="str">
+        <f>[1]攻守數據!AA37</f>
+        <v>飛行</v>
+      </c>
+      <c r="D36" s="14">
+        <f>[1]攻守數據!AB37</f>
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="str">
+        <f>[1]攻守數據!Y38</f>
+        <v>列陣兵</v>
+      </c>
+      <c r="B37" s="13" t="str">
+        <f>[1]攻守數據!Z38</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C37" s="13" t="str">
+        <f>[1]攻守數據!AA38</f>
+        <v>無</v>
+      </c>
+      <c r="D37" s="14">
+        <f>[1]攻守數據!AB38</f>
+        <v>19.591000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="str">
+        <f>[1]攻守數據!Y39</f>
+        <v>布莉姆溫</v>
+      </c>
+      <c r="B38" s="13" t="str">
+        <f>[1]攻守數據!Z39</f>
+        <v>妖精</v>
+      </c>
+      <c r="C38" s="13" t="str">
+        <f>[1]攻守數據!AA39</f>
+        <v>超能力</v>
+      </c>
+      <c r="D38" s="14">
+        <f>[1]攻守數據!AB39</f>
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="str">
+        <f>[1]攻守數據!Y40</f>
+        <v>狒狒達摩</v>
+      </c>
+      <c r="B39" s="13" t="str">
+        <f>[1]攻守數據!Z40</f>
+        <v>火</v>
+      </c>
+      <c r="C39" s="13" t="str">
+        <f>[1]攻守數據!AA40</f>
+        <v>無</v>
+      </c>
+      <c r="D39" s="14">
+        <f>[1]攻守數據!AB40</f>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="str">
+        <f>[1]攻守數據!Y41</f>
+        <v>巨鉗蟹</v>
+      </c>
+      <c r="B40" s="13" t="str">
+        <f>[1]攻守數據!Z41</f>
+        <v>水</v>
+      </c>
+      <c r="C40" s="13" t="str">
+        <f>[1]攻守數據!AA41</f>
+        <v>無</v>
+      </c>
+      <c r="D40" s="14">
+        <f>[1]攻守數據!AB41</f>
+        <v>19.431000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="str">
+        <f>[1]攻守數據!Y42</f>
+        <v>戰弦蠑螈</v>
+      </c>
+      <c r="B41" s="13" t="str">
+        <f>[1]攻守數據!Z42</f>
+        <v>電</v>
+      </c>
+      <c r="C41" s="13" t="str">
+        <f>[1]攻守數據!AA42</f>
+        <v>毒</v>
+      </c>
+      <c r="D41" s="14">
+        <f>[1]攻守數據!AB42</f>
+        <v>18.634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="str">
+        <f>[1]攻守數據!Y43</f>
+        <v>千面避役</v>
+      </c>
+      <c r="B42" s="13" t="str">
+        <f>[1]攻守數據!Z43</f>
+        <v>水</v>
+      </c>
+      <c r="C42" s="13" t="str">
+        <f>[1]攻守數據!AA43</f>
+        <v>無</v>
+      </c>
+      <c r="D42" s="14">
+        <f>[1]攻守數據!AB43</f>
+        <v>18.081</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="str">
+        <f>[1]攻守數據!Y44</f>
+        <v>耿鬼</v>
+      </c>
+      <c r="B43" s="13" t="str">
+        <f>[1]攻守數據!Z44</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C43" s="13" t="str">
+        <f>[1]攻守數據!AA44</f>
+        <v>毒</v>
+      </c>
+      <c r="D43" s="14">
+        <f>[1]攻守數據!AB44</f>
+        <v>18.224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="str">
+        <f>[1]攻守數據!Y45</f>
+        <v>巴大蝶</v>
+      </c>
+      <c r="B44" s="13" t="str">
+        <f>[1]攻守數據!Z45</f>
+        <v>蟲</v>
+      </c>
+      <c r="C44" s="13" t="str">
+        <f>[1]攻守數據!AA45</f>
+        <v>飛行</v>
+      </c>
+      <c r="D44" s="14">
+        <f>[1]攻守數據!AB45</f>
+        <v>15.827</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="str">
+        <f>[1]攻守數據!Y46</f>
+        <v>勾魂眼</v>
+      </c>
+      <c r="B45" s="13" t="str">
+        <f>[1]攻守數據!Z46</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C45" s="13" t="str">
+        <f>[1]攻守數據!AA46</f>
+        <v>惡</v>
+      </c>
+      <c r="D45" s="14">
+        <f>[1]攻守數據!AB46</f>
+        <v>13.688000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="str">
+        <f>[1]攻守數據!Y47</f>
+        <v>胡地</v>
+      </c>
+      <c r="B46" s="13" t="str">
+        <f>[1]攻守數據!Z47</f>
+        <v>超能力</v>
+      </c>
+      <c r="C46" s="13" t="str">
+        <f>[1]攻守數據!AA47</f>
+        <v>無</v>
+      </c>
+      <c r="D46" s="14">
+        <f>[1]攻守數據!AB47</f>
+        <v>18.288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="str">
+        <f>[1]攻守數據!Y48</f>
+        <v>鋁鋼龍</v>
+      </c>
+      <c r="B47" s="13" t="str">
+        <f>[1]攻守數據!Z48</f>
+        <v>鋼</v>
+      </c>
+      <c r="C47" s="13" t="str">
+        <f>[1]攻守數據!AA48</f>
+        <v>龍</v>
+      </c>
+      <c r="D47" s="14">
+        <f>[1]攻守數據!AB48</f>
+        <v>23.225999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="str">
+        <f>[1]攻守數據!Y49</f>
+        <v>甜冷美后</v>
+      </c>
+      <c r="B48" s="13" t="str">
+        <f>[1]攻守數據!Z49</f>
+        <v>草</v>
+      </c>
+      <c r="C48" s="13" t="str">
+        <f>[1]攻守數據!AA49</f>
+        <v>無</v>
+      </c>
+      <c r="D48" s="14">
+        <f>[1]攻守數據!AB49</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="str">
+        <f>[1]攻守數據!Y50</f>
+        <v>沙奈朵</v>
+      </c>
+      <c r="B49" s="13" t="str">
+        <f>[1]攻守數據!Z50</f>
+        <v>超能力</v>
+      </c>
+      <c r="C49" s="13" t="str">
+        <f>[1]攻守數據!AA50</f>
+        <v>妖精</v>
+      </c>
+      <c r="D49" s="14">
+        <f>[1]攻守數據!AB50</f>
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="str">
+        <f>[1]攻守數據!Y51</f>
+        <v>超級巨伊布</v>
+      </c>
+      <c r="B50" s="13" t="str">
+        <f>[1]攻守數據!Z51</f>
+        <v>一般</v>
+      </c>
+      <c r="C50" s="13" t="str">
+        <f>[1]攻守數據!AA51</f>
+        <v>無</v>
+      </c>
+      <c r="D50" s="14">
+        <f>[1]攻守數據!AB51</f>
+        <v>12.954000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="str">
+        <f>[1]攻守數據!Y52</f>
+        <v>水伊布</v>
+      </c>
+      <c r="B51" s="13" t="str">
+        <f>[1]攻守數據!Z52</f>
+        <v>水</v>
+      </c>
+      <c r="C51" s="13" t="str">
+        <f>[1]攻守數據!AA52</f>
+        <v>無</v>
+      </c>
+      <c r="D51" s="14">
+        <f>[1]攻守數據!AB52</f>
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="str">
+        <f>[1]攻守數據!Y53</f>
+        <v>雷伊布</v>
+      </c>
+      <c r="B52" s="13" t="str">
+        <f>[1]攻守數據!Z53</f>
+        <v>電</v>
+      </c>
+      <c r="C52" s="13" t="str">
+        <f>[1]攻守數據!AA53</f>
+        <v>無</v>
+      </c>
+      <c r="D52" s="14">
+        <f>[1]攻守數據!AB53</f>
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="str">
+        <f>[1]攻守數據!Y54</f>
+        <v>火伊布</v>
+      </c>
+      <c r="B53" s="13" t="str">
+        <f>[1]攻守數據!Z54</f>
+        <v>火</v>
+      </c>
+      <c r="C53" s="13" t="str">
+        <f>[1]攻守數據!AA54</f>
+        <v>無</v>
+      </c>
+      <c r="D53" s="14">
+        <f>[1]攻守數據!AB54</f>
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="str">
+        <f>[1]攻守數據!Y55</f>
+        <v>太陽伊布</v>
+      </c>
+      <c r="B54" s="13" t="str">
+        <f>[1]攻守數據!Z55</f>
+        <v>超能力</v>
+      </c>
+      <c r="C54" s="13" t="str">
+        <f>[1]攻守數據!AA55</f>
+        <v>無</v>
+      </c>
+      <c r="D54" s="14">
+        <f>[1]攻守數據!AB55</f>
         <v>21</v>
       </c>
-      <c r="D22" s="14">
-        <v>27.027000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="14">
-        <v>23.797999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="14">
-        <v>24.103999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="14">
-        <v>23.712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="14">
-        <v>24.882999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="14">
-        <v>25.456</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="14">
-        <v>33.659999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="14">
-        <v>25.38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="14">
-        <v>22.62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="14">
-        <v>23.69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="14">
-        <v>22.68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="14">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="str">
+        <f>[1]攻守數據!Y56</f>
+        <v>月亮伊布</v>
+      </c>
+      <c r="B55" s="13" t="str">
+        <f>[1]攻守數據!Z56</f>
+        <v>惡</v>
+      </c>
+      <c r="C55" s="13" t="str">
+        <f>[1]攻守數據!AA56</f>
+        <v>無</v>
+      </c>
+      <c r="D55" s="14">
+        <f>[1]攻守數據!AB56</f>
+        <v>36.764000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="str">
+        <f>[1]攻守數據!Y57</f>
+        <v>葉伊布</v>
+      </c>
+      <c r="B56" s="13" t="str">
+        <f>[1]攻守數據!Z57</f>
+        <v>草</v>
+      </c>
+      <c r="C56" s="13" t="str">
+        <f>[1]攻守數據!AA57</f>
+        <v>無</v>
+      </c>
+      <c r="D56" s="14">
+        <f>[1]攻守數據!AB57</f>
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="str">
+        <f>[1]攻守數據!Y58</f>
+        <v>冰伊布</v>
+      </c>
+      <c r="B57" s="13" t="str">
+        <f>[1]攻守數據!Z58</f>
+        <v>冰</v>
+      </c>
+      <c r="C57" s="13" t="str">
+        <f>[1]攻守數據!AA58</f>
+        <v>無</v>
+      </c>
+      <c r="D57" s="14">
+        <f>[1]攻守數據!AB58</f>
         <v>24.36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="14">
-        <v>22.88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="14">
-        <v>21.172000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="14">
-        <v>20.32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="14">
-        <v>19.591000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="14">
-        <v>19.84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="14">
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="14">
-        <v>19.431000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="14">
-        <v>18.634</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="14">
-        <v>18.081</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="14">
-        <v>18.224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="14">
-        <v>15.827</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="14">
-        <v>13.688000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="14">
-        <v>18.288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="14">
-        <v>23.225999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="14">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="14">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="str">
+        <f>[1]攻守數據!Y59</f>
+        <v>仙子伊布</v>
+      </c>
+      <c r="B58" s="13" t="str">
+        <f>[1]攻守數據!Z59</f>
+        <v>妖精</v>
+      </c>
+      <c r="C58" s="13" t="str">
+        <f>[1]攻守數據!AA59</f>
+        <v>無</v>
+      </c>
+      <c r="D58" s="14">
+        <f>[1]攻守數據!AB59</f>
+        <v>31.486000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="str">
+        <f>[1]攻守數據!Y60</f>
+        <v>艾路雷朵</v>
+      </c>
+      <c r="B59" s="13" t="str">
+        <f>[1]攻守數據!Z60</f>
+        <v>超能力</v>
+      </c>
+      <c r="C59" s="13" t="str">
+        <f>[1]攻守數據!AA60</f>
+        <v>格鬥</v>
+      </c>
+      <c r="D59" s="14">
+        <f>[1]攻守數據!AB60</f>
         <v>24.07</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="14">
-        <v>12.954000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="14">
-        <v>31.97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="14">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="14">
-        <v>21.42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="14">
-        <v>36.764000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="14">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="14">
-        <v>24.36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="14">
-        <v>31.486000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="14">
-        <v>24.07</v>
-      </c>
-    </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>30</v>
+      <c r="A60" s="13" t="str">
+        <f>[1]攻守數據!Y61</f>
+        <v>烏賊王</v>
+      </c>
+      <c r="B60" s="13" t="str">
+        <f>[1]攻守數據!Z61</f>
+        <v>惡</v>
+      </c>
+      <c r="C60" s="13" t="str">
+        <f>[1]攻守數據!AA61</f>
+        <v>超能力</v>
       </c>
       <c r="D60" s="14">
+        <f>[1]攻守數據!AB61</f>
         <v>23.998000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>31</v>
+      <c r="A61" s="13" t="str">
+        <f>[1]攻守數據!Y62</f>
+        <v>心蝙蝠</v>
+      </c>
+      <c r="B61" s="13" t="str">
+        <f>[1]攻守數據!Z62</f>
+        <v>超能力</v>
+      </c>
+      <c r="C61" s="13" t="str">
+        <f>[1]攻守數據!AA62</f>
+        <v>飛行</v>
       </c>
       <c r="D61" s="14">
+        <f>[1]攻守數據!AB62</f>
         <v>15.157999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>21</v>
+      <c r="A62" s="13" t="str">
+        <f>[1]攻守數據!Y63</f>
+        <v>超極巨灰塵山</v>
+      </c>
+      <c r="B62" s="13" t="str">
+        <f>[1]攻守數據!Z63</f>
+        <v>毒</v>
+      </c>
+      <c r="C62" s="13" t="str">
+        <f>[1]攻守數據!AA63</f>
+        <v>無</v>
       </c>
       <c r="D62" s="14">
+        <f>[1]攻守數據!AB63</f>
         <v>22.4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>31</v>
+      <c r="A63" s="13" t="str">
+        <f>[1]攻守數據!Y64</f>
+        <v>洛奇亞</v>
+      </c>
+      <c r="B63" s="13" t="str">
+        <f>[1]攻守數據!Z64</f>
+        <v>超能力</v>
+      </c>
+      <c r="C63" s="13" t="str">
+        <f>[1]攻守數據!AA64</f>
+        <v>飛行</v>
       </c>
       <c r="D63" s="14">
+        <f>[1]攻守數據!AB64</f>
         <v>50.628999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>21</v>
+      <c r="A64" s="15" t="str">
+        <f>[1]攻守數據!Y65</f>
+        <v>飛腿郎</v>
+      </c>
+      <c r="B64" s="13" t="str">
+        <f>[1]攻守數據!Z65</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C64" s="13" t="str">
+        <f>[1]攻守數據!AA65</f>
+        <v>無</v>
       </c>
       <c r="D64" s="16">
+        <f>[1]攻守數據!AB65</f>
         <v>18.600000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>21</v>
+      <c r="A65" s="15" t="str">
+        <f>[1]攻守數據!Y66</f>
+        <v>快拳郎</v>
+      </c>
+      <c r="B65" s="15" t="str">
+        <f>[1]攻守數據!Z66</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C65" s="15" t="str">
+        <f>[1]攻守數據!AA66</f>
+        <v>無</v>
       </c>
       <c r="D65" s="16">
+        <f>[1]攻守數據!AB66</f>
         <v>20.16</v>
       </c>
     </row>

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1096F08C-8D1E-4488-A722-541FE4C3B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05738744-8320-4BF7-8B3D-49DACF02BAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,6 +1242,20 @@
             <v>20.16</v>
           </cell>
         </row>
+        <row r="67">
+          <cell r="Y67" t="str">
+            <v>帝牙海獅</v>
+          </cell>
+          <cell r="Z67" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AA67" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AB67">
+            <v>30.652999999999999</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -1517,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3901,19 +3915,19 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="str">
         <f>IF([1]攻守數據!Y67 = "", "", [1]攻守數據!Y67)</f>
-        <v/>
+        <v>帝牙海獅</v>
       </c>
       <c r="B66" s="15" t="str">
         <f>IF([1]攻守數據!Z67 = "", "", [1]攻守數據!Z67)</f>
-        <v/>
+        <v>水</v>
       </c>
       <c r="C66" s="15" t="str">
         <f>IF([1]攻守數據!AA67 = "", "", [1]攻守數據!AA67)</f>
-        <v/>
-      </c>
-      <c r="D66" s="15" t="str">
+        <v>冰</v>
+      </c>
+      <c r="D66" s="16">
         <f>IF([1]攻守數據!AB67 = "", "", [1]攻守數據!AB67)</f>
-        <v/>
+        <v>30.652999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05738744-8320-4BF7-8B3D-49DACF02BAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4904F1D7-3661-4AD0-A4BF-124255C55C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1256,6 +1256,34 @@
             <v>30.652999999999999</v>
           </cell>
         </row>
+        <row r="68">
+          <cell r="Y68" t="str">
+            <v>龐岩怪</v>
+          </cell>
+          <cell r="Z68" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AA68" t="str">
+            <v>無</v>
+          </cell>
+          <cell r="AB68">
+            <v>28.728000000000002</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="Y69" t="str">
+            <v>老翁龍</v>
+          </cell>
+          <cell r="Z69" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AA69" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AB69">
+            <v>22.277999999999999</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
@@ -1532,7 +1560,7 @@
   <dimension ref="A1:Y150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D51" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1555,7 +1583,7 @@
         <f>[1]攻守數據!AA2</f>
         <v>屬性二</v>
       </c>
-      <c r="D1" s="13" t="str">
+      <c r="D1" s="14" t="str">
         <f>[1]攻守數據!AB2</f>
         <v>基礎防禦</v>
       </c>
@@ -3933,37 +3961,37 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="str">
         <f>IF([1]攻守數據!Y68 = "", "", [1]攻守數據!Y68)</f>
-        <v/>
+        <v>龐岩怪</v>
       </c>
       <c r="B67" s="15" t="str">
         <f>IF([1]攻守數據!Z68 = "", "", [1]攻守數據!Z68)</f>
-        <v/>
+        <v>岩石</v>
       </c>
       <c r="C67" s="15" t="str">
         <f>IF([1]攻守數據!AA68 = "", "", [1]攻守數據!AA68)</f>
-        <v/>
-      </c>
-      <c r="D67" s="15" t="str">
+        <v>無</v>
+      </c>
+      <c r="D67" s="16">
         <f>IF([1]攻守數據!AB68 = "", "", [1]攻守數據!AB68)</f>
-        <v/>
+        <v>28.728000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="str">
         <f>IF([1]攻守數據!Y69 = "", "", [1]攻守數據!Y69)</f>
-        <v/>
+        <v>老翁龍</v>
       </c>
       <c r="B68" s="15" t="str">
         <f>IF([1]攻守數據!Z69 = "", "", [1]攻守數據!Z69)</f>
-        <v/>
+        <v>龍</v>
       </c>
       <c r="C68" s="15" t="str">
         <f>IF([1]攻守數據!AA69 = "", "", [1]攻守數據!AA69)</f>
-        <v/>
-      </c>
-      <c r="D68" s="15" t="str">
+        <v>一般</v>
+      </c>
+      <c r="D68" s="16">
         <f>IF([1]攻守數據!AB69 = "", "", [1]攻守數據!AB69)</f>
-        <v/>
+        <v>22.277999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3979,7 +4007,7 @@
         <f>IF([1]攻守數據!AA70 = "", "", [1]攻守數據!AA70)</f>
         <v/>
       </c>
-      <c r="D69" s="15" t="str">
+      <c r="D69" s="16" t="str">
         <f>IF([1]攻守數據!AB70 = "", "", [1]攻守數據!AB70)</f>
         <v/>
       </c>
@@ -3997,7 +4025,7 @@
         <f>IF([1]攻守數據!AA71 = "", "", [1]攻守數據!AA71)</f>
         <v/>
       </c>
-      <c r="D70" s="15" t="str">
+      <c r="D70" s="16" t="str">
         <f>IF([1]攻守數據!AB71 = "", "", [1]攻守數據!AB71)</f>
         <v/>
       </c>
@@ -4015,7 +4043,7 @@
         <f>IF([1]攻守數據!AA72 = "", "", [1]攻守數據!AA72)</f>
         <v/>
       </c>
-      <c r="D71" s="15" t="str">
+      <c r="D71" s="16" t="str">
         <f>IF([1]攻守數據!AB72 = "", "", [1]攻守數據!AB72)</f>
         <v/>
       </c>
@@ -4033,7 +4061,7 @@
         <f>IF([1]攻守數據!AA73 = "", "", [1]攻守數據!AA73)</f>
         <v/>
       </c>
-      <c r="D72" s="15" t="str">
+      <c r="D72" s="16" t="str">
         <f>IF([1]攻守數據!AB73 = "", "", [1]攻守數據!AB73)</f>
         <v/>
       </c>
@@ -4051,7 +4079,7 @@
         <f>IF([1]攻守數據!AA74 = "", "", [1]攻守數據!AA74)</f>
         <v/>
       </c>
-      <c r="D73" s="15" t="str">
+      <c r="D73" s="16" t="str">
         <f>IF([1]攻守數據!AB74 = "", "", [1]攻守數據!AB74)</f>
         <v/>
       </c>
@@ -4069,7 +4097,7 @@
         <f>IF([1]攻守數據!AA75 = "", "", [1]攻守數據!AA75)</f>
         <v/>
       </c>
-      <c r="D74" s="15" t="str">
+      <c r="D74" s="16" t="str">
         <f>IF([1]攻守數據!AB75 = "", "", [1]攻守數據!AB75)</f>
         <v/>
       </c>
@@ -4087,7 +4115,7 @@
         <f>IF([1]攻守數據!AA76 = "", "", [1]攻守數據!AA76)</f>
         <v/>
       </c>
-      <c r="D75" s="15" t="str">
+      <c r="D75" s="16" t="str">
         <f>IF([1]攻守數據!AB76 = "", "", [1]攻守數據!AB76)</f>
         <v/>
       </c>
@@ -4105,7 +4133,7 @@
         <f>IF([1]攻守數據!AA77 = "", "", [1]攻守數據!AA77)</f>
         <v/>
       </c>
-      <c r="D76" s="15" t="str">
+      <c r="D76" s="16" t="str">
         <f>IF([1]攻守數據!AB77 = "", "", [1]攻守數據!AB77)</f>
         <v/>
       </c>
@@ -4123,7 +4151,7 @@
         <f>IF([1]攻守數據!AA78 = "", "", [1]攻守數據!AA78)</f>
         <v/>
       </c>
-      <c r="D77" s="15" t="str">
+      <c r="D77" s="16" t="str">
         <f>IF([1]攻守數據!AB78 = "", "", [1]攻守數據!AB78)</f>
         <v/>
       </c>
@@ -4141,7 +4169,7 @@
         <f>IF([1]攻守數據!AA79 = "", "", [1]攻守數據!AA79)</f>
         <v/>
       </c>
-      <c r="D78" s="15" t="str">
+      <c r="D78" s="16" t="str">
         <f>IF([1]攻守數據!AB79 = "", "", [1]攻守數據!AB79)</f>
         <v/>
       </c>
@@ -4159,7 +4187,7 @@
         <f>IF([1]攻守數據!AA80 = "", "", [1]攻守數據!AA80)</f>
         <v/>
       </c>
-      <c r="D79" s="15" t="str">
+      <c r="D79" s="16" t="str">
         <f>IF([1]攻守數據!AB80 = "", "", [1]攻守數據!AB80)</f>
         <v/>
       </c>
@@ -4177,7 +4205,7 @@
         <f>IF([1]攻守數據!AA81 = "", "", [1]攻守數據!AA81)</f>
         <v/>
       </c>
-      <c r="D80" s="15" t="str">
+      <c r="D80" s="16" t="str">
         <f>IF([1]攻守數據!AB81 = "", "", [1]攻守數據!AB81)</f>
         <v/>
       </c>
@@ -4195,7 +4223,7 @@
         <f>IF([1]攻守數據!AA82 = "", "", [1]攻守數據!AA82)</f>
         <v/>
       </c>
-      <c r="D81" s="15" t="str">
+      <c r="D81" s="16" t="str">
         <f>IF([1]攻守數據!AB82 = "", "", [1]攻守數據!AB82)</f>
         <v/>
       </c>
@@ -4213,7 +4241,7 @@
         <f>IF([1]攻守數據!AA83 = "", "", [1]攻守數據!AA83)</f>
         <v/>
       </c>
-      <c r="D82" s="15" t="str">
+      <c r="D82" s="16" t="str">
         <f>IF([1]攻守數據!AB83 = "", "", [1]攻守數據!AB83)</f>
         <v/>
       </c>
@@ -4231,7 +4259,7 @@
         <f>IF([1]攻守數據!AA84 = "", "", [1]攻守數據!AA84)</f>
         <v/>
       </c>
-      <c r="D83" s="15" t="str">
+      <c r="D83" s="16" t="str">
         <f>IF([1]攻守數據!AB84 = "", "", [1]攻守數據!AB84)</f>
         <v/>
       </c>
@@ -4249,7 +4277,7 @@
         <f>IF([1]攻守數據!AA85 = "", "", [1]攻守數據!AA85)</f>
         <v/>
       </c>
-      <c r="D84" s="15" t="str">
+      <c r="D84" s="16" t="str">
         <f>IF([1]攻守數據!AB85 = "", "", [1]攻守數據!AB85)</f>
         <v/>
       </c>
@@ -4267,7 +4295,7 @@
         <f>IF([1]攻守數據!AA86 = "", "", [1]攻守數據!AA86)</f>
         <v/>
       </c>
-      <c r="D85" s="15" t="str">
+      <c r="D85" s="16" t="str">
         <f>IF([1]攻守數據!AB86 = "", "", [1]攻守數據!AB86)</f>
         <v/>
       </c>
@@ -4285,7 +4313,7 @@
         <f>IF([1]攻守數據!AA87 = "", "", [1]攻守數據!AA87)</f>
         <v/>
       </c>
-      <c r="D86" s="15" t="str">
+      <c r="D86" s="16" t="str">
         <f>IF([1]攻守數據!AB87 = "", "", [1]攻守數據!AB87)</f>
         <v/>
       </c>
@@ -4303,7 +4331,7 @@
         <f>IF([1]攻守數據!AA88 = "", "", [1]攻守數據!AA88)</f>
         <v/>
       </c>
-      <c r="D87" s="15" t="str">
+      <c r="D87" s="16" t="str">
         <f>IF([1]攻守數據!AB88 = "", "", [1]攻守數據!AB88)</f>
         <v/>
       </c>
@@ -4321,7 +4349,7 @@
         <f>IF([1]攻守數據!AA89 = "", "", [1]攻守數據!AA89)</f>
         <v/>
       </c>
-      <c r="D88" s="15" t="str">
+      <c r="D88" s="16" t="str">
         <f>IF([1]攻守數據!AB89 = "", "", [1]攻守數據!AB89)</f>
         <v/>
       </c>
@@ -4339,7 +4367,7 @@
         <f>IF([1]攻守數據!AA90 = "", "", [1]攻守數據!AA90)</f>
         <v/>
       </c>
-      <c r="D89" s="15" t="str">
+      <c r="D89" s="16" t="str">
         <f>IF([1]攻守數據!AB90 = "", "", [1]攻守數據!AB90)</f>
         <v/>
       </c>
@@ -4357,7 +4385,7 @@
         <f>IF([1]攻守數據!AA91 = "", "", [1]攻守數據!AA91)</f>
         <v/>
       </c>
-      <c r="D90" s="15" t="str">
+      <c r="D90" s="16" t="str">
         <f>IF([1]攻守數據!AB91 = "", "", [1]攻守數據!AB91)</f>
         <v/>
       </c>
@@ -4375,7 +4403,7 @@
         <f>IF([1]攻守數據!AA92 = "", "", [1]攻守數據!AA92)</f>
         <v/>
       </c>
-      <c r="D91" s="15" t="str">
+      <c r="D91" s="16" t="str">
         <f>IF([1]攻守數據!AB92 = "", "", [1]攻守數據!AB92)</f>
         <v/>
       </c>
@@ -4393,7 +4421,7 @@
         <f>IF([1]攻守數據!AA93 = "", "", [1]攻守數據!AA93)</f>
         <v/>
       </c>
-      <c r="D92" s="15" t="str">
+      <c r="D92" s="16" t="str">
         <f>IF([1]攻守數據!AB93 = "", "", [1]攻守數據!AB93)</f>
         <v/>
       </c>
@@ -4411,7 +4439,7 @@
         <f>IF([1]攻守數據!AA94 = "", "", [1]攻守數據!AA94)</f>
         <v/>
       </c>
-      <c r="D93" s="15" t="str">
+      <c r="D93" s="16" t="str">
         <f>IF([1]攻守數據!AB94 = "", "", [1]攻守數據!AB94)</f>
         <v/>
       </c>
@@ -4429,7 +4457,7 @@
         <f>IF([1]攻守數據!AA95 = "", "", [1]攻守數據!AA95)</f>
         <v/>
       </c>
-      <c r="D94" s="15" t="str">
+      <c r="D94" s="16" t="str">
         <f>IF([1]攻守數據!AB95 = "", "", [1]攻守數據!AB95)</f>
         <v/>
       </c>
@@ -4447,7 +4475,7 @@
         <f>IF([1]攻守數據!AA96 = "", "", [1]攻守數據!AA96)</f>
         <v/>
       </c>
-      <c r="D95" s="15" t="str">
+      <c r="D95" s="16" t="str">
         <f>IF([1]攻守數據!AB96 = "", "", [1]攻守數據!AB96)</f>
         <v/>
       </c>
@@ -4465,7 +4493,7 @@
         <f>IF([1]攻守數據!AA97 = "", "", [1]攻守數據!AA97)</f>
         <v/>
       </c>
-      <c r="D96" s="15" t="str">
+      <c r="D96" s="16" t="str">
         <f>IF([1]攻守數據!AB97 = "", "", [1]攻守數據!AB97)</f>
         <v/>
       </c>
@@ -4483,7 +4511,7 @@
         <f>IF([1]攻守數據!AA98 = "", "", [1]攻守數據!AA98)</f>
         <v/>
       </c>
-      <c r="D97" s="15" t="str">
+      <c r="D97" s="16" t="str">
         <f>IF([1]攻守數據!AB98 = "", "", [1]攻守數據!AB98)</f>
         <v/>
       </c>
@@ -4501,7 +4529,7 @@
         <f>IF([1]攻守數據!AA99 = "", "", [1]攻守數據!AA99)</f>
         <v/>
       </c>
-      <c r="D98" s="15" t="str">
+      <c r="D98" s="16" t="str">
         <f>IF([1]攻守數據!AB99 = "", "", [1]攻守數據!AB99)</f>
         <v/>
       </c>
@@ -4519,7 +4547,7 @@
         <f>IF([1]攻守數據!AA100 = "", "", [1]攻守數據!AA100)</f>
         <v/>
       </c>
-      <c r="D99" s="15" t="str">
+      <c r="D99" s="16" t="str">
         <f>IF([1]攻守數據!AB100 = "", "", [1]攻守數據!AB100)</f>
         <v/>
       </c>
@@ -4537,7 +4565,7 @@
         <f>IF([1]攻守數據!AA101 = "", "", [1]攻守數據!AA101)</f>
         <v/>
       </c>
-      <c r="D100" s="15" t="str">
+      <c r="D100" s="16" t="str">
         <f>IF([1]攻守數據!AB101 = "", "", [1]攻守數據!AB101)</f>
         <v/>
       </c>
@@ -4555,7 +4583,7 @@
         <f>IF([1]攻守數據!AA102 = "", "", [1]攻守數據!AA102)</f>
         <v/>
       </c>
-      <c r="D101" s="15" t="str">
+      <c r="D101" s="16" t="str">
         <f>IF([1]攻守數據!AB102 = "", "", [1]攻守數據!AB102)</f>
         <v/>
       </c>
@@ -4573,7 +4601,7 @@
         <f>IF([1]攻守數據!AA103 = "", "", [1]攻守數據!AA103)</f>
         <v/>
       </c>
-      <c r="D102" s="15" t="str">
+      <c r="D102" s="16" t="str">
         <f>IF([1]攻守數據!AB103 = "", "", [1]攻守數據!AB103)</f>
         <v/>
       </c>
@@ -4591,7 +4619,7 @@
         <f>IF([1]攻守數據!AA104 = "", "", [1]攻守數據!AA104)</f>
         <v/>
       </c>
-      <c r="D103" s="15" t="str">
+      <c r="D103" s="16" t="str">
         <f>IF([1]攻守數據!AB104 = "", "", [1]攻守數據!AB104)</f>
         <v/>
       </c>
@@ -4609,7 +4637,7 @@
         <f>IF([1]攻守數據!AA105 = "", "", [1]攻守數據!AA105)</f>
         <v/>
       </c>
-      <c r="D104" s="15" t="str">
+      <c r="D104" s="16" t="str">
         <f>IF([1]攻守數據!AB105 = "", "", [1]攻守數據!AB105)</f>
         <v/>
       </c>
@@ -4627,7 +4655,7 @@
         <f>IF([1]攻守數據!AA106 = "", "", [1]攻守數據!AA106)</f>
         <v/>
       </c>
-      <c r="D105" s="15" t="str">
+      <c r="D105" s="16" t="str">
         <f>IF([1]攻守數據!AB106 = "", "", [1]攻守數據!AB106)</f>
         <v/>
       </c>
@@ -4645,7 +4673,7 @@
         <f>IF([1]攻守數據!AA107 = "", "", [1]攻守數據!AA107)</f>
         <v/>
       </c>
-      <c r="D106" s="15" t="str">
+      <c r="D106" s="16" t="str">
         <f>IF([1]攻守數據!AB107 = "", "", [1]攻守數據!AB107)</f>
         <v/>
       </c>
@@ -4663,7 +4691,7 @@
         <f>IF([1]攻守數據!AA108 = "", "", [1]攻守數據!AA108)</f>
         <v/>
       </c>
-      <c r="D107" s="15" t="str">
+      <c r="D107" s="16" t="str">
         <f>IF([1]攻守數據!AB108 = "", "", [1]攻守數據!AB108)</f>
         <v/>
       </c>
@@ -4681,7 +4709,7 @@
         <f>IF([1]攻守數據!AA109 = "", "", [1]攻守數據!AA109)</f>
         <v/>
       </c>
-      <c r="D108" s="15" t="str">
+      <c r="D108" s="16" t="str">
         <f>IF([1]攻守數據!AB109 = "", "", [1]攻守數據!AB109)</f>
         <v/>
       </c>
@@ -4699,7 +4727,7 @@
         <f>IF([1]攻守數據!AA110 = "", "", [1]攻守數據!AA110)</f>
         <v/>
       </c>
-      <c r="D109" s="15" t="str">
+      <c r="D109" s="16" t="str">
         <f>IF([1]攻守數據!AB110 = "", "", [1]攻守數據!AB110)</f>
         <v/>
       </c>
@@ -4717,7 +4745,7 @@
         <f>IF([1]攻守數據!AA111 = "", "", [1]攻守數據!AA111)</f>
         <v/>
       </c>
-      <c r="D110" s="15" t="str">
+      <c r="D110" s="16" t="str">
         <f>IF([1]攻守數據!AB111 = "", "", [1]攻守數據!AB111)</f>
         <v/>
       </c>
@@ -4735,7 +4763,7 @@
         <f>IF([1]攻守數據!AA112 = "", "", [1]攻守數據!AA112)</f>
         <v/>
       </c>
-      <c r="D111" s="15" t="str">
+      <c r="D111" s="16" t="str">
         <f>IF([1]攻守數據!AB112 = "", "", [1]攻守數據!AB112)</f>
         <v/>
       </c>
@@ -4753,7 +4781,7 @@
         <f>IF([1]攻守數據!AA113 = "", "", [1]攻守數據!AA113)</f>
         <v/>
       </c>
-      <c r="D112" s="15" t="str">
+      <c r="D112" s="16" t="str">
         <f>IF([1]攻守數據!AB113 = "", "", [1]攻守數據!AB113)</f>
         <v/>
       </c>
@@ -4771,7 +4799,7 @@
         <f>IF([1]攻守數據!AA114 = "", "", [1]攻守數據!AA114)</f>
         <v/>
       </c>
-      <c r="D113" s="15" t="str">
+      <c r="D113" s="16" t="str">
         <f>IF([1]攻守數據!AB114 = "", "", [1]攻守數據!AB114)</f>
         <v/>
       </c>
@@ -4789,7 +4817,7 @@
         <f>IF([1]攻守數據!AA115 = "", "", [1]攻守數據!AA115)</f>
         <v/>
       </c>
-      <c r="D114" s="15" t="str">
+      <c r="D114" s="16" t="str">
         <f>IF([1]攻守數據!AB115 = "", "", [1]攻守數據!AB115)</f>
         <v/>
       </c>
@@ -4807,7 +4835,7 @@
         <f>IF([1]攻守數據!AA116 = "", "", [1]攻守數據!AA116)</f>
         <v/>
       </c>
-      <c r="D115" s="15" t="str">
+      <c r="D115" s="16" t="str">
         <f>IF([1]攻守數據!AB116 = "", "", [1]攻守數據!AB116)</f>
         <v/>
       </c>
@@ -4825,7 +4853,7 @@
         <f>IF([1]攻守數據!AA117 = "", "", [1]攻守數據!AA117)</f>
         <v/>
       </c>
-      <c r="D116" s="15" t="str">
+      <c r="D116" s="16" t="str">
         <f>IF([1]攻守數據!AB117 = "", "", [1]攻守數據!AB117)</f>
         <v/>
       </c>
@@ -4843,7 +4871,7 @@
         <f>IF([1]攻守數據!AA118 = "", "", [1]攻守數據!AA118)</f>
         <v/>
       </c>
-      <c r="D117" s="15" t="str">
+      <c r="D117" s="16" t="str">
         <f>IF([1]攻守數據!AB118 = "", "", [1]攻守數據!AB118)</f>
         <v/>
       </c>
@@ -4861,7 +4889,7 @@
         <f>IF([1]攻守數據!AA119 = "", "", [1]攻守數據!AA119)</f>
         <v/>
       </c>
-      <c r="D118" s="15" t="str">
+      <c r="D118" s="16" t="str">
         <f>IF([1]攻守數據!AB119 = "", "", [1]攻守數據!AB119)</f>
         <v/>
       </c>
@@ -4879,7 +4907,7 @@
         <f>IF([1]攻守數據!AA120 = "", "", [1]攻守數據!AA120)</f>
         <v/>
       </c>
-      <c r="D119" s="15" t="str">
+      <c r="D119" s="16" t="str">
         <f>IF([1]攻守數據!AB120 = "", "", [1]攻守數據!AB120)</f>
         <v/>
       </c>
@@ -4897,7 +4925,7 @@
         <f>IF([1]攻守數據!AA121 = "", "", [1]攻守數據!AA121)</f>
         <v/>
       </c>
-      <c r="D120" s="15" t="str">
+      <c r="D120" s="16" t="str">
         <f>IF([1]攻守數據!AB121 = "", "", [1]攻守數據!AB121)</f>
         <v/>
       </c>
@@ -4915,7 +4943,7 @@
         <f>IF([1]攻守數據!AA122 = "", "", [1]攻守數據!AA122)</f>
         <v/>
       </c>
-      <c r="D121" s="15" t="str">
+      <c r="D121" s="16" t="str">
         <f>IF([1]攻守數據!AB122 = "", "", [1]攻守數據!AB122)</f>
         <v/>
       </c>
@@ -4933,7 +4961,7 @@
         <f>IF([1]攻守數據!AA123 = "", "", [1]攻守數據!AA123)</f>
         <v/>
       </c>
-      <c r="D122" s="15" t="str">
+      <c r="D122" s="16" t="str">
         <f>IF([1]攻守數據!AB123 = "", "", [1]攻守數據!AB123)</f>
         <v/>
       </c>
@@ -4951,7 +4979,7 @@
         <f>IF([1]攻守數據!AA124 = "", "", [1]攻守數據!AA124)</f>
         <v/>
       </c>
-      <c r="D123" s="15" t="str">
+      <c r="D123" s="16" t="str">
         <f>IF([1]攻守數據!AB124 = "", "", [1]攻守數據!AB124)</f>
         <v/>
       </c>
@@ -4969,7 +4997,7 @@
         <f>IF([1]攻守數據!AA125 = "", "", [1]攻守數據!AA125)</f>
         <v/>
       </c>
-      <c r="D124" s="15" t="str">
+      <c r="D124" s="16" t="str">
         <f>IF([1]攻守數據!AB125 = "", "", [1]攻守數據!AB125)</f>
         <v/>
       </c>
@@ -4987,7 +5015,7 @@
         <f>IF([1]攻守數據!AA126 = "", "", [1]攻守數據!AA126)</f>
         <v/>
       </c>
-      <c r="D125" s="15" t="str">
+      <c r="D125" s="16" t="str">
         <f>IF([1]攻守數據!AB126 = "", "", [1]攻守數據!AB126)</f>
         <v/>
       </c>
@@ -5005,7 +5033,7 @@
         <f>IF([1]攻守數據!AA127 = "", "", [1]攻守數據!AA127)</f>
         <v/>
       </c>
-      <c r="D126" s="15" t="str">
+      <c r="D126" s="16" t="str">
         <f>IF([1]攻守數據!AB127 = "", "", [1]攻守數據!AB127)</f>
         <v/>
       </c>
@@ -5023,7 +5051,7 @@
         <f>IF([1]攻守數據!AA128 = "", "", [1]攻守數據!AA128)</f>
         <v/>
       </c>
-      <c r="D127" s="15" t="str">
+      <c r="D127" s="16" t="str">
         <f>IF([1]攻守數據!AB128 = "", "", [1]攻守數據!AB128)</f>
         <v/>
       </c>
@@ -5041,7 +5069,7 @@
         <f>IF([1]攻守數據!AA129 = "", "", [1]攻守數據!AA129)</f>
         <v/>
       </c>
-      <c r="D128" s="15" t="str">
+      <c r="D128" s="16" t="str">
         <f>IF([1]攻守數據!AB129 = "", "", [1]攻守數據!AB129)</f>
         <v/>
       </c>
@@ -5059,7 +5087,7 @@
         <f>IF([1]攻守數據!AA130 = "", "", [1]攻守數據!AA130)</f>
         <v/>
       </c>
-      <c r="D129" s="15" t="str">
+      <c r="D129" s="16" t="str">
         <f>IF([1]攻守數據!AB130 = "", "", [1]攻守數據!AB130)</f>
         <v/>
       </c>
@@ -5077,7 +5105,7 @@
         <f>IF([1]攻守數據!AA131 = "", "", [1]攻守數據!AA131)</f>
         <v/>
       </c>
-      <c r="D130" s="15" t="str">
+      <c r="D130" s="16" t="str">
         <f>IF([1]攻守數據!AB131 = "", "", [1]攻守數據!AB131)</f>
         <v/>
       </c>
@@ -5095,7 +5123,7 @@
         <f>IF([1]攻守數據!AA132 = "", "", [1]攻守數據!AA132)</f>
         <v/>
       </c>
-      <c r="D131" s="15" t="str">
+      <c r="D131" s="16" t="str">
         <f>IF([1]攻守數據!AB132 = "", "", [1]攻守數據!AB132)</f>
         <v/>
       </c>
@@ -5113,7 +5141,7 @@
         <f>IF([1]攻守數據!AA133 = "", "", [1]攻守數據!AA133)</f>
         <v/>
       </c>
-      <c r="D132" s="15" t="str">
+      <c r="D132" s="16" t="str">
         <f>IF([1]攻守數據!AB133 = "", "", [1]攻守數據!AB133)</f>
         <v/>
       </c>
@@ -5131,7 +5159,7 @@
         <f>IF([1]攻守數據!AA134 = "", "", [1]攻守數據!AA134)</f>
         <v/>
       </c>
-      <c r="D133" s="15" t="str">
+      <c r="D133" s="16" t="str">
         <f>IF([1]攻守數據!AB134 = "", "", [1]攻守數據!AB134)</f>
         <v/>
       </c>
@@ -5149,7 +5177,7 @@
         <f>IF([1]攻守數據!AA135 = "", "", [1]攻守數據!AA135)</f>
         <v/>
       </c>
-      <c r="D134" s="15" t="str">
+      <c r="D134" s="16" t="str">
         <f>IF([1]攻守數據!AB135 = "", "", [1]攻守數據!AB135)</f>
         <v/>
       </c>
@@ -5167,7 +5195,7 @@
         <f>IF([1]攻守數據!AA136 = "", "", [1]攻守數據!AA136)</f>
         <v/>
       </c>
-      <c r="D135" s="15" t="str">
+      <c r="D135" s="16" t="str">
         <f>IF([1]攻守數據!AB136 = "", "", [1]攻守數據!AB136)</f>
         <v/>
       </c>
@@ -5185,7 +5213,7 @@
         <f>IF([1]攻守數據!AA137 = "", "", [1]攻守數據!AA137)</f>
         <v/>
       </c>
-      <c r="D136" s="15" t="str">
+      <c r="D136" s="16" t="str">
         <f>IF([1]攻守數據!AB137 = "", "", [1]攻守數據!AB137)</f>
         <v/>
       </c>
@@ -5203,7 +5231,7 @@
         <f>IF([1]攻守數據!AA138 = "", "", [1]攻守數據!AA138)</f>
         <v/>
       </c>
-      <c r="D137" s="15" t="str">
+      <c r="D137" s="16" t="str">
         <f>IF([1]攻守數據!AB138 = "", "", [1]攻守數據!AB138)</f>
         <v/>
       </c>
@@ -5221,7 +5249,7 @@
         <f>IF([1]攻守數據!AA139 = "", "", [1]攻守數據!AA139)</f>
         <v/>
       </c>
-      <c r="D138" s="15" t="str">
+      <c r="D138" s="16" t="str">
         <f>IF([1]攻守數據!AB139 = "", "", [1]攻守數據!AB139)</f>
         <v/>
       </c>
@@ -5239,7 +5267,7 @@
         <f>IF([1]攻守數據!AA140 = "", "", [1]攻守數據!AA140)</f>
         <v/>
       </c>
-      <c r="D139" s="15" t="str">
+      <c r="D139" s="16" t="str">
         <f>IF([1]攻守數據!AB140 = "", "", [1]攻守數據!AB140)</f>
         <v/>
       </c>
@@ -5257,7 +5285,7 @@
         <f>IF([1]攻守數據!AA141 = "", "", [1]攻守數據!AA141)</f>
         <v/>
       </c>
-      <c r="D140" s="15" t="str">
+      <c r="D140" s="16" t="str">
         <f>IF([1]攻守數據!AB141 = "", "", [1]攻守數據!AB141)</f>
         <v/>
       </c>
@@ -5275,7 +5303,7 @@
         <f>IF([1]攻守數據!AA142 = "", "", [1]攻守數據!AA142)</f>
         <v/>
       </c>
-      <c r="D141" s="15" t="str">
+      <c r="D141" s="16" t="str">
         <f>IF([1]攻守數據!AB142 = "", "", [1]攻守數據!AB142)</f>
         <v/>
       </c>
@@ -5293,7 +5321,7 @@
         <f>IF([1]攻守數據!AA143 = "", "", [1]攻守數據!AA143)</f>
         <v/>
       </c>
-      <c r="D142" s="15" t="str">
+      <c r="D142" s="16" t="str">
         <f>IF([1]攻守數據!AB143 = "", "", [1]攻守數據!AB143)</f>
         <v/>
       </c>
@@ -5311,7 +5339,7 @@
         <f>IF([1]攻守數據!AA144 = "", "", [1]攻守數據!AA144)</f>
         <v/>
       </c>
-      <c r="D143" s="15" t="str">
+      <c r="D143" s="16" t="str">
         <f>IF([1]攻守數據!AB144 = "", "", [1]攻守數據!AB144)</f>
         <v/>
       </c>
@@ -5329,7 +5357,7 @@
         <f>IF([1]攻守數據!AA145 = "", "", [1]攻守數據!AA145)</f>
         <v/>
       </c>
-      <c r="D144" s="15" t="str">
+      <c r="D144" s="16" t="str">
         <f>IF([1]攻守數據!AB145 = "", "", [1]攻守數據!AB145)</f>
         <v/>
       </c>
@@ -5347,7 +5375,7 @@
         <f>IF([1]攻守數據!AA146 = "", "", [1]攻守數據!AA146)</f>
         <v/>
       </c>
-      <c r="D145" s="15" t="str">
+      <c r="D145" s="16" t="str">
         <f>IF([1]攻守數據!AB146 = "", "", [1]攻守數據!AB146)</f>
         <v/>
       </c>
@@ -5365,7 +5393,7 @@
         <f>IF([1]攻守數據!AA147 = "", "", [1]攻守數據!AA147)</f>
         <v/>
       </c>
-      <c r="D146" s="15" t="str">
+      <c r="D146" s="16" t="str">
         <f>IF([1]攻守數據!AB147 = "", "", [1]攻守數據!AB147)</f>
         <v/>
       </c>
@@ -5383,7 +5411,7 @@
         <f>IF([1]攻守數據!AA148 = "", "", [1]攻守數據!AA148)</f>
         <v/>
       </c>
-      <c r="D147" s="15" t="str">
+      <c r="D147" s="16" t="str">
         <f>IF([1]攻守數據!AB148 = "", "", [1]攻守數據!AB148)</f>
         <v/>
       </c>
@@ -5401,7 +5429,7 @@
         <f>IF([1]攻守數據!AA149 = "", "", [1]攻守數據!AA149)</f>
         <v/>
       </c>
-      <c r="D148" s="15" t="str">
+      <c r="D148" s="16" t="str">
         <f>IF([1]攻守數據!AB149 = "", "", [1]攻守數據!AB149)</f>
         <v/>
       </c>
@@ -5419,7 +5447,7 @@
         <f>IF([1]攻守數據!AA150 = "", "", [1]攻守數據!AA150)</f>
         <v/>
       </c>
-      <c r="D149" s="15" t="str">
+      <c r="D149" s="16" t="str">
         <f>IF([1]攻守數據!AB150 = "", "", [1]攻守數據!AB150)</f>
         <v/>
       </c>
@@ -5437,7 +5465,7 @@
         <f>IF([1]攻守數據!AA151 = "", "", [1]攻守數據!AA151)</f>
         <v/>
       </c>
-      <c r="D150" s="15" t="str">
+      <c r="D150" s="16" t="str">
         <f>IF([1]攻守數據!AB151 = "", "", [1]攻守數據!AB151)</f>
         <v/>
       </c>

--- a/Def.xlsx
+++ b/Def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4904F1D7-3661-4AD0-A4BF-124255C55C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1CD707-3996-4A1C-9C3F-B9720B9924CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -329,6 +329,7 @@
       <sheetName val="屬性克制表"/>
       <sheetName val="極巨傷害"/>
       <sheetName val="能量點"/>
+      <sheetName val="寶可夢圖鑑"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -413,7 +414,7 @@
             <v>毒</v>
           </cell>
           <cell r="AB7">
-            <v>35.802</v>
+            <v>36.186</v>
           </cell>
         </row>
         <row r="8">
@@ -572,13 +573,13 @@
         </row>
         <row r="19">
           <cell r="Y19" t="str">
-            <v>武道熊師(連)</v>
+            <v>武道熊師(一)</v>
           </cell>
           <cell r="Z19" t="str">
             <v>格鬥</v>
           </cell>
           <cell r="AA19" t="str">
-            <v>水</v>
+            <v>惡</v>
           </cell>
           <cell r="AB19">
             <v>28.2</v>
@@ -586,13 +587,13 @@
         </row>
         <row r="20">
           <cell r="Y20" t="str">
-            <v>武道熊師(一)</v>
+            <v>武道熊師(連)</v>
           </cell>
           <cell r="Z20" t="str">
             <v>格鬥</v>
           </cell>
           <cell r="AA20" t="str">
-            <v>惡</v>
+            <v>水</v>
           </cell>
           <cell r="AB20">
             <v>28.2</v>
@@ -894,7 +895,7 @@
         </row>
         <row r="42">
           <cell r="Y42" t="str">
-            <v>戰弦蠑螈</v>
+            <v>顫弦蠑螈</v>
           </cell>
           <cell r="Z42" t="str">
             <v>電</v>
@@ -1020,7 +1021,7 @@
         </row>
         <row r="51">
           <cell r="Y51" t="str">
-            <v>超級巨伊布</v>
+            <v>伊布</v>
           </cell>
           <cell r="Z51" t="str">
             <v>一般</v>
@@ -1188,35 +1189,35 @@
         </row>
         <row r="63">
           <cell r="Y63" t="str">
-            <v>超極巨灰塵山</v>
+            <v>洛奇亞</v>
           </cell>
           <cell r="Z63" t="str">
-            <v>毒</v>
+            <v>超能力</v>
           </cell>
           <cell r="AA63" t="str">
-            <v>無</v>
+            <v>飛行</v>
           </cell>
           <cell r="AB63">
-            <v>22.4</v>
+            <v>50.628999999999998</v>
           </cell>
         </row>
         <row r="64">
           <cell r="Y64" t="str">
-            <v>洛奇亞</v>
+            <v>飛腿郎</v>
           </cell>
           <cell r="Z64" t="str">
-            <v>超能力</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AA64" t="str">
-            <v>飛行</v>
+            <v>無</v>
           </cell>
           <cell r="AB64">
-            <v>50.628999999999998</v>
+            <v>18.600000000000001</v>
           </cell>
         </row>
         <row r="65">
           <cell r="Y65" t="str">
-            <v>飛腿郎</v>
+            <v>快拳郎</v>
           </cell>
           <cell r="Z65" t="str">
             <v>格鬥</v>
@@ -1225,63 +1226,91 @@
             <v>無</v>
           </cell>
           <cell r="AB65">
-            <v>18.600000000000001</v>
+            <v>20.16</v>
           </cell>
         </row>
         <row r="66">
           <cell r="Y66" t="str">
-            <v>快拳郎</v>
+            <v>帝牙海獅</v>
           </cell>
           <cell r="Z66" t="str">
-            <v>格鬥</v>
+            <v>水</v>
           </cell>
           <cell r="AA66" t="str">
-            <v>無</v>
+            <v>冰</v>
           </cell>
           <cell r="AB66">
-            <v>20.16</v>
+            <v>30.652999999999999</v>
           </cell>
         </row>
         <row r="67">
           <cell r="Y67" t="str">
-            <v>帝牙海獅</v>
+            <v>龐岩怪</v>
           </cell>
           <cell r="Z67" t="str">
-            <v>水</v>
+            <v>岩石</v>
           </cell>
           <cell r="AA67" t="str">
-            <v>冰</v>
+            <v>無</v>
           </cell>
           <cell r="AB67">
-            <v>30.652999999999999</v>
+            <v>28.728000000000002</v>
           </cell>
         </row>
         <row r="68">
           <cell r="Y68" t="str">
-            <v>龐岩怪</v>
+            <v>老翁龍</v>
           </cell>
           <cell r="Z68" t="str">
-            <v>岩石</v>
+            <v>龍</v>
           </cell>
           <cell r="AA68" t="str">
-            <v>無</v>
+            <v>一般</v>
           </cell>
           <cell r="AB68">
-            <v>28.728000000000002</v>
+            <v>22.277999999999999</v>
           </cell>
         </row>
         <row r="69">
           <cell r="Y69" t="str">
-            <v>老翁龍</v>
+            <v>鳳王</v>
           </cell>
           <cell r="Z69" t="str">
-            <v>龍</v>
+            <v>飛行</v>
           </cell>
           <cell r="AA69" t="str">
-            <v>一般</v>
+            <v>火</v>
           </cell>
           <cell r="AB69">
-            <v>22.277999999999999</v>
+            <v>37.44</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="Y70" t="str">
+            <v>鳳王(LV.20)</v>
+          </cell>
+          <cell r="Z70" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AA70" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AB70">
+            <v>21.08</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="Y71" t="str">
+            <v>鳳王(LV.30)</v>
+          </cell>
+          <cell r="Z71" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AA71" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AB71">
+            <v>31.73</v>
           </cell>
         </row>
       </sheetData>
@@ -1289,6 +1318,7 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1559,15 +1589,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D51" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="13"/>
-    <col min="4" max="4" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -1648,7 +1678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f>[1]攻守數據!Y3</f>
         <v>幸福蛋</v>
@@ -1804,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="str">
         <f>[1]攻守數據!Y5</f>
         <v>卡比獸</v>
@@ -1975,7 +2005,7 @@
       </c>
       <c r="D6" s="14">
         <f>[1]攻守數據!AB7</f>
-        <v>35.802</v>
+        <v>36.186</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
@@ -2116,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="str">
         <f>[1]攻守數據!Y9</f>
         <v>拉普拉斯</v>
@@ -2194,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="str">
         <f>[1]攻守數據!Y10</f>
         <v>拉帝亞斯</v>
@@ -2272,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="str">
         <f>[1]攻守數據!Y11</f>
         <v>蒼響</v>
@@ -2350,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="str">
         <f>[1]攻守數據!Y12</f>
         <v>拉帝歐斯</v>
@@ -2662,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="str">
         <f>[1]攻守數據!Y16</f>
         <v>幾何雪花</v>
@@ -2740,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="17" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="str">
         <f>[1]攻守數據!Y17</f>
         <v>藏飽栗鼠</v>
@@ -2899,7 +2929,7 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="str">
         <f>[1]攻守數據!Y19</f>
-        <v>武道熊師(連)</v>
+        <v>武道熊師(一)</v>
       </c>
       <c r="B18" s="13" t="str">
         <f>[1]攻守數據!Z19</f>
@@ -2907,7 +2937,7 @@
       </c>
       <c r="C18" s="13" t="str">
         <f>[1]攻守數據!AA19</f>
-        <v>水</v>
+        <v>惡</v>
       </c>
       <c r="D18" s="14">
         <f>[1]攻守數據!AB19</f>
@@ -2977,7 +3007,7 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>[1]攻守數據!Y20</f>
-        <v>武道熊師(一)</v>
+        <v>武道熊師(連)</v>
       </c>
       <c r="B19" s="13" t="str">
         <f>[1]攻守數據!Z20</f>
@@ -2985,7 +3015,7 @@
       </c>
       <c r="C19" s="13" t="str">
         <f>[1]攻守數據!AA20</f>
-        <v>惡</v>
+        <v>水</v>
       </c>
       <c r="D19" s="14">
         <f>[1]攻守數據!AB20</f>
@@ -3493,7 +3523,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="str">
         <f>[1]攻守數據!Y42</f>
-        <v>戰弦蠑螈</v>
+        <v>顫弦蠑螈</v>
       </c>
       <c r="B41" s="13" t="str">
         <f>[1]攻守數據!Z42</f>
@@ -3655,7 +3685,7 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="str">
         <f>[1]攻守數據!Y51</f>
-        <v>超級巨伊布</v>
+        <v>伊布</v>
       </c>
       <c r="B50" s="13" t="str">
         <f>[1]攻守數據!Z51</f>
@@ -3871,43 +3901,43 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="str">
         <f>[1]攻守數據!Y63</f>
-        <v>超極巨灰塵山</v>
+        <v>洛奇亞</v>
       </c>
       <c r="B62" s="13" t="str">
         <f>[1]攻守數據!Z63</f>
-        <v>毒</v>
+        <v>超能力</v>
       </c>
       <c r="C62" s="13" t="str">
         <f>[1]攻守數據!AA63</f>
-        <v>無</v>
+        <v>飛行</v>
       </c>
       <c r="D62" s="14">
         <f>[1]攻守數據!AB63</f>
-        <v>22.4</v>
+        <v>50.628999999999998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="str">
         <f>[1]攻守數據!Y64</f>
-        <v>洛奇亞</v>
+        <v>飛腿郎</v>
       </c>
       <c r="B63" s="13" t="str">
         <f>[1]攻守數據!Z64</f>
-        <v>超能力</v>
+        <v>格鬥</v>
       </c>
       <c r="C63" s="13" t="str">
         <f>[1]攻守數據!AA64</f>
-        <v>飛行</v>
+        <v>無</v>
       </c>
       <c r="D63" s="14">
         <f>[1]攻守數據!AB64</f>
-        <v>50.628999999999998</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="str">
         <f>[1]攻守數據!Y65</f>
-        <v>飛腿郎</v>
+        <v>快拳郎</v>
       </c>
       <c r="B64" s="13" t="str">
         <f>[1]攻守數據!Z65</f>
@@ -3919,115 +3949,115 @@
       </c>
       <c r="D64" s="16">
         <f>[1]攻守數據!AB65</f>
-        <v>18.600000000000001</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="str">
         <f>[1]攻守數據!Y66</f>
-        <v>快拳郎</v>
+        <v>帝牙海獅</v>
       </c>
       <c r="B65" s="15" t="str">
         <f>[1]攻守數據!Z66</f>
-        <v>格鬥</v>
+        <v>水</v>
       </c>
       <c r="C65" s="15" t="str">
         <f>[1]攻守數據!AA66</f>
-        <v>無</v>
+        <v>冰</v>
       </c>
       <c r="D65" s="16">
         <f>[1]攻守數據!AB66</f>
-        <v>20.16</v>
+        <v>30.652999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="str">
         <f>IF([1]攻守數據!Y67 = "", "", [1]攻守數據!Y67)</f>
-        <v>帝牙海獅</v>
+        <v>龐岩怪</v>
       </c>
       <c r="B66" s="15" t="str">
         <f>IF([1]攻守數據!Z67 = "", "", [1]攻守數據!Z67)</f>
-        <v>水</v>
+        <v>岩石</v>
       </c>
       <c r="C66" s="15" t="str">
         <f>IF([1]攻守數據!AA67 = "", "", [1]攻守數據!AA67)</f>
-        <v>冰</v>
+        <v>無</v>
       </c>
       <c r="D66" s="16">
         <f>IF([1]攻守數據!AB67 = "", "", [1]攻守數據!AB67)</f>
-        <v>30.652999999999999</v>
+        <v>28.728000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="str">
         <f>IF([1]攻守數據!Y68 = "", "", [1]攻守數據!Y68)</f>
-        <v>龐岩怪</v>
+        <v>老翁龍</v>
       </c>
       <c r="B67" s="15" t="str">
         <f>IF([1]攻守數據!Z68 = "", "", [1]攻守數據!Z68)</f>
-        <v>岩石</v>
+        <v>龍</v>
       </c>
       <c r="C67" s="15" t="str">
         <f>IF([1]攻守數據!AA68 = "", "", [1]攻守數據!AA68)</f>
-        <v>無</v>
+        <v>一般</v>
       </c>
       <c r="D67" s="16">
         <f>IF([1]攻守數據!AB68 = "", "", [1]攻守數據!AB68)</f>
-        <v>28.728000000000002</v>
+        <v>22.277999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="str">
         <f>IF([1]攻守數據!Y69 = "", "", [1]攻守數據!Y69)</f>
-        <v>老翁龍</v>
+        <v>鳳王</v>
       </c>
       <c r="B68" s="15" t="str">
         <f>IF([1]攻守數據!Z69 = "", "", [1]攻守數據!Z69)</f>
-        <v>龍</v>
+        <v>飛行</v>
       </c>
       <c r="C68" s="15" t="str">
         <f>IF([1]攻守數據!AA69 = "", "", [1]攻守數據!AA69)</f>
-        <v>一般</v>
+        <v>火</v>
       </c>
       <c r="D68" s="16">
         <f>IF([1]攻守數據!AB69 = "", "", [1]攻守數據!AB69)</f>
-        <v>22.277999999999999</v>
+        <v>37.44</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="str">
         <f>IF([1]攻守數據!Y70 = "", "", [1]攻守數據!Y70)</f>
-        <v/>
+        <v>鳳王(LV.20)</v>
       </c>
       <c r="B69" s="15" t="str">
         <f>IF([1]攻守數據!Z70 = "", "", [1]攻守數據!Z70)</f>
-        <v/>
+        <v>飛行</v>
       </c>
       <c r="C69" s="15" t="str">
         <f>IF([1]攻守數據!AA70 = "", "", [1]攻守數據!AA70)</f>
-        <v/>
-      </c>
-      <c r="D69" s="16" t="str">
+        <v>火</v>
+      </c>
+      <c r="D69" s="16">
         <f>IF([1]攻守數據!AB70 = "", "", [1]攻守數據!AB70)</f>
-        <v/>
+        <v>21.08</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="str">
         <f>IF([1]攻守數據!Y71 = "", "", [1]攻守數據!Y71)</f>
-        <v/>
+        <v>鳳王(LV.30)</v>
       </c>
       <c r="B70" s="15" t="str">
         <f>IF([1]攻守數據!Z71 = "", "", [1]攻守數據!Z71)</f>
-        <v/>
+        <v>飛行</v>
       </c>
       <c r="C70" s="15" t="str">
         <f>IF([1]攻守數據!AA71 = "", "", [1]攻守數據!AA71)</f>
-        <v/>
-      </c>
-      <c r="D70" s="16" t="str">
+        <v>火</v>
+      </c>
+      <c r="D70" s="16">
         <f>IF([1]攻守數據!AB71 = "", "", [1]攻守數據!AB71)</f>
-        <v/>
+        <v>31.73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
